--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -39,6 +39,15 @@
       <color rgb="FF000000"/>
       <scheme val="none"/>
       <sz val="9.0"/>
+      <u val="none"/>
+      <vertAlign val="baseline"/>
+    </font>
+    <font>
+      <family val="2"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <scheme val="none"/>
+      <sz val="10.0"/>
       <u val="none"/>
       <vertAlign val="baseline"/>
     </font>
@@ -247,7 +256,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
@@ -264,8 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -312,24 +322,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="15" applyFont="true">
       <alignment horizontal="left" vertical="top" wrapText="false"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" wrapText="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="style1603385288238" xfId="1"/>
-    <cellStyle name="style1603385288332" xfId="2"/>
-    <cellStyle name="style1603385288410" xfId="3"/>
-    <cellStyle name="style1603385288472" xfId="4"/>
-    <cellStyle name="style1603385288566" xfId="5"/>
-    <cellStyle name="style1603385288675" xfId="6"/>
-    <cellStyle name="style1603385288787" xfId="7"/>
-    <cellStyle name="style1603385288849" xfId="8"/>
-    <cellStyle name="style1603385288912" xfId="9"/>
-    <cellStyle name="style1603385288959" xfId="10"/>
-    <cellStyle name="style1603385289021" xfId="11"/>
-    <cellStyle name="style1603385289084" xfId="12"/>
-    <cellStyle name="style1603385289162" xfId="13"/>
-    <cellStyle name="style1603385289255" xfId="14"/>
-    <cellStyle name="style1603385289331" xfId="15"/>
+    <cellStyle name="style1604509007286" xfId="1"/>
+    <cellStyle name="style1604509007412" xfId="2"/>
+    <cellStyle name="style1604509007562" xfId="3"/>
+    <cellStyle name="style1604509007697" xfId="4"/>
+    <cellStyle name="style1604509007801" xfId="5"/>
+    <cellStyle name="style1604509007925" xfId="6"/>
+    <cellStyle name="style1604509008015" xfId="7"/>
+    <cellStyle name="style1604509008087" xfId="8"/>
+    <cellStyle name="style1604509008162" xfId="9"/>
+    <cellStyle name="style1604509008305" xfId="10"/>
+    <cellStyle name="style1604509008382" xfId="11"/>
+    <cellStyle name="style1604509008457" xfId="12"/>
+    <cellStyle name="style1604509008560" xfId="13"/>
+    <cellStyle name="style1604509008722" xfId="14"/>
+    <cellStyle name="style1604509008824" xfId="15"/>
+    <cellStyle name="style1604509013288" xfId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3263"/>
+  <dimension ref="A1:C3397"/>
   <sheetViews>
     <sheetView tabSelected="true" view="normal" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0"/>
   </sheetViews>
@@ -35426,7 +35440,7 @@
     <row r="3022" spans="1:3" ht="18.0" customHeight="true">
       <c r="A3022" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$i5_health</t>
+          <t xml:space="preserve">i12_health_27</t>
         </is>
       </c>
       <c r="B3022" s="1"/>
@@ -35441,7 +35455,7 @@
         </is>
       </c>
     </row>
-    <row r="3024" spans="1:3" ht="282.0" customHeight="true">
+    <row r="3024" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3024" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -35454,11 +35468,11 @@
       </c>
       <c r="C3024" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thinking about the last 7 days… which, if any of the following, have you experienced? Please do NOT include symptoms you experience on a regular basis due to a health condition you already know about. Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3025" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Avoided mixing with other households indoors</t>
+        </is>
+      </c>
+    </row>
+    <row r="3025" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3025" s="6"/>
       <c r="B3025" s="9" t="inlineStr">
         <is>
@@ -35467,96 +35481,96 @@
       </c>
       <c r="C3025" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
     <row r="3026" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3026" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+      <c r="A3026" s="6"/>
       <c r="B3026" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i5_health_1</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3026" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dry cough</t>
+          <t xml:space="preserve">Nominal</t>
         </is>
       </c>
     </row>
     <row r="3027" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3027" s="6"/>
-      <c r="B3027" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_2</t>
+      <c r="A3027" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3027" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3027" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fever</t>
-        </is>
-      </c>
-    </row>
-    <row r="3028" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Always</t>
+        </is>
+      </c>
+    </row>
+    <row r="3028" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3028" s="6"/>
-      <c r="B3028" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_3</t>
+      <c r="B3028" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c r="C3028" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loss of sense of smell</t>
-        </is>
-      </c>
-    </row>
-    <row r="3029" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Frequently</t>
+        </is>
+      </c>
+    </row>
+    <row r="3029" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3029" s="6"/>
-      <c r="B3029" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_4</t>
+      <c r="B3029" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
         </is>
       </c>
       <c r="C3029" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loss of sense of taste</t>
-        </is>
-      </c>
-    </row>
-    <row r="3030" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Sometimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3030" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3030" s="6"/>
-      <c r="B3030" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_5</t>
+      <c r="B3030" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4</t>
         </is>
       </c>
       <c r="C3030" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shortness of breath or difficulty breathing</t>
+          <t xml:space="preserve">Rarely</t>
         </is>
       </c>
     </row>
     <row r="3031" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3031" s="7"/>
-      <c r="B3031" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_99</t>
+      <c r="B3031" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5</t>
         </is>
       </c>
       <c r="C3031" s="13" t="inlineStr">
         <is>
-          <t xml:space="preserve">None of these</t>
+          <t xml:space="preserve">Not at all</t>
         </is>
       </c>
     </row>
     <row r="3033" spans="1:3" ht="18.0" customHeight="true">
       <c r="A3033" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$i14_health</t>
+          <t xml:space="preserve">i12_health_28</t>
         </is>
       </c>
       <c r="B3033" s="1"/>
@@ -35571,7 +35585,7 @@
         </is>
       </c>
     </row>
-    <row r="3035" spans="1:3" ht="135.0" customHeight="true">
+    <row r="3035" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3035" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -35584,11 +35598,11 @@
       </c>
       <c r="C3035" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">In the next 7 days, will you be working outside your home in any of the following roles? Please tick all the apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3036" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Avoided staying overnight outside your home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3036" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3036" s="6"/>
       <c r="B3036" s="9" t="inlineStr">
         <is>
@@ -35597,141 +35611,124 @@
       </c>
       <c r="C3036" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
     <row r="3037" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3037" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+      <c r="A3037" s="6"/>
       <c r="B3037" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i14_health_1</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3037" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Construction</t>
-        </is>
-      </c>
-    </row>
-    <row r="3038" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3038" s="6"/>
-      <c r="B3038" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_2</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3038" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3038" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3038" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3038" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivering to homes</t>
+          <t xml:space="preserve">Always</t>
         </is>
       </c>
     </row>
     <row r="3039" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3039" s="6"/>
-      <c r="B3039" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_3</t>
+      <c r="B3039" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c r="C3039" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Food retail</t>
+          <t xml:space="preserve">Frequently</t>
         </is>
       </c>
     </row>
     <row r="3040" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3040" s="6"/>
-      <c r="B3040" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_4</t>
+      <c r="B3040" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
         </is>
       </c>
       <c r="C3040" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Healthcare</t>
-        </is>
-      </c>
-    </row>
-    <row r="3041" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Sometimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3041" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3041" s="6"/>
-      <c r="B3041" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_5</t>
+      <c r="B3041" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4</t>
         </is>
       </c>
       <c r="C3041" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logistics / other transportation</t>
+          <t xml:space="preserve">Rarely</t>
         </is>
       </c>
     </row>
     <row r="3042" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3042" s="6"/>
-      <c r="B3042" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_6</t>
-        </is>
-      </c>
-      <c r="C3042" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manufacturing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3043" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3043" s="6"/>
-      <c r="B3043" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_7</t>
-        </is>
-      </c>
-      <c r="C3043" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Policing or prisons</t>
-        </is>
-      </c>
-    </row>
-    <row r="3044" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3044" s="6"/>
-      <c r="B3044" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_8</t>
-        </is>
-      </c>
-      <c r="C3044" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Public transport</t>
-        </is>
-      </c>
+      <c r="A3042" s="7"/>
+      <c r="B3042" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c r="C3042" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not at all</t>
+        </is>
+      </c>
+    </row>
+    <row r="3044" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3044" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i12_health_29</t>
+        </is>
+      </c>
+      <c r="B3044" s="1"/>
+      <c r="C3044" s="1"/>
     </row>
     <row r="3045" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3045" s="6"/>
-      <c r="B3045" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_9</t>
-        </is>
-      </c>
-      <c r="C3045" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">School</t>
-        </is>
-      </c>
-    </row>
-    <row r="3046" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3046" s="6"/>
-      <c r="B3046" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_10</t>
-        </is>
-      </c>
-      <c r="C3046" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social care</t>
+      <c r="A3045" s="2"/>
+      <c r="B3045" s="3"/>
+      <c r="C3045" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3046" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3046" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3046" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3046" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avoided travelling outside your local area</t>
         </is>
       </c>
     </row>
@@ -35739,12 +35736,12 @@
       <c r="A3047" s="6"/>
       <c r="B3047" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i14_health_96</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3047" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
@@ -35752,116 +35749,116 @@
       <c r="A3048" s="6"/>
       <c r="B3048" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i14_health_98</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3048" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not sure</t>
-        </is>
-      </c>
-    </row>
-    <row r="3049" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3049" s="7"/>
-      <c r="B3049" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_99</t>
-        </is>
-      </c>
-      <c r="C3049" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No, will not be working outside my home</t>
-        </is>
-      </c>
-    </row>
-    <row r="3051" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3051" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$d1_health</t>
-        </is>
-      </c>
-      <c r="B3051" s="1"/>
-      <c r="C3051" s="1"/>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3049" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3049" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3049" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3049" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Always</t>
+        </is>
+      </c>
+    </row>
+    <row r="3050" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3050" s="6"/>
+      <c r="B3050" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
+        </is>
+      </c>
+      <c r="C3050" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frequently</t>
+        </is>
+      </c>
+    </row>
+    <row r="3051" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3051" s="6"/>
+      <c r="B3051" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
+        </is>
+      </c>
+      <c r="C3051" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sometimes</t>
+        </is>
+      </c>
     </row>
     <row r="3052" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3052" s="2"/>
-      <c r="B3052" s="3"/>
-      <c r="C3052" s="4" t="inlineStr">
+      <c r="A3052" s="6"/>
+      <c r="B3052" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4</t>
+        </is>
+      </c>
+      <c r="C3052" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rarely</t>
+        </is>
+      </c>
+    </row>
+    <row r="3053" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3053" s="7"/>
+      <c r="B3053" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5</t>
+        </is>
+      </c>
+      <c r="C3053" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not at all</t>
+        </is>
+      </c>
+    </row>
+    <row r="3055" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3055" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_1</t>
+        </is>
+      </c>
+      <c r="B3055" s="1"/>
+      <c r="C3055" s="1"/>
+    </row>
+    <row r="3056" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3056" s="2"/>
+      <c r="B3056" s="3"/>
+      <c r="C3056" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3053" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3053" s="5" t="inlineStr">
+    <row r="3057" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3057" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3053" s="8" t="inlineStr">
+      <c r="B3057" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3053" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any, of the following have you been diagnosed with?  Please select all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3054" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3054" s="6"/>
-      <c r="B3054" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3054" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3055" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3055" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3055" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_1</t>
-        </is>
-      </c>
-      <c r="C3055" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3056" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3056" s="6"/>
-      <c r="B3056" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_2</t>
-        </is>
-      </c>
-      <c r="C3056" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asthma</t>
-        </is>
-      </c>
-    </row>
-    <row r="3057" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3057" s="6"/>
-      <c r="B3057" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_3</t>
-        </is>
-      </c>
-      <c r="C3057" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cancer</t>
+      <c r="C3057" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In an outdoor place in a group of 6 or more people</t>
         </is>
       </c>
     </row>
@@ -35869,162 +35866,153 @@
       <c r="A3058" s="6"/>
       <c r="B3058" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_4</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3058" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cystic fibrosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3059" spans="1:3" ht="68.0" customHeight="true">
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3059" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3059" s="6"/>
       <c r="B3059" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_5</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3059" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chronic obstructive pulmonary disease (COPD)</t>
+          <t xml:space="preserve">Nominal</t>
         </is>
       </c>
     </row>
     <row r="3060" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3060" s="6"/>
-      <c r="B3060" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_6</t>
+      <c r="A3060" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3060" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3060" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diabetes</t>
+          <t xml:space="preserve">No</t>
         </is>
       </c>
     </row>
     <row r="3061" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3061" s="6"/>
-      <c r="B3061" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_7</t>
-        </is>
-      </c>
-      <c r="C3061" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epilepsy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3062" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3062" s="6"/>
-      <c r="B3062" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_8</t>
-        </is>
-      </c>
-      <c r="C3062" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heart disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="3063" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3063" s="6"/>
-      <c r="B3063" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_9</t>
-        </is>
-      </c>
-      <c r="C3063" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">High blood pressure</t>
-        </is>
-      </c>
-    </row>
-    <row r="3064" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3064" s="6"/>
-      <c r="B3064" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_10</t>
-        </is>
-      </c>
-      <c r="C3064" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">High cholesterol</t>
-        </is>
-      </c>
-    </row>
-    <row r="3065" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3065" s="6"/>
-      <c r="B3065" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_11</t>
-        </is>
-      </c>
-      <c r="C3065" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HIV/ Aids</t>
-        </is>
-      </c>
-    </row>
-    <row r="3066" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3061" s="7"/>
+      <c r="B3061" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3061" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3063" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3063" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_2</t>
+        </is>
+      </c>
+      <c r="B3063" s="1"/>
+      <c r="C3063" s="1"/>
+    </row>
+    <row r="3064" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3064" s="2"/>
+      <c r="B3064" s="3"/>
+      <c r="C3064" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3065" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3065" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3065" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3065" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In an indoor place in a group of 6 or more people</t>
+        </is>
+      </c>
+    </row>
+    <row r="3066" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3066" s="6"/>
       <c r="B3066" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_12</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3066" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mental health condition</t>
-        </is>
-      </c>
-    </row>
-    <row r="3067" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3067" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3067" s="6"/>
       <c r="B3067" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_13</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3067" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Sclerosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3068" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3068" s="6"/>
-      <c r="B3068" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_98</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3068" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3068" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3068" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3068" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prefer not to say</t>
+          <t xml:space="preserve">No</t>
         </is>
       </c>
     </row>
     <row r="3069" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3069" s="7"/>
-      <c r="B3069" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_99</t>
+      <c r="B3069" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3069" s="13" t="inlineStr">
         <is>
-          <t xml:space="preserve">None of these</t>
+          <t xml:space="preserve">Yes</t>
         </is>
       </c>
     </row>
     <row r="3071" spans="1:3" ht="18.0" customHeight="true">
       <c r="A3071" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$m4</t>
+          <t xml:space="preserve">Soc1_3</t>
         </is>
       </c>
       <c r="B3071" s="1"/>
@@ -36039,7 +36027,7 @@
         </is>
       </c>
     </row>
-    <row r="3073" spans="1:3" ht="68.0" customHeight="true">
+    <row r="3073" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3073" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -36052,11 +36040,11 @@
       </c>
       <c r="C3073" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Which type(s) of face mask did you wear? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3074" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Neither</t>
+        </is>
+      </c>
+    </row>
+    <row r="3074" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3074" s="6"/>
       <c r="B3074" s="9" t="inlineStr">
         <is>
@@ -36065,447 +36053,421 @@
       </c>
       <c r="C3074" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3075" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3075" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3075" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3075" s="6"/>
       <c r="B3075" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m4_1</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3075" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloth mask that you or someone had made at home for free</t>
-        </is>
-      </c>
-    </row>
-    <row r="3076" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3076" s="6"/>
-      <c r="B3076" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_2</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3076" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3076" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3076" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3076" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloth mask that you had bought</t>
-        </is>
-      </c>
-    </row>
-    <row r="3077" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3077" s="6"/>
-      <c r="B3077" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_3</t>
-        </is>
-      </c>
-      <c r="C3077" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Medical that you bought</t>
-        </is>
-      </c>
-    </row>
-    <row r="3078" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3078" s="6"/>
-      <c r="B3078" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_4</t>
-        </is>
-      </c>
-      <c r="C3078" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scarf or similar</t>
-        </is>
-      </c>
-    </row>
-    <row r="3079" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3079" s="6"/>
-      <c r="B3079" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_96</t>
-        </is>
-      </c>
-      <c r="C3079" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3077" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3077" s="7"/>
+      <c r="B3077" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3077" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3079" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3079" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_1</t>
+        </is>
+      </c>
+      <c r="B3079" s="1"/>
+      <c r="C3079" s="1"/>
     </row>
     <row r="3080" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3080" s="7"/>
-      <c r="B3080" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_99</t>
-        </is>
-      </c>
-      <c r="C3080" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Not sure</t>
-        </is>
-      </c>
-    </row>
-    <row r="3082" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3082" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m6</t>
-        </is>
-      </c>
-      <c r="B3082" s="1"/>
-      <c r="C3082" s="1"/>
+      <c r="A3080" s="2"/>
+      <c r="B3080" s="3"/>
+      <c r="C3080" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3081" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3081" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3081" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3081" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private house - inside your or someone else's home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3082" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3082" s="6"/>
+      <c r="B3082" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3082" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
     </row>
     <row r="3083" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3083" s="2"/>
-      <c r="B3083" s="3"/>
-      <c r="C3083" s="4" t="inlineStr">
+      <c r="A3083" s="6"/>
+      <c r="B3083" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Measurement</t>
+        </is>
+      </c>
+      <c r="C3083" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3084" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3084" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3084" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
+        </is>
+      </c>
+      <c r="C3084" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3085" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3085" s="7"/>
+      <c r="B3085" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3085" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3087" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3087" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_2</t>
+        </is>
+      </c>
+      <c r="B3087" s="1"/>
+      <c r="C3087" s="1"/>
+    </row>
+    <row r="3088" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3088" s="2"/>
+      <c r="B3088" s="3"/>
+      <c r="C3088" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3084" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3084" s="5" t="inlineStr">
+    <row r="3089" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3089" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3084" s="8" t="inlineStr">
+      <c r="B3089" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3084" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For which of the following reasons are you using a homemade mask? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3085" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3085" s="6"/>
-      <c r="B3085" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3085" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3086" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3086" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3086" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_1</t>
-        </is>
-      </c>
-      <c r="C3086" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Did not want to use resources that healthcare workers should have</t>
-        </is>
-      </c>
-    </row>
-    <row r="3087" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3087" s="6"/>
-      <c r="B3087" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_2</t>
-        </is>
-      </c>
-      <c r="C3087" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheaper</t>
-        </is>
-      </c>
-    </row>
-    <row r="3088" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3088" s="6"/>
-      <c r="B3088" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_3</t>
-        </is>
-      </c>
-      <c r="C3088" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have the skills, materials and equipment in the household</t>
-        </is>
-      </c>
-    </row>
-    <row r="3089" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3089" s="6"/>
-      <c r="B3089" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_4</t>
-        </is>
-      </c>
-      <c r="C3089" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Could not find any to buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3090" spans="1:3" ht="25.0" customHeight="true">
+      <c r="C3089" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pub or Bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3090" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3090" s="6"/>
       <c r="B3090" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_5</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3090" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quicker than buying</t>
-        </is>
-      </c>
-    </row>
-    <row r="3091" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3091" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3091" s="6"/>
       <c r="B3091" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_6</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3091" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easier to wash</t>
-        </is>
-      </c>
-    </row>
-    <row r="3092" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3092" s="6"/>
-      <c r="B3092" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_7</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3092" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3092" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3092" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3092" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Less environmental impact</t>
-        </is>
-      </c>
-    </row>
-    <row r="3093" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3093" s="6"/>
-      <c r="B3093" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_8</t>
-        </is>
-      </c>
-      <c r="C3093" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">More comfortable</t>
-        </is>
-      </c>
-    </row>
-    <row r="3094" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3094" s="7"/>
-      <c r="B3094" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_96</t>
-        </is>
-      </c>
-      <c r="C3094" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3096" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3096" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m8</t>
-        </is>
-      </c>
-      <c r="B3096" s="1"/>
-      <c r="C3096" s="1"/>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3093" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3093" s="7"/>
+      <c r="B3093" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3093" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3095" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3095" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_3</t>
+        </is>
+      </c>
+      <c r="B3095" s="1"/>
+      <c r="C3095" s="1"/>
+    </row>
+    <row r="3096" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3096" s="2"/>
+      <c r="B3096" s="3"/>
+      <c r="C3096" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
     </row>
     <row r="3097" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3097" s="2"/>
-      <c r="B3097" s="3"/>
-      <c r="C3097" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3098" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3098" s="5" t="inlineStr">
+      <c r="A3097" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3098" s="8" t="inlineStr">
+      <c r="B3097" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3098" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which of the following, if any, do you experience when using a mask? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3099" spans="1:3" ht="40.0" customHeight="true">
+      <c r="C3097" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="3098" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3098" s="6"/>
+      <c r="B3098" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3098" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3099" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3099" s="6"/>
       <c r="B3099" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3099" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3100" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3100" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3100" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3100" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_1</t>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3100" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3100" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Difficulty breathing</t>
+          <t xml:space="preserve">No</t>
         </is>
       </c>
     </row>
     <row r="3101" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3101" s="6"/>
-      <c r="B3101" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_2</t>
-        </is>
-      </c>
-      <c r="C3101" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Itchiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="3102" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3102" s="6"/>
-      <c r="B3102" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_3</t>
-        </is>
-      </c>
-      <c r="C3102" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Difficulty communicating</t>
-        </is>
-      </c>
-    </row>
-    <row r="3103" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3103" s="6"/>
-      <c r="B3103" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_4</t>
-        </is>
-      </c>
-      <c r="C3103" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Skin rashes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3104" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3104" s="6"/>
-      <c r="B3104" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_5</t>
-        </is>
-      </c>
-      <c r="C3104" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discomfort around the ears</t>
+      <c r="A3101" s="7"/>
+      <c r="B3101" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3101" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3103" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3103" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_4</t>
+        </is>
+      </c>
+      <c r="B3103" s="1"/>
+      <c r="C3103" s="1"/>
+    </row>
+    <row r="3104" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3104" s="2"/>
+      <c r="B3104" s="3"/>
+      <c r="C3104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
     <row r="3105" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3105" s="6"/>
-      <c r="B3105" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_6</t>
-        </is>
-      </c>
-      <c r="C3105" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">General discomfort</t>
-        </is>
-      </c>
-    </row>
-    <row r="3106" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3105" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3105" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3105" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="3106" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3106" s="6"/>
       <c r="B3106" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_7</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3106" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Steaming up eyewear / glasses</t>
-        </is>
-      </c>
-    </row>
-    <row r="3107" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3107" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3107" s="6"/>
       <c r="B3107" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_8</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3107" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feeling too hot</t>
+          <t xml:space="preserve">Nominal</t>
         </is>
       </c>
     </row>
     <row r="3108" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3108" s="6"/>
-      <c r="B3108" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_96</t>
+      <c r="A3108" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3108" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3108" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3109" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3109" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3109" s="7"/>
-      <c r="B3109" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_99</t>
+      <c r="B3109" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3109" s="13" t="inlineStr">
         <is>
-          <t xml:space="preserve">No issues when wearing a mask</t>
+          <t xml:space="preserve">Yes</t>
         </is>
       </c>
     </row>
     <row r="3111" spans="1:3" ht="18.0" customHeight="true">
       <c r="A3111" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$m12</t>
+          <t xml:space="preserve">Soc2_5</t>
         </is>
       </c>
       <c r="B3111" s="1"/>
@@ -36520,7 +36482,7 @@
         </is>
       </c>
     </row>
-    <row r="3113" spans="1:3" ht="161.0" customHeight="true">
+    <row r="3113" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3113" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -36533,11 +36495,11 @@
       </c>
       <c r="C3113" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you were to wear a mask when leaving the home which, if any, of the following do you think you might experience? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3114" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Community centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="3114" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3114" s="6"/>
       <c r="B3114" s="9" t="inlineStr">
         <is>
@@ -36546,115 +36508,98 @@
       </c>
       <c r="C3114" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3115" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3115" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3115" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3115" s="6"/>
       <c r="B3115" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_1</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3115" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Difficulty breathing</t>
+          <t xml:space="preserve">Nominal</t>
         </is>
       </c>
     </row>
     <row r="3116" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3116" s="6"/>
-      <c r="B3116" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_2</t>
+      <c r="A3116" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3116" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3116" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itchiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="3117" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3117" s="6"/>
-      <c r="B3117" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_3</t>
-        </is>
-      </c>
-      <c r="C3117" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Difficulty communicating</t>
-        </is>
-      </c>
-    </row>
-    <row r="3118" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3118" s="6"/>
-      <c r="B3118" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_4</t>
-        </is>
-      </c>
-      <c r="C3118" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Skin rashes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3119" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3119" s="6"/>
-      <c r="B3119" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_5</t>
-        </is>
-      </c>
-      <c r="C3119" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discomfort around the ears</t>
-        </is>
-      </c>
-    </row>
-    <row r="3120" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3120" s="6"/>
-      <c r="B3120" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_6</t>
-        </is>
-      </c>
-      <c r="C3120" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">General discomfort</t>
-        </is>
-      </c>
-    </row>
-    <row r="3121" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3121" s="6"/>
-      <c r="B3121" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_7</t>
-        </is>
-      </c>
-      <c r="C3121" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steaming up eyewear / glasses</t>
-        </is>
-      </c>
-    </row>
-    <row r="3122" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3117" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3117" s="7"/>
+      <c r="B3117" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3117" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3119" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3119" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_6</t>
+        </is>
+      </c>
+      <c r="B3119" s="1"/>
+      <c r="C3119" s="1"/>
+    </row>
+    <row r="3120" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3120" s="2"/>
+      <c r="B3120" s="3"/>
+      <c r="C3120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3121" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3121" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3121" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3121" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3122" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3122" s="6"/>
       <c r="B3122" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_8</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3122" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feeling too hot</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
@@ -36662,190 +36607,194 @@
       <c r="A3123" s="6"/>
       <c r="B3123" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_96</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3123" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3124" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3124" s="7"/>
-      <c r="B3124" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_99</t>
-        </is>
-      </c>
-      <c r="C3124" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't think there would be any issues when wearing a mask</t>
-        </is>
-      </c>
-    </row>
-    <row r="3126" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3126" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$v2</t>
-        </is>
-      </c>
-      <c r="B3126" s="1"/>
-      <c r="C3126" s="1"/>
-    </row>
-    <row r="3127" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3127" s="2"/>
-      <c r="B3127" s="3"/>
-      <c r="C3127" s="4" t="inlineStr">
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3124" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3124" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3124" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
+        </is>
+      </c>
+      <c r="C3124" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3125" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3125" s="7"/>
+      <c r="B3125" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3125" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3127" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3127" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_open</t>
+        </is>
+      </c>
+      <c r="B3127" s="1"/>
+      <c r="C3127" s="1"/>
+    </row>
+    <row r="3128" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3128" s="2"/>
+      <c r="B3128" s="3"/>
+      <c r="C3128" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3128" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A3128" s="5" t="inlineStr">
+    <row r="3129" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3129" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3128" s="8" t="inlineStr">
+      <c r="B3129" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3128" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Who in your household delayed or missed getting vaccinated because of COVID-19? Please tick all apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3129" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3129" s="6"/>
-      <c r="B3129" s="9" t="inlineStr">
+      <c r="C3129" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3130" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3130" s="6"/>
+      <c r="B3130" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Type</t>
         </is>
       </c>
-      <c r="C3129" s="12" t="inlineStr">
+      <c r="C3130" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">String</t>
+        </is>
+      </c>
+    </row>
+    <row r="3131" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3131" s="7"/>
+      <c r="B3131" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Measurement</t>
+        </is>
+      </c>
+      <c r="C3131" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3133" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3133" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$i5_health</t>
+        </is>
+      </c>
+      <c r="B3133" s="1"/>
+      <c r="C3133" s="1"/>
+    </row>
+    <row r="3134" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3134" s="2"/>
+      <c r="B3134" s="3"/>
+      <c r="C3134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3135" spans="1:3" ht="282.0" customHeight="true">
+      <c r="A3135" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3135" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3135" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thinking about the last 7 days… which, if any of the following, have you experienced? Please do NOT include symptoms you experience on a regular basis due to a health condition you already know about. Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3136" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3136" s="6"/>
+      <c r="B3136" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3136" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
-    <row r="3130" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3130" s="6" t="inlineStr">
+    <row r="3137" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3137" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
         </is>
       </c>
-      <c r="B3130" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_1</t>
-        </is>
-      </c>
-      <c r="C3130" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Me</t>
-        </is>
-      </c>
-    </row>
-    <row r="3131" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3131" s="6"/>
-      <c r="B3131" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_2</t>
-        </is>
-      </c>
-      <c r="C3131" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baby age 0 to 23 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="3132" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3132" s="6"/>
-      <c r="B3132" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_3</t>
-        </is>
-      </c>
-      <c r="C3132" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Child age 2 to 4 years</t>
-        </is>
-      </c>
-    </row>
-    <row r="3133" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3133" s="6"/>
-      <c r="B3133" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_4</t>
-        </is>
-      </c>
-      <c r="C3133" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Child age 5-17 years</t>
-        </is>
-      </c>
-    </row>
-    <row r="3134" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3134" s="6"/>
-      <c r="B3134" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_5</t>
-        </is>
-      </c>
-      <c r="C3134" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Someone else in my household</t>
-        </is>
-      </c>
-    </row>
-    <row r="3135" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3135" s="7"/>
-      <c r="B3135" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_99</t>
-        </is>
-      </c>
-      <c r="C3135" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-    <row r="3137" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3137" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$v4</t>
-        </is>
-      </c>
-      <c r="B3137" s="1"/>
-      <c r="C3137" s="1"/>
+      <c r="B3137" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_1</t>
+        </is>
+      </c>
+      <c r="C3137" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dry cough</t>
+        </is>
+      </c>
     </row>
     <row r="3138" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3138" s="2"/>
-      <c r="B3138" s="3"/>
-      <c r="C3138" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3139" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A3139" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3139" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3139" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What should vaccination clinics do to help your household feel safe getting vaccinated during this time? Please tick all that apply.</t>
+      <c r="A3138" s="6"/>
+      <c r="B3138" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_2</t>
+        </is>
+      </c>
+      <c r="C3138" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fever</t>
+        </is>
+      </c>
+    </row>
+    <row r="3139" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3139" s="6"/>
+      <c r="B3139" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_3</t>
+        </is>
+      </c>
+      <c r="C3139" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loss of sense of smell</t>
         </is>
       </c>
     </row>
@@ -36853,142 +36802,142 @@
       <c r="A3140" s="6"/>
       <c r="B3140" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">i5_health_4</t>
+        </is>
+      </c>
+      <c r="C3140" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loss of sense of taste</t>
+        </is>
+      </c>
+    </row>
+    <row r="3141" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3141" s="6"/>
+      <c r="B3141" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_5</t>
+        </is>
+      </c>
+      <c r="C3141" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shortness of breath or difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3142" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3142" s="7"/>
+      <c r="B3142" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_99</t>
+        </is>
+      </c>
+      <c r="C3142" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="3144" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3144" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$i14_health</t>
+        </is>
+      </c>
+      <c r="B3144" s="1"/>
+      <c r="C3144" s="1"/>
+    </row>
+    <row r="3145" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3145" s="2"/>
+      <c r="B3145" s="3"/>
+      <c r="C3145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3146" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3146" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3146" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3146" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the next 7 days, will you be working outside your home in any of the following roles? Please tick all the apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3147" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3147" s="6"/>
+      <c r="B3147" s="9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Type</t>
         </is>
       </c>
-      <c r="C3140" s="12" t="inlineStr">
+      <c r="C3147" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
-    <row r="3141" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3141" s="6" t="inlineStr">
+    <row r="3148" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3148" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
         </is>
       </c>
-      <c r="B3141" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_1</t>
-        </is>
-      </c>
-      <c r="C3141" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turn away people who have COVID-19 symptoms such as a fever or cough</t>
-        </is>
-      </c>
-    </row>
-    <row r="3142" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3142" s="6"/>
-      <c r="B3142" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_2</t>
-        </is>
-      </c>
-      <c r="C3142" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Require people to wear face masks when they are at the clinic</t>
-        </is>
-      </c>
-    </row>
-    <row r="3143" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3143" s="6"/>
-      <c r="B3143" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_3</t>
-        </is>
-      </c>
-      <c r="C3143" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have enough face masks and protective gowns for all staff</t>
-        </is>
-      </c>
-    </row>
-    <row r="3144" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3144" s="6"/>
-      <c r="B3144" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_4</t>
-        </is>
-      </c>
-      <c r="C3144" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have specific days and times dedicated only to vaccination for healthy people</t>
-        </is>
-      </c>
-    </row>
-    <row r="3145" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3145" s="6"/>
-      <c r="B3145" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_5</t>
-        </is>
-      </c>
-      <c r="C3145" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Offer drive-through vaccination to people while they remain in their cars</t>
-        </is>
-      </c>
-    </row>
-    <row r="3146" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3146" s="6"/>
-      <c r="B3146" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_96</t>
-        </is>
-      </c>
-      <c r="C3146" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3147" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3147" s="7"/>
-      <c r="B3147" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_99</t>
-        </is>
-      </c>
-      <c r="C3147" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these things would make me feel safe enough to go to a vaccination clinic right now</t>
-        </is>
-      </c>
-    </row>
-    <row r="3149" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3149" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m14</t>
-        </is>
-      </c>
-      <c r="B3149" s="1"/>
-      <c r="C3149" s="1"/>
+      <c r="B3148" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_1</t>
+        </is>
+      </c>
+      <c r="C3148" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construction</t>
+        </is>
+      </c>
+    </row>
+    <row r="3149" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3149" s="6"/>
+      <c r="B3149" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_2</t>
+        </is>
+      </c>
+      <c r="C3149" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivering to homes</t>
+        </is>
+      </c>
     </row>
     <row r="3150" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3150" s="2"/>
-      <c r="B3150" s="3"/>
-      <c r="C3150" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3151" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3151" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3151" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3151" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why are you currently not wearing a mask or face covering when you go outside? Please tick all that apply</t>
+      <c r="A3150" s="6"/>
+      <c r="B3150" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_3</t>
+        </is>
+      </c>
+      <c r="C3150" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Food retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3151" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3151" s="6"/>
+      <c r="B3151" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_4</t>
+        </is>
+      </c>
+      <c r="C3151" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare</t>
         </is>
       </c>
     </row>
@@ -36996,250 +36945,246 @@
       <c r="A3152" s="6"/>
       <c r="B3152" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">i14_health_5</t>
         </is>
       </c>
       <c r="C3152" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3153" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3153" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Logistics / other transportation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3153" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3153" s="6"/>
       <c r="B3153" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_1</t>
+          <t xml:space="preserve">i14_health_6</t>
         </is>
       </c>
       <c r="C3153" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not used to wearing a mask or face covering</t>
-        </is>
-      </c>
-    </row>
-    <row r="3154" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Manufacturing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3154" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3154" s="6"/>
       <c r="B3154" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_2</t>
+          <t xml:space="preserve">i14_health_7</t>
         </is>
       </c>
       <c r="C3154" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think only sick people should wear them</t>
-        </is>
-      </c>
-    </row>
-    <row r="3155" spans="1:3" ht="68.0" customHeight="true">
+          <t xml:space="preserve">Policing or prisons</t>
+        </is>
+      </c>
+    </row>
+    <row r="3155" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3155" s="6"/>
       <c r="B3155" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_3</t>
+          <t xml:space="preserve">i14_health_8</t>
         </is>
       </c>
       <c r="C3155" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coronavirus / COVID19 is not dangerous for me</t>
-        </is>
-      </c>
-    </row>
-    <row r="3156" spans="1:3" ht="68.0" customHeight="true">
+          <t xml:space="preserve">Public transport</t>
+        </is>
+      </c>
+    </row>
+    <row r="3156" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3156" s="6"/>
       <c r="B3156" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_4</t>
+          <t xml:space="preserve">i14_health_9</t>
         </is>
       </c>
       <c r="C3156" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">It is unlikely that I will get Coronavirus / COVID19 in the future</t>
-        </is>
-      </c>
-    </row>
-    <row r="3157" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">School</t>
+        </is>
+      </c>
+    </row>
+    <row r="3157" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3157" s="6"/>
       <c r="B3157" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_5</t>
+          <t xml:space="preserve">i14_health_10</t>
         </is>
       </c>
       <c r="C3157" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Most other people are not wearing them</t>
-        </is>
-      </c>
-    </row>
-    <row r="3158" spans="1:3" ht="68.0" customHeight="true">
+          <t xml:space="preserve">Social care</t>
+        </is>
+      </c>
+    </row>
+    <row r="3158" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3158" s="6"/>
       <c r="B3158" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_6</t>
+          <t xml:space="preserve">i14_health_96</t>
         </is>
       </c>
       <c r="C3158" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Masks are not effective in preventing the spread of Covid-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3159" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3159" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3159" s="6"/>
       <c r="B3159" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_7</t>
+          <t xml:space="preserve">i14_health_98</t>
         </is>
       </c>
       <c r="C3159" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't have any symptoms</t>
-        </is>
-      </c>
-    </row>
-    <row r="3160" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3160" s="6"/>
-      <c r="B3160" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_8</t>
-        </is>
-      </c>
-      <c r="C3160" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think I have already had Covid-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3161" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3161" s="6"/>
-      <c r="B3161" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_9</t>
-        </is>
-      </c>
-      <c r="C3161" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think I would find it uncomfortable</t>
-        </is>
-      </c>
-    </row>
-    <row r="3162" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3162" s="6"/>
-      <c r="B3162" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_10</t>
-        </is>
-      </c>
-      <c r="C3162" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">People would think I had Covid-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3163" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3163" s="6"/>
-      <c r="B3163" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_11</t>
-        </is>
-      </c>
-      <c r="C3163" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I think I would find it hard to communicate</t>
-        </is>
-      </c>
-    </row>
-    <row r="3164" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3164" s="6"/>
-      <c r="B3164" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_96</t>
-        </is>
-      </c>
-      <c r="C3164" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Another reason</t>
-        </is>
-      </c>
-    </row>
-    <row r="3165" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3165" s="7"/>
-      <c r="B3165" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_99</t>
-        </is>
-      </c>
-      <c r="C3165" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't know</t>
-        </is>
-      </c>
-    </row>
-    <row r="3167" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3167" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct1b</t>
-        </is>
-      </c>
-      <c r="B3167" s="1"/>
-      <c r="C3167" s="1"/>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3160" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3160" s="7"/>
+      <c r="B3160" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_99</t>
+        </is>
+      </c>
+      <c r="C3160" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, will not be working outside my home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3162" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3162" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$d1_health</t>
+        </is>
+      </c>
+      <c r="B3162" s="1"/>
+      <c r="C3162" s="1"/>
+    </row>
+    <row r="3163" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3163" s="2"/>
+      <c r="B3163" s="3"/>
+      <c r="C3163" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3164" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A3164" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3164" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3164" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any, of the following have you been diagnosed with?  Please select all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3165" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3165" s="6"/>
+      <c r="B3165" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3165" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3166" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3166" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3166" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_1</t>
+        </is>
+      </c>
+      <c r="C3166" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthritis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3167" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3167" s="6"/>
+      <c r="B3167" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_2</t>
+        </is>
+      </c>
+      <c r="C3167" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asthma</t>
+        </is>
+      </c>
     </row>
     <row r="3168" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3168" s="2"/>
-      <c r="B3168" s="3"/>
-      <c r="C3168" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3169" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3169" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3169" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3169" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From where have you heard about contact tracing? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3170" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3168" s="6"/>
+      <c r="B3168" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_3</t>
+        </is>
+      </c>
+      <c r="C3168" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3169" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3169" s="6"/>
+      <c r="B3169" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_4</t>
+        </is>
+      </c>
+      <c r="C3169" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cystic fibrosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3170" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3170" s="6"/>
       <c r="B3170" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">d1_health_5</t>
         </is>
       </c>
       <c r="C3170" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3171" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3171" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Chronic obstructive pulmonary disease (COPD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3171" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3171" s="6"/>
       <c r="B3171" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_1</t>
+          <t xml:space="preserve">d1_health_6</t>
         </is>
       </c>
       <c r="C3171" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health authorities,</t>
+          <t xml:space="preserve">Diabetes</t>
         </is>
       </c>
     </row>
@@ -37247,38 +37192,38 @@
       <c r="A3172" s="6"/>
       <c r="B3172" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_2</t>
+          <t xml:space="preserve">d1_health_7</t>
         </is>
       </c>
       <c r="C3172" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">My doctor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3173" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Epilepsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3173" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3173" s="6"/>
       <c r="B3173" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_3</t>
+          <t xml:space="preserve">d1_health_8</t>
         </is>
       </c>
       <c r="C3173" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">A nurse</t>
-        </is>
-      </c>
-    </row>
-    <row r="3174" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Heart disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="3174" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3174" s="6"/>
       <c r="B3174" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_4</t>
+          <t xml:space="preserve">d1_health_9</t>
         </is>
       </c>
       <c r="C3174" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other health or clinic staff such as a receptionist</t>
+          <t xml:space="preserve">High blood pressure</t>
         </is>
       </c>
     </row>
@@ -37286,12 +37231,12 @@
       <c r="A3175" s="6"/>
       <c r="B3175" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_5</t>
+          <t xml:space="preserve">d1_health_10</t>
         </is>
       </c>
       <c r="C3175" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">A community health worker</t>
+          <t xml:space="preserve">High cholesterol</t>
         </is>
       </c>
     </row>
@@ -37299,320 +37244,324 @@
       <c r="A3176" s="6"/>
       <c r="B3176" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_6</t>
+          <t xml:space="preserve">d1_health_11</t>
         </is>
       </c>
       <c r="C3176" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radio</t>
-        </is>
-      </c>
-    </row>
-    <row r="3177" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">HIV/ Aids</t>
+        </is>
+      </c>
+    </row>
+    <row r="3177" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3177" s="6"/>
       <c r="B3177" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_7</t>
+          <t xml:space="preserve">d1_health_12</t>
         </is>
       </c>
       <c r="C3177" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="3178" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Mental health condition</t>
+        </is>
+      </c>
+    </row>
+    <row r="3178" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3178" s="6"/>
       <c r="B3178" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_8</t>
+          <t xml:space="preserve">d1_health_13</t>
         </is>
       </c>
       <c r="C3178" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Social media</t>
-        </is>
-      </c>
-    </row>
-    <row r="3179" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Multiple Sclerosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3179" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3179" s="6"/>
       <c r="B3179" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_9</t>
+          <t xml:space="preserve">d1_health_98</t>
         </is>
       </c>
       <c r="C3179" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newspapers</t>
-        </is>
-      </c>
-    </row>
-    <row r="3180" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3180" s="6"/>
-      <c r="B3180" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_10</t>
-        </is>
-      </c>
-      <c r="C3180" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">World Health Organisation (WHO)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3181" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3181" s="6"/>
-      <c r="B3181" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_11</t>
-        </is>
-      </c>
-      <c r="C3181" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A contact tracing worker who contacted you</t>
-        </is>
-      </c>
-    </row>
-    <row r="3182" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3182" s="6"/>
-      <c r="B3182" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_96</t>
-        </is>
-      </c>
-      <c r="C3182" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3183" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3183" s="7"/>
-      <c r="B3183" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_99</t>
-        </is>
-      </c>
-      <c r="C3183" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Can't remember</t>
-        </is>
-      </c>
-    </row>
-    <row r="3185" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3185" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct5</t>
-        </is>
-      </c>
-      <c r="B3185" s="1"/>
-      <c r="C3185" s="1"/>
-    </row>
-    <row r="3186" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3186" s="2"/>
-      <c r="B3186" s="3"/>
-      <c r="C3186" s="4" t="inlineStr">
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="3180" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3180" s="7"/>
+      <c r="B3180" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_99</t>
+        </is>
+      </c>
+      <c r="C3180" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="3182" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3182" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m4</t>
+        </is>
+      </c>
+      <c r="B3182" s="1"/>
+      <c r="C3182" s="1"/>
+    </row>
+    <row r="3183" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3183" s="2"/>
+      <c r="B3183" s="3"/>
+      <c r="C3183" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3187" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3187" s="5" t="inlineStr">
+    <row r="3184" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3184" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3187" s="8" t="inlineStr">
+      <c r="B3184" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3187" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why might you not share the names of all people you have been in contact with? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3188" spans="1:3" ht="40.0" customHeight="true">
+      <c r="C3184" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which type(s) of face mask did you wear? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3185" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3185" s="6"/>
+      <c r="B3185" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3185" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3186" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3186" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3186" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_1</t>
+        </is>
+      </c>
+      <c r="C3186" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cloth mask that you or someone had made at home for free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3187" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3187" s="6"/>
+      <c r="B3187" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_2</t>
+        </is>
+      </c>
+      <c r="C3187" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cloth mask that you had bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="3188" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3188" s="6"/>
       <c r="B3188" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m4_3</t>
         </is>
       </c>
       <c r="C3188" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3189" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3189" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Medical that you bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="3189" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3189" s="6"/>
       <c r="B3189" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_1</t>
+          <t xml:space="preserve">m4_4</t>
         </is>
       </c>
       <c r="C3189" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I could contact them myself</t>
-        </is>
-      </c>
-    </row>
-    <row r="3190" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">Scarf or similar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3190" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3190" s="6"/>
       <c r="B3190" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_2</t>
+          <t xml:space="preserve">m4_96</t>
         </is>
       </c>
       <c r="C3190" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe this could result in loss of income for those people due to quarantine</t>
-        </is>
-      </c>
-    </row>
-    <row r="3191" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3191" s="6"/>
-      <c r="B3191" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_3</t>
-        </is>
-      </c>
-      <c r="C3191" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I believe people would blame me for having shared their name</t>
-        </is>
-      </c>
-    </row>
-    <row r="3192" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3192" s="6"/>
-      <c r="B3192" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_4</t>
-        </is>
-      </c>
-      <c r="C3192" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I do not trust authorities</t>
-        </is>
-      </c>
-    </row>
-    <row r="3193" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3193" s="6"/>
-      <c r="B3193" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_5</t>
-        </is>
-      </c>
-      <c r="C3193" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My family and friends would expect me not to share names</t>
-        </is>
-      </c>
-    </row>
-    <row r="3194" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3194" s="6"/>
-      <c r="B3194" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_6</t>
-        </is>
-      </c>
-      <c r="C3194" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I would cause inconvenience for the people whose names I share</t>
-        </is>
-      </c>
-    </row>
-    <row r="3195" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3195" s="6"/>
-      <c r="B3195" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_7</t>
-        </is>
-      </c>
-      <c r="C3195" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I do not want others to know I tested positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="3196" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3191" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3191" s="7"/>
+      <c r="B3191" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_99</t>
+        </is>
+      </c>
+      <c r="C3191" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3193" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3193" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m6</t>
+        </is>
+      </c>
+      <c r="B3193" s="1"/>
+      <c r="C3193" s="1"/>
+    </row>
+    <row r="3194" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3194" s="2"/>
+      <c r="B3194" s="3"/>
+      <c r="C3194" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3195" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3195" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3195" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3195" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For which of the following reasons are you using a homemade mask? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3196" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3196" s="6"/>
       <c r="B3196" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_8</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3196" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact tracing would not help stop the spread of coronavirus (COVID-19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3197" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3197" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3197" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3197" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3197" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_96</t>
+          <t xml:space="preserve">m6_1</t>
         </is>
       </c>
       <c r="C3197" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3198" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3198" s="7"/>
-      <c r="B3198" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_99</t>
-        </is>
-      </c>
-      <c r="C3198" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-    <row r="3200" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3200" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct6</t>
-        </is>
-      </c>
-      <c r="B3200" s="1"/>
-      <c r="C3200" s="1"/>
-    </row>
-    <row r="3201" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3201" s="2"/>
-      <c r="B3201" s="3"/>
-      <c r="C3201" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3202" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A3202" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3202" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3202" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any of the following topics related to contact tracing would you like to receive more information about? Please tick all that apply.</t>
+          <t xml:space="preserve">Did not want to use resources that healthcare workers should have</t>
+        </is>
+      </c>
+    </row>
+    <row r="3198" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3198" s="6"/>
+      <c r="B3198" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_2</t>
+        </is>
+      </c>
+      <c r="C3198" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheaper</t>
+        </is>
+      </c>
+    </row>
+    <row r="3199" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3199" s="6"/>
+      <c r="B3199" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_3</t>
+        </is>
+      </c>
+      <c r="C3199" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Have the skills, materials and equipment in the household</t>
+        </is>
+      </c>
+    </row>
+    <row r="3200" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3200" s="6"/>
+      <c r="B3200" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_4</t>
+        </is>
+      </c>
+      <c r="C3200" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Could not find any to buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3201" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3201" s="6"/>
+      <c r="B3201" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_5</t>
+        </is>
+      </c>
+      <c r="C3201" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quicker than buying</t>
+        </is>
+      </c>
+    </row>
+    <row r="3202" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3202" s="6"/>
+      <c r="B3202" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_6</t>
+        </is>
+      </c>
+      <c r="C3202" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easier to wash</t>
         </is>
       </c>
     </row>
@@ -37620,298 +37569,298 @@
       <c r="A3203" s="6"/>
       <c r="B3203" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m6_7</t>
         </is>
       </c>
       <c r="C3203" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3204" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3204" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Less environmental impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="3204" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3204" s="6"/>
       <c r="B3204" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_1</t>
+          <t xml:space="preserve">m6_8</t>
         </is>
       </c>
       <c r="C3204" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact tracing phone apps</t>
-        </is>
-      </c>
-    </row>
-    <row r="3205" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3205" s="6"/>
-      <c r="B3205" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_2</t>
-        </is>
-      </c>
-      <c r="C3205" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COVID-19 testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3206" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3206" s="6"/>
-      <c r="B3206" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_3</t>
-        </is>
-      </c>
-      <c r="C3206" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What happens to me after being traced</t>
-        </is>
-      </c>
-    </row>
-    <row r="3207" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3207" s="6"/>
-      <c r="B3207" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_4</t>
-        </is>
-      </c>
-      <c r="C3207" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What happens to my data after being traced</t>
-        </is>
-      </c>
-    </row>
-    <row r="3208" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3208" s="6"/>
-      <c r="B3208" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_5</t>
-        </is>
-      </c>
-      <c r="C3208" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What happens to other people after I provide contact details about them</t>
+          <t xml:space="preserve">More comfortable</t>
+        </is>
+      </c>
+    </row>
+    <row r="3205" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3205" s="7"/>
+      <c r="B3205" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_96</t>
+        </is>
+      </c>
+      <c r="C3205" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3207" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3207" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m8</t>
+        </is>
+      </c>
+      <c r="B3207" s="1"/>
+      <c r="C3207" s="1"/>
+    </row>
+    <row r="3208" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3208" s="2"/>
+      <c r="B3208" s="3"/>
+      <c r="C3208" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
     <row r="3209" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3209" s="6"/>
-      <c r="B3209" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_6</t>
-        </is>
-      </c>
-      <c r="C3209" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What happens to other people's data after I provide contact details about them</t>
-        </is>
-      </c>
-    </row>
-    <row r="3210" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3209" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3209" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3209" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which of the following, if any, do you experience when using a mask? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3210" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3210" s="6"/>
       <c r="B3210" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_96</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3210" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3211" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3211" s="7"/>
-      <c r="B3211" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct6_99</t>
-        </is>
-      </c>
-      <c r="C3211" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't know</t>
-        </is>
-      </c>
-    </row>
-    <row r="3213" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3213" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct8</t>
-        </is>
-      </c>
-      <c r="B3213" s="1"/>
-      <c r="C3213" s="1"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3211" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3211" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3211" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_1</t>
+        </is>
+      </c>
+      <c r="C3211" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3212" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3212" s="6"/>
+      <c r="B3212" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_2</t>
+        </is>
+      </c>
+      <c r="C3212" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itchiness</t>
+        </is>
+      </c>
+    </row>
+    <row r="3213" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3213" s="6"/>
+      <c r="B3213" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_3</t>
+        </is>
+      </c>
+      <c r="C3213" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Difficulty communicating</t>
+        </is>
+      </c>
     </row>
     <row r="3214" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3214" s="2"/>
-      <c r="B3214" s="3"/>
-      <c r="C3214" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3215" spans="1:3" ht="148.0" customHeight="true">
-      <c r="A3215" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3215" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3215" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any of the following would you trust to conduct contact tracing interviews? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3216" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3214" s="6"/>
+      <c r="B3214" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_4</t>
+        </is>
+      </c>
+      <c r="C3214" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skin rashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3215" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3215" s="6"/>
+      <c r="B3215" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_5</t>
+        </is>
+      </c>
+      <c r="C3215" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discomfort around the ears</t>
+        </is>
+      </c>
+    </row>
+    <row r="3216" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3216" s="6"/>
       <c r="B3216" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m8_6</t>
         </is>
       </c>
       <c r="C3216" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3217" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3217" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">General discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="3217" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3217" s="6"/>
       <c r="B3217" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_1</t>
+          <t xml:space="preserve">m8_7</t>
         </is>
       </c>
       <c r="C3217" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by the government</t>
-        </is>
-      </c>
-    </row>
-    <row r="3218" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">Steaming up eyewear / glasses</t>
+        </is>
+      </c>
+    </row>
+    <row r="3218" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3218" s="6"/>
       <c r="B3218" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_2</t>
+          <t xml:space="preserve">m8_8</t>
         </is>
       </c>
       <c r="C3218" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by non-government organisations</t>
-        </is>
-      </c>
-    </row>
-    <row r="3219" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">Feeling too hot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3219" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3219" s="6"/>
       <c r="B3219" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_3</t>
+          <t xml:space="preserve">m8_96</t>
         </is>
       </c>
       <c r="C3219" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by international health organizations</t>
+          <t xml:space="preserve">Other</t>
         </is>
       </c>
     </row>
     <row r="3220" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3220" s="6"/>
-      <c r="B3220" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct8_4</t>
-        </is>
-      </c>
-      <c r="C3220" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">People in your local community</t>
-        </is>
-      </c>
-    </row>
-    <row r="3221" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3221" s="6"/>
-      <c r="B3221" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct8_5</t>
-        </is>
-      </c>
-      <c r="C3221" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Your doctor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3222" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3222" s="6"/>
-      <c r="B3222" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct8_6</t>
-        </is>
-      </c>
-      <c r="C3222" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volunteers</t>
-        </is>
-      </c>
-    </row>
-    <row r="3223" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3223" s="7"/>
-      <c r="B3223" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct8_99</t>
-        </is>
-      </c>
-      <c r="C3223" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of the above</t>
-        </is>
-      </c>
-    </row>
-    <row r="3225" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3225" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$w4</t>
-        </is>
-      </c>
-      <c r="B3225" s="1"/>
-      <c r="C3225" s="1"/>
-    </row>
-    <row r="3226" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3226" s="2"/>
-      <c r="B3226" s="3"/>
-      <c r="C3226" s="4" t="inlineStr">
+      <c r="A3220" s="7"/>
+      <c r="B3220" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_99</t>
+        </is>
+      </c>
+      <c r="C3220" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No issues when wearing a mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="3222" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3222" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m12</t>
+        </is>
+      </c>
+      <c r="B3222" s="1"/>
+      <c r="C3222" s="1"/>
+    </row>
+    <row r="3223" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3223" s="2"/>
+      <c r="B3223" s="3"/>
+      <c r="C3223" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3227" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3227" s="5" t="inlineStr">
+    <row r="3224" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A3224" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3227" s="8" t="inlineStr">
+      <c r="B3224" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3227" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the past week… have you done any of the following? Please tick all that apply.</t>
+      <c r="C3224" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you were to wear a mask when leaving the home which, if any, of the following do you think you might experience? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3225" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3225" s="6"/>
+      <c r="B3225" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3225" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3226" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3226" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3226" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_1</t>
+        </is>
+      </c>
+      <c r="C3226" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3227" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3227" s="6"/>
+      <c r="B3227" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_2</t>
+        </is>
+      </c>
+      <c r="C3227" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itchiness</t>
         </is>
       </c>
     </row>
@@ -37919,207 +37868,207 @@
       <c r="A3228" s="6"/>
       <c r="B3228" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m12_3</t>
         </is>
       </c>
       <c r="C3228" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3229" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3229" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Difficulty communicating</t>
+        </is>
+      </c>
+    </row>
+    <row r="3229" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3229" s="6"/>
       <c r="B3229" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_1</t>
+          <t xml:space="preserve">m12_4</t>
         </is>
       </c>
       <c r="C3229" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spoken with someone about your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3230" spans="1:3" ht="108.0" customHeight="true">
+          <t xml:space="preserve">Skin rashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3230" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3230" s="6"/>
       <c r="B3230" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_2</t>
+          <t xml:space="preserve">m12_5</t>
         </is>
       </c>
       <c r="C3230" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taken any prescription medication to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3231" spans="1:3" ht="135.0" customHeight="true">
+          <t xml:space="preserve">Discomfort around the ears</t>
+        </is>
+      </c>
+    </row>
+    <row r="3231" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3231" s="6"/>
       <c r="B3231" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_3</t>
+          <t xml:space="preserve">m12_6</t>
         </is>
       </c>
       <c r="C3231" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moderate or high intensity exercise for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3232" spans="1:3" ht="135.0" customHeight="true">
+          <t xml:space="preserve">General discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="3232" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3232" s="6"/>
       <c r="B3232" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_4</t>
+          <t xml:space="preserve">m12_7</t>
         </is>
       </c>
       <c r="C3232" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low intensity exercise or walking for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3233" spans="1:3" ht="135.0" customHeight="true">
+          <t xml:space="preserve">Steaming up eyewear / glasses</t>
+        </is>
+      </c>
+    </row>
+    <row r="3233" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3233" s="6"/>
       <c r="B3233" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_5</t>
+          <t xml:space="preserve">m12_8</t>
         </is>
       </c>
       <c r="C3233" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Practiced meditation, breathing exercises or relaxation to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3234" spans="1:3" ht="255.0" customHeight="true">
+          <t xml:space="preserve">Feeling too hot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3234" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3234" s="6"/>
       <c r="B3234" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_6</t>
+          <t xml:space="preserve">m12_96</t>
         </is>
       </c>
       <c r="C3234" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Provided assistance to others, such as friends, neighbours or co-workers, without expecting anything in return.  For example running an errand or providing childcare without expecting anything in return</t>
-        </is>
-      </c>
-    </row>
-    <row r="3235" spans="1:3" ht="215.0" customHeight="true">
-      <c r="A3235" s="6"/>
-      <c r="B3235" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_7</t>
-        </is>
-      </c>
-      <c r="C3235" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Looked for information about how to use psychological therapy, counselling, doctors or other professional care to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3236" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A3236" s="6"/>
-      <c r="B3236" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_8</t>
-        </is>
-      </c>
-      <c r="C3236" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spoken to a therapist, counsellor, doctor or other mental health care professional to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3237" spans="1:3" ht="201.0" customHeight="true">
-      <c r="A3237" s="6"/>
-      <c r="B3237" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_9</t>
-        </is>
-      </c>
-      <c r="C3237" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Read websites, books, magazines, blogs, articles, leaflets or brochures for information on how to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3238" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3238" s="6"/>
-      <c r="B3238" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_10</t>
-        </is>
-      </c>
-      <c r="C3238" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Used a mobile phone or tablet health app to improve your stress, mental health or mental wellbeing</t>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3235" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3235" s="7"/>
+      <c r="B3235" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_99</t>
+        </is>
+      </c>
+      <c r="C3235" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't think there would be any issues when wearing a mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="3237" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3237" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$v2</t>
+        </is>
+      </c>
+      <c r="B3237" s="1"/>
+      <c r="C3237" s="1"/>
+    </row>
+    <row r="3238" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3238" s="2"/>
+      <c r="B3238" s="3"/>
+      <c r="C3238" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
     <row r="3239" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A3239" s="6"/>
-      <c r="B3239" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_11</t>
-        </is>
-      </c>
-      <c r="C3239" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cared for or played with a household pet to improve your stress, mental health or mental wellbeing, such as walking a dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="3240" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3240" s="7"/>
-      <c r="B3240" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_99</t>
-        </is>
-      </c>
-      <c r="C3240" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these</t>
-        </is>
-      </c>
-    </row>
-    <row r="3242" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3242" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$w5</t>
-        </is>
-      </c>
-      <c r="B3242" s="1"/>
-      <c r="C3242" s="1"/>
-    </row>
-    <row r="3243" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3243" s="2"/>
-      <c r="B3243" s="3"/>
-      <c r="C3243" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3244" spans="1:3" ht="228.0" customHeight="true">
-      <c r="A3244" s="5" t="inlineStr">
+      <c r="A3239" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3244" s="8" t="inlineStr">
+      <c r="B3239" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3244" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You ticked you spoke with someone about your stress, mental health or mental wellbeing in the past week. With whom have you had a conversation with? Please tick all that apply.</t>
+      <c r="C3239" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who in your household delayed or missed getting vaccinated because of COVID-19? Please tick all apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3240" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3240" s="6"/>
+      <c r="B3240" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3240" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3241" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3241" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3241" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_1</t>
+        </is>
+      </c>
+      <c r="C3241" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Me</t>
+        </is>
+      </c>
+    </row>
+    <row r="3242" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3242" s="6"/>
+      <c r="B3242" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_2</t>
+        </is>
+      </c>
+      <c r="C3242" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baby age 0 to 23 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="3243" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3243" s="6"/>
+      <c r="B3243" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_3</t>
+        </is>
+      </c>
+      <c r="C3243" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Child age 2 to 4 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="3244" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3244" s="6"/>
+      <c r="B3244" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_4</t>
+        </is>
+      </c>
+      <c r="C3244" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Child age 5-17 years</t>
         </is>
       </c>
     </row>
@@ -38127,146 +38076,129 @@
       <c r="A3245" s="6"/>
       <c r="B3245" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">v2_5</t>
         </is>
       </c>
       <c r="C3245" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3246" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3246" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3246" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_1</t>
-        </is>
-      </c>
-      <c r="C3246" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Family (including Partner or Civil Partnership)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3247" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3247" s="6"/>
-      <c r="B3247" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_2</t>
-        </is>
-      </c>
-      <c r="C3247" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friend (not including Partner or Civil Partnership)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3248" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3248" s="6"/>
-      <c r="B3248" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_3</t>
-        </is>
-      </c>
-      <c r="C3248" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP/ General Practitioner / Family Doctor</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Someone else in my household</t>
+        </is>
+      </c>
+    </row>
+    <row r="3246" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3246" s="7"/>
+      <c r="B3246" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_99</t>
+        </is>
+      </c>
+      <c r="C3246" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="3248" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3248" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$v4</t>
+        </is>
+      </c>
+      <c r="B3248" s="1"/>
+      <c r="C3248" s="1"/>
     </row>
     <row r="3249" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3249" s="6"/>
-      <c r="B3249" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_4</t>
-        </is>
-      </c>
-      <c r="C3249" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychiatrist</t>
-        </is>
-      </c>
-    </row>
-    <row r="3250" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3250" s="6"/>
-      <c r="B3250" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_5</t>
-        </is>
-      </c>
-      <c r="C3250" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychologist</t>
-        </is>
-      </c>
-    </row>
-    <row r="3251" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3249" s="2"/>
+      <c r="B3249" s="3"/>
+      <c r="C3249" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3250" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A3250" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3250" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3250" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What should vaccination clinics do to help your household feel safe getting vaccinated during this time? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3251" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3251" s="6"/>
       <c r="B3251" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_6</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3251" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Counsellor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3252" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3252" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3252" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3252" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3252" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_7</t>
+          <t xml:space="preserve">v4_1</t>
         </is>
       </c>
       <c r="C3252" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nurse</t>
-        </is>
-      </c>
-    </row>
-    <row r="3253" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Turn away people who have COVID-19 symptoms such as a fever or cough</t>
+        </is>
+      </c>
+    </row>
+    <row r="3253" spans="1:3" ht="81.0" customHeight="true">
       <c r="A3253" s="6"/>
       <c r="B3253" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_8</t>
+          <t xml:space="preserve">v4_2</t>
         </is>
       </c>
       <c r="C3253" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Work colleague</t>
-        </is>
-      </c>
-    </row>
-    <row r="3254" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Require people to wear face masks when they are at the clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="3254" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3254" s="6"/>
       <c r="B3254" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_9</t>
+          <t xml:space="preserve">v4_3</t>
         </is>
       </c>
       <c r="C3254" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Work supervisor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3255" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Have enough face masks and protective gowns for all staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="3255" spans="1:3" ht="108.0" customHeight="true">
       <c r="A3255" s="6"/>
       <c r="B3255" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_10</t>
+          <t xml:space="preserve">v4_4</t>
         </is>
       </c>
       <c r="C3255" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone from Human Resources where I work</t>
+          <t xml:space="preserve">Have specific days and times dedicated only to vaccination for healthy people</t>
         </is>
       </c>
     </row>
@@ -38274,103 +38206,1697 @@
       <c r="A3256" s="6"/>
       <c r="B3256" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_11</t>
+          <t xml:space="preserve">v4_5</t>
         </is>
       </c>
       <c r="C3256" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone from a mental health training program where I work</t>
-        </is>
-      </c>
-    </row>
-    <row r="3257" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">Offer drive-through vaccination to people while they remain in their cars</t>
+        </is>
+      </c>
+    </row>
+    <row r="3257" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3257" s="6"/>
       <c r="B3257" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">v4_96</t>
+        </is>
+      </c>
+      <c r="C3257" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3258" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3258" s="7"/>
+      <c r="B3258" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v4_99</t>
+        </is>
+      </c>
+      <c r="C3258" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these things would make me feel safe enough to go to a vaccination clinic right now</t>
+        </is>
+      </c>
+    </row>
+    <row r="3260" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3260" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m14</t>
+        </is>
+      </c>
+      <c r="B3260" s="1"/>
+      <c r="C3260" s="1"/>
+    </row>
+    <row r="3261" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3261" s="2"/>
+      <c r="B3261" s="3"/>
+      <c r="C3261" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3262" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A3262" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3262" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3262" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why are you currently not wearing a mask or face covering when you go outside? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3263" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3263" s="6"/>
+      <c r="B3263" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3263" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3264" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3264" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3264" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_1</t>
+        </is>
+      </c>
+      <c r="C3264" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not used to wearing a mask or face covering</t>
+        </is>
+      </c>
+    </row>
+    <row r="3265" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3265" s="6"/>
+      <c r="B3265" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_2</t>
+        </is>
+      </c>
+      <c r="C3265" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think only sick people should wear them</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3266" s="6"/>
+      <c r="B3266" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_3</t>
+        </is>
+      </c>
+      <c r="C3266" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coronavirus / COVID19 is not dangerous for me</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3267" s="6"/>
+      <c r="B3267" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_4</t>
+        </is>
+      </c>
+      <c r="C3267" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is unlikely that I will get Coronavirus / COVID19 in the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3268" s="6"/>
+      <c r="B3268" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_5</t>
+        </is>
+      </c>
+      <c r="C3268" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Most other people are not wearing them</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3269" s="6"/>
+      <c r="B3269" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_6</t>
+        </is>
+      </c>
+      <c r="C3269" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masks are not effective in preventing the spread of Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3270" s="6"/>
+      <c r="B3270" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_7</t>
+        </is>
+      </c>
+      <c r="C3270" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't have any symptoms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3271" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3271" s="6"/>
+      <c r="B3271" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_8</t>
+        </is>
+      </c>
+      <c r="C3271" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think I have already had Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3272" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3272" s="6"/>
+      <c r="B3272" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_9</t>
+        </is>
+      </c>
+      <c r="C3272" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think I would find it uncomfortable</t>
+        </is>
+      </c>
+    </row>
+    <row r="3273" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3273" s="6"/>
+      <c r="B3273" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_10</t>
+        </is>
+      </c>
+      <c r="C3273" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">People would think I had Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3274" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3274" s="6"/>
+      <c r="B3274" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_11</t>
+        </is>
+      </c>
+      <c r="C3274" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think I would find it hard to communicate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3275" s="6"/>
+      <c r="B3275" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_96</t>
+        </is>
+      </c>
+      <c r="C3275" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Another reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3276" s="7"/>
+      <c r="B3276" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_99</t>
+        </is>
+      </c>
+      <c r="C3276" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="3278" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3278" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct1b</t>
+        </is>
+      </c>
+      <c r="B3278" s="1"/>
+      <c r="C3278" s="1"/>
+    </row>
+    <row r="3279" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3279" s="2"/>
+      <c r="B3279" s="3"/>
+      <c r="C3279" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3280" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3280" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3280" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3280" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">From where have you heard about contact tracing? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3281" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3281" s="6"/>
+      <c r="B3281" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3281" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3282" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3282" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3282" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_1</t>
+        </is>
+      </c>
+      <c r="C3282" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health authorities,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3283" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3283" s="6"/>
+      <c r="B3283" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_2</t>
+        </is>
+      </c>
+      <c r="C3283" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3284" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3284" s="6"/>
+      <c r="B3284" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_3</t>
+        </is>
+      </c>
+      <c r="C3284" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A nurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="3285" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3285" s="6"/>
+      <c r="B3285" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_4</t>
+        </is>
+      </c>
+      <c r="C3285" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other health or clinic staff such as a receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="3286" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3286" s="6"/>
+      <c r="B3286" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_5</t>
+        </is>
+      </c>
+      <c r="C3286" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A community health worker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3287" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3287" s="6"/>
+      <c r="B3287" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_6</t>
+        </is>
+      </c>
+      <c r="C3287" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="3288" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3288" s="6"/>
+      <c r="B3288" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_7</t>
+        </is>
+      </c>
+      <c r="C3288" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="3289" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3289" s="6"/>
+      <c r="B3289" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_8</t>
+        </is>
+      </c>
+      <c r="C3289" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social media</t>
+        </is>
+      </c>
+    </row>
+    <row r="3290" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3290" s="6"/>
+      <c r="B3290" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_9</t>
+        </is>
+      </c>
+      <c r="C3290" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newspapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="3291" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3291" s="6"/>
+      <c r="B3291" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_10</t>
+        </is>
+      </c>
+      <c r="C3291" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World Health Organisation (WHO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3292" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3292" s="6"/>
+      <c r="B3292" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_11</t>
+        </is>
+      </c>
+      <c r="C3292" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A contact tracing worker who contacted you</t>
+        </is>
+      </c>
+    </row>
+    <row r="3293" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3293" s="6"/>
+      <c r="B3293" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_96</t>
+        </is>
+      </c>
+      <c r="C3293" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3294" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3294" s="7"/>
+      <c r="B3294" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_99</t>
+        </is>
+      </c>
+      <c r="C3294" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can't remember</t>
+        </is>
+      </c>
+    </row>
+    <row r="3296" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3296" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct5</t>
+        </is>
+      </c>
+      <c r="B3296" s="1"/>
+      <c r="C3296" s="1"/>
+    </row>
+    <row r="3297" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3297" s="2"/>
+      <c r="B3297" s="3"/>
+      <c r="C3297" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3298" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3298" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3298" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3298" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why might you not share the names of all people you have been in contact with? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3299" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3299" s="6"/>
+      <c r="B3299" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3299" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3300" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3300" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3300" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_1</t>
+        </is>
+      </c>
+      <c r="C3300" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I could contact them myself</t>
+        </is>
+      </c>
+    </row>
+    <row r="3301" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3301" s="6"/>
+      <c r="B3301" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_2</t>
+        </is>
+      </c>
+      <c r="C3301" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I believe this could result in loss of income for those people due to quarantine</t>
+        </is>
+      </c>
+    </row>
+    <row r="3302" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3302" s="6"/>
+      <c r="B3302" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_3</t>
+        </is>
+      </c>
+      <c r="C3302" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I believe people would blame me for having shared their name</t>
+        </is>
+      </c>
+    </row>
+    <row r="3303" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3303" s="6"/>
+      <c r="B3303" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_4</t>
+        </is>
+      </c>
+      <c r="C3303" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do not trust authorities</t>
+        </is>
+      </c>
+    </row>
+    <row r="3304" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3304" s="6"/>
+      <c r="B3304" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_5</t>
+        </is>
+      </c>
+      <c r="C3304" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My family and friends would expect me not to share names</t>
+        </is>
+      </c>
+    </row>
+    <row r="3305" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3305" s="6"/>
+      <c r="B3305" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_6</t>
+        </is>
+      </c>
+      <c r="C3305" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I would cause inconvenience for the people whose names I share</t>
+        </is>
+      </c>
+    </row>
+    <row r="3306" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3306" s="6"/>
+      <c r="B3306" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_7</t>
+        </is>
+      </c>
+      <c r="C3306" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do not want others to know I tested positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="3307" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3307" s="6"/>
+      <c r="B3307" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_8</t>
+        </is>
+      </c>
+      <c r="C3307" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contact tracing would not help stop the spread of coronavirus (COVID-19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3308" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3308" s="6"/>
+      <c r="B3308" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_96</t>
+        </is>
+      </c>
+      <c r="C3308" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3309" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3309" s="7"/>
+      <c r="B3309" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_99</t>
+        </is>
+      </c>
+      <c r="C3309" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="3311" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3311" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct6</t>
+        </is>
+      </c>
+      <c r="B3311" s="1"/>
+      <c r="C3311" s="1"/>
+    </row>
+    <row r="3312" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3312" s="2"/>
+      <c r="B3312" s="3"/>
+      <c r="C3312" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3313" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A3313" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3313" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3313" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any of the following topics related to contact tracing would you like to receive more information about? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3314" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3314" s="6"/>
+      <c r="B3314" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3314" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3315" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3315" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3315" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_1</t>
+        </is>
+      </c>
+      <c r="C3315" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contact tracing phone apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="3316" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3316" s="6"/>
+      <c r="B3316" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_2</t>
+        </is>
+      </c>
+      <c r="C3316" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COVID-19 testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3317" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3317" s="6"/>
+      <c r="B3317" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_3</t>
+        </is>
+      </c>
+      <c r="C3317" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What happens to me after being traced</t>
+        </is>
+      </c>
+    </row>
+    <row r="3318" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3318" s="6"/>
+      <c r="B3318" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_4</t>
+        </is>
+      </c>
+      <c r="C3318" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What happens to my data after being traced</t>
+        </is>
+      </c>
+    </row>
+    <row r="3319" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3319" s="6"/>
+      <c r="B3319" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_5</t>
+        </is>
+      </c>
+      <c r="C3319" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What happens to other people after I provide contact details about them</t>
+        </is>
+      </c>
+    </row>
+    <row r="3320" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3320" s="6"/>
+      <c r="B3320" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_6</t>
+        </is>
+      </c>
+      <c r="C3320" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What happens to other people's data after I provide contact details about them</t>
+        </is>
+      </c>
+    </row>
+    <row r="3321" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3321" s="6"/>
+      <c r="B3321" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_96</t>
+        </is>
+      </c>
+      <c r="C3321" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3322" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3322" s="7"/>
+      <c r="B3322" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_99</t>
+        </is>
+      </c>
+      <c r="C3322" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="3324" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3324" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct8</t>
+        </is>
+      </c>
+      <c r="B3324" s="1"/>
+      <c r="C3324" s="1"/>
+    </row>
+    <row r="3325" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3325" s="2"/>
+      <c r="B3325" s="3"/>
+      <c r="C3325" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3326" spans="1:3" ht="148.0" customHeight="true">
+      <c r="A3326" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3326" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3326" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any of the following would you trust to conduct contact tracing interviews? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3327" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3327" s="6"/>
+      <c r="B3327" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3327" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3328" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3328" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3328" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_1</t>
+        </is>
+      </c>
+      <c r="C3328" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by the government</t>
+        </is>
+      </c>
+    </row>
+    <row r="3329" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3329" s="6"/>
+      <c r="B3329" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_2</t>
+        </is>
+      </c>
+      <c r="C3329" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by non-government organisations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3330" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3330" s="6"/>
+      <c r="B3330" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_3</t>
+        </is>
+      </c>
+      <c r="C3330" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by international health organizations</t>
+        </is>
+      </c>
+    </row>
+    <row r="3331" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3331" s="6"/>
+      <c r="B3331" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_4</t>
+        </is>
+      </c>
+      <c r="C3331" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">People in your local community</t>
+        </is>
+      </c>
+    </row>
+    <row r="3332" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3332" s="6"/>
+      <c r="B3332" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_5</t>
+        </is>
+      </c>
+      <c r="C3332" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3333" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3333" s="6"/>
+      <c r="B3333" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_6</t>
+        </is>
+      </c>
+      <c r="C3333" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volunteers</t>
+        </is>
+      </c>
+    </row>
+    <row r="3334" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3334" s="7"/>
+      <c r="B3334" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_99</t>
+        </is>
+      </c>
+      <c r="C3334" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of the above</t>
+        </is>
+      </c>
+    </row>
+    <row r="3336" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3336" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$w4</t>
+        </is>
+      </c>
+      <c r="B3336" s="1"/>
+      <c r="C3336" s="1"/>
+    </row>
+    <row r="3337" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3337" s="2"/>
+      <c r="B3337" s="3"/>
+      <c r="C3337" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3338" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3338" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3338" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3338" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the past week… have you done any of the following? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3339" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3339" s="6"/>
+      <c r="B3339" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3339" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3340" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3340" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3340" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_1</t>
+        </is>
+      </c>
+      <c r="C3340" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spoken with someone about your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3341" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3341" s="6"/>
+      <c r="B3341" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_2</t>
+        </is>
+      </c>
+      <c r="C3341" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taken any prescription medication to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3342" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3342" s="6"/>
+      <c r="B3342" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_3</t>
+        </is>
+      </c>
+      <c r="C3342" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moderate or high intensity exercise for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3343" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3343" s="6"/>
+      <c r="B3343" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_4</t>
+        </is>
+      </c>
+      <c r="C3343" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low intensity exercise or walking for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3344" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3344" s="6"/>
+      <c r="B3344" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_5</t>
+        </is>
+      </c>
+      <c r="C3344" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Practiced meditation, breathing exercises or relaxation to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3345" spans="1:3" ht="255.0" customHeight="true">
+      <c r="A3345" s="6"/>
+      <c r="B3345" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_6</t>
+        </is>
+      </c>
+      <c r="C3345" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provided assistance to others, such as friends, neighbours or co-workers, without expecting anything in return.  For example running an errand or providing childcare without expecting anything in return</t>
+        </is>
+      </c>
+    </row>
+    <row r="3346" spans="1:3" ht="215.0" customHeight="true">
+      <c r="A3346" s="6"/>
+      <c r="B3346" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_7</t>
+        </is>
+      </c>
+      <c r="C3346" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Looked for information about how to use psychological therapy, counselling, doctors or other professional care to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3347" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A3347" s="6"/>
+      <c r="B3347" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_8</t>
+        </is>
+      </c>
+      <c r="C3347" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spoken to a therapist, counsellor, doctor or other mental health care professional to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3348" spans="1:3" ht="201.0" customHeight="true">
+      <c r="A3348" s="6"/>
+      <c r="B3348" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_9</t>
+        </is>
+      </c>
+      <c r="C3348" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Read websites, books, magazines, blogs, articles, leaflets or brochures for information on how to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3349" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A3349" s="6"/>
+      <c r="B3349" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_10</t>
+        </is>
+      </c>
+      <c r="C3349" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used a mobile phone or tablet health app to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3350" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3350" s="6"/>
+      <c r="B3350" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_11</t>
+        </is>
+      </c>
+      <c r="C3350" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cared for or played with a household pet to improve your stress, mental health or mental wellbeing, such as walking a dog</t>
+        </is>
+      </c>
+    </row>
+    <row r="3351" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3351" s="7"/>
+      <c r="B3351" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_99</t>
+        </is>
+      </c>
+      <c r="C3351" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="3353" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3353" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$w5</t>
+        </is>
+      </c>
+      <c r="B3353" s="1"/>
+      <c r="C3353" s="1"/>
+    </row>
+    <row r="3354" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3354" s="2"/>
+      <c r="B3354" s="3"/>
+      <c r="C3354" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3355" spans="1:3" ht="228.0" customHeight="true">
+      <c r="A3355" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3355" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3355" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You ticked you spoke with someone about your stress, mental health or mental wellbeing in the past week. With whom have you had a conversation with? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3356" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3356" s="6"/>
+      <c r="B3356" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3356" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3357" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3357" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3357" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_1</t>
+        </is>
+      </c>
+      <c r="C3357" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Family (including Partner or Civil Partnership)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3358" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3358" s="6"/>
+      <c r="B3358" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_2</t>
+        </is>
+      </c>
+      <c r="C3358" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friend (not including Partner or Civil Partnership)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3359" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3359" s="6"/>
+      <c r="B3359" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_3</t>
+        </is>
+      </c>
+      <c r="C3359" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP/ General Practitioner / Family Doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3360" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3360" s="6"/>
+      <c r="B3360" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_4</t>
+        </is>
+      </c>
+      <c r="C3360" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychiatrist</t>
+        </is>
+      </c>
+    </row>
+    <row r="3361" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3361" s="6"/>
+      <c r="B3361" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_5</t>
+        </is>
+      </c>
+      <c r="C3361" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychologist</t>
+        </is>
+      </c>
+    </row>
+    <row r="3362" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3362" s="6"/>
+      <c r="B3362" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_6</t>
+        </is>
+      </c>
+      <c r="C3362" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counsellor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3363" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3363" s="6"/>
+      <c r="B3363" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_7</t>
+        </is>
+      </c>
+      <c r="C3363" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="3364" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3364" s="6"/>
+      <c r="B3364" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_8</t>
+        </is>
+      </c>
+      <c r="C3364" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Work colleague</t>
+        </is>
+      </c>
+    </row>
+    <row r="3365" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3365" s="6"/>
+      <c r="B3365" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_9</t>
+        </is>
+      </c>
+      <c r="C3365" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Work supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3366" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3366" s="6"/>
+      <c r="B3366" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_10</t>
+        </is>
+      </c>
+      <c r="C3366" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Someone from Human Resources where I work</t>
+        </is>
+      </c>
+    </row>
+    <row r="3367" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3367" s="6"/>
+      <c r="B3367" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_11</t>
+        </is>
+      </c>
+      <c r="C3367" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Someone from a mental health training program where I work</t>
+        </is>
+      </c>
+    </row>
+    <row r="3368" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3368" s="6"/>
+      <c r="B3368" s="9" t="inlineStr">
+        <is>
           <t xml:space="preserve">w5_12</t>
         </is>
       </c>
-      <c r="C3257" s="12" t="inlineStr">
+      <c r="C3368" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Someone from a charity or other voluntary sector organization</t>
         </is>
       </c>
     </row>
-    <row r="3258" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3258" s="6"/>
-      <c r="B3258" s="9" t="inlineStr">
+    <row r="3369" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3369" s="6"/>
+      <c r="B3369" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_13</t>
         </is>
       </c>
-      <c r="C3258" s="12" t="inlineStr">
+      <c r="C3369" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Minister, priest, religious leader</t>
         </is>
       </c>
     </row>
-    <row r="3259" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3259" s="6"/>
-      <c r="B3259" s="9" t="inlineStr">
+    <row r="3370" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3370" s="6"/>
+      <c r="B3370" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_14</t>
         </is>
       </c>
-      <c r="C3259" s="12" t="inlineStr">
+      <c r="C3370" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Teacher</t>
         </is>
       </c>
     </row>
-    <row r="3260" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3260" s="6"/>
-      <c r="B3260" s="9" t="inlineStr">
+    <row r="3371" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3371" s="6"/>
+      <c r="B3371" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_15</t>
         </is>
       </c>
-      <c r="C3260" s="12" t="inlineStr">
+      <c r="C3371" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Someone from a employee assistance program provided by my employer</t>
         </is>
       </c>
     </row>
-    <row r="3261" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3261" s="6"/>
-      <c r="B3261" s="9" t="inlineStr">
+    <row r="3372" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A3372" s="6"/>
+      <c r="B3372" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_16</t>
         </is>
       </c>
-      <c r="C3261" s="12" t="inlineStr">
+      <c r="C3372" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">A mental health professional from my health insurance company, such as a counsellor</t>
         </is>
       </c>
     </row>
-    <row r="3262" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3262" s="6"/>
-      <c r="B3262" s="9" t="inlineStr">
+    <row r="3373" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3373" s="6"/>
+      <c r="B3373" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_96</t>
         </is>
       </c>
-      <c r="C3262" s="12" t="inlineStr">
+      <c r="C3373" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Someone else</t>
         </is>
       </c>
     </row>
-    <row r="3263" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3263" s="7"/>
-      <c r="B3263" s="10" t="inlineStr">
+    <row r="3374" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3374" s="7"/>
+      <c r="B3374" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">w5_99</t>
         </is>
       </c>
-      <c r="C3263" s="13" t="inlineStr">
+      <c r="C3374" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="3376" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3376" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$Soc1</t>
+        </is>
+      </c>
+      <c r="B3376" s="1"/>
+      <c r="C3376" s="1"/>
+    </row>
+    <row r="3377" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3377" s="2"/>
+      <c r="B3377" s="3"/>
+      <c r="C3377" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3378" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3378" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3378" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3378" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the past seven days have you socialised …?</t>
+        </is>
+      </c>
+    </row>
+    <row r="3379" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3379" s="6"/>
+      <c r="B3379" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3379" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3380" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3380" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3380" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_1</t>
+        </is>
+      </c>
+      <c r="C3380" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In an outdoor place in a group of 6 or more people</t>
+        </is>
+      </c>
+    </row>
+    <row r="3381" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3381" s="6"/>
+      <c r="B3381" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_2</t>
+        </is>
+      </c>
+      <c r="C3381" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In an indoor place in a group of 6 or more people</t>
+        </is>
+      </c>
+    </row>
+    <row r="3382" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3382" s="7"/>
+      <c r="B3382" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_3</t>
+        </is>
+      </c>
+      <c r="C3382" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neither</t>
+        </is>
+      </c>
+    </row>
+    <row r="3384" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3384" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$Soc2</t>
+        </is>
+      </c>
+      <c r="B3384" s="1"/>
+      <c r="C3384" s="1"/>
+    </row>
+    <row r="3385" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3385" s="2"/>
+      <c r="B3385" s="3"/>
+      <c r="C3385" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3386" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3386" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3386" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3386" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you did socialise with people indoors, where was that? You can tick more than one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3387" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3387" s="6"/>
+      <c r="B3387" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3387" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3388" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3388" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3388" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_1</t>
+        </is>
+      </c>
+      <c r="C3388" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Private house - inside your or someone else's home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3389" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3389" s="6"/>
+      <c r="B3389" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_2</t>
+        </is>
+      </c>
+      <c r="C3389" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pub or Bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3390" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3390" s="6"/>
+      <c r="B3390" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_3</t>
+        </is>
+      </c>
+      <c r="C3390" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="3391" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3391" s="6"/>
+      <c r="B3391" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_4</t>
+        </is>
+      </c>
+      <c r="C3391" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="3392" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3392" s="6"/>
+      <c r="B3392" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_5</t>
+        </is>
+      </c>
+      <c r="C3392" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Community centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="3393" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3393" s="7"/>
+      <c r="B3393" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_6</t>
+        </is>
+      </c>
+      <c r="C3393" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3395" spans="1:3">
+      <c r="A3395" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GET</t>
+        </is>
+      </c>
+    </row>
+    <row r="3396" spans="1:3">
+      <c r="A3396" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  FILE='C:\Users\gavine\Downloads\UK25901683_NU_CovidVac (2).sav'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3397" spans="1:3">
+      <c r="A3397" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DATASET NAME DataSet2 WINDOW=FRONT.</t>
         </is>
       </c>
     </row>
@@ -39679,68 +41205,127 @@
     <mergeCell ref="A3015:A3020"/>
     <mergeCell ref="A3022:C3022"/>
     <mergeCell ref="A3023:B3023"/>
-    <mergeCell ref="A3024:A3025"/>
-    <mergeCell ref="A3026:A3031"/>
+    <mergeCell ref="A3024:A3026"/>
+    <mergeCell ref="A3027:A3031"/>
     <mergeCell ref="A3033:C3033"/>
     <mergeCell ref="A3034:B3034"/>
-    <mergeCell ref="A3035:A3036"/>
-    <mergeCell ref="A3037:A3049"/>
-    <mergeCell ref="A3051:C3051"/>
-    <mergeCell ref="A3052:B3052"/>
-    <mergeCell ref="A3053:A3054"/>
-    <mergeCell ref="A3055:A3069"/>
+    <mergeCell ref="A3035:A3037"/>
+    <mergeCell ref="A3038:A3042"/>
+    <mergeCell ref="A3044:C3044"/>
+    <mergeCell ref="A3045:B3045"/>
+    <mergeCell ref="A3046:A3048"/>
+    <mergeCell ref="A3049:A3053"/>
+    <mergeCell ref="A3055:C3055"/>
+    <mergeCell ref="A3056:B3056"/>
+    <mergeCell ref="A3057:A3059"/>
+    <mergeCell ref="A3060:A3061"/>
+    <mergeCell ref="A3063:C3063"/>
+    <mergeCell ref="A3064:B3064"/>
+    <mergeCell ref="A3065:A3067"/>
+    <mergeCell ref="A3068:A3069"/>
     <mergeCell ref="A3071:C3071"/>
     <mergeCell ref="A3072:B3072"/>
-    <mergeCell ref="A3073:A3074"/>
-    <mergeCell ref="A3075:A3080"/>
-    <mergeCell ref="A3082:C3082"/>
-    <mergeCell ref="A3083:B3083"/>
+    <mergeCell ref="A3073:A3075"/>
+    <mergeCell ref="A3076:A3077"/>
+    <mergeCell ref="A3079:C3079"/>
+    <mergeCell ref="A3080:B3080"/>
+    <mergeCell ref="A3081:A3083"/>
     <mergeCell ref="A3084:A3085"/>
-    <mergeCell ref="A3086:A3094"/>
-    <mergeCell ref="A3096:C3096"/>
-    <mergeCell ref="A3097:B3097"/>
-    <mergeCell ref="A3098:A3099"/>
-    <mergeCell ref="A3100:A3109"/>
+    <mergeCell ref="A3087:C3087"/>
+    <mergeCell ref="A3088:B3088"/>
+    <mergeCell ref="A3089:A3091"/>
+    <mergeCell ref="A3092:A3093"/>
+    <mergeCell ref="A3095:C3095"/>
+    <mergeCell ref="A3096:B3096"/>
+    <mergeCell ref="A3097:A3099"/>
+    <mergeCell ref="A3100:A3101"/>
+    <mergeCell ref="A3103:C3103"/>
+    <mergeCell ref="A3104:B3104"/>
+    <mergeCell ref="A3105:A3107"/>
+    <mergeCell ref="A3108:A3109"/>
     <mergeCell ref="A3111:C3111"/>
     <mergeCell ref="A3112:B3112"/>
-    <mergeCell ref="A3113:A3114"/>
-    <mergeCell ref="A3115:A3124"/>
-    <mergeCell ref="A3126:C3126"/>
-    <mergeCell ref="A3127:B3127"/>
-    <mergeCell ref="A3128:A3129"/>
-    <mergeCell ref="A3130:A3135"/>
-    <mergeCell ref="A3137:C3137"/>
-    <mergeCell ref="A3138:B3138"/>
-    <mergeCell ref="A3139:A3140"/>
-    <mergeCell ref="A3141:A3147"/>
-    <mergeCell ref="A3149:C3149"/>
-    <mergeCell ref="A3150:B3150"/>
-    <mergeCell ref="A3151:A3152"/>
-    <mergeCell ref="A3153:A3165"/>
-    <mergeCell ref="A3167:C3167"/>
-    <mergeCell ref="A3168:B3168"/>
-    <mergeCell ref="A3169:A3170"/>
-    <mergeCell ref="A3171:A3183"/>
-    <mergeCell ref="A3185:C3185"/>
-    <mergeCell ref="A3186:B3186"/>
-    <mergeCell ref="A3187:A3188"/>
-    <mergeCell ref="A3189:A3198"/>
-    <mergeCell ref="A3200:C3200"/>
-    <mergeCell ref="A3201:B3201"/>
-    <mergeCell ref="A3202:A3203"/>
-    <mergeCell ref="A3204:A3211"/>
-    <mergeCell ref="A3213:C3213"/>
-    <mergeCell ref="A3214:B3214"/>
-    <mergeCell ref="A3215:A3216"/>
-    <mergeCell ref="A3217:A3223"/>
-    <mergeCell ref="A3225:C3225"/>
-    <mergeCell ref="A3226:B3226"/>
-    <mergeCell ref="A3227:A3228"/>
-    <mergeCell ref="A3229:A3240"/>
-    <mergeCell ref="A3242:C3242"/>
-    <mergeCell ref="A3243:B3243"/>
-    <mergeCell ref="A3244:A3245"/>
-    <mergeCell ref="A3246:A3263"/>
+    <mergeCell ref="A3113:A3115"/>
+    <mergeCell ref="A3116:A3117"/>
+    <mergeCell ref="A3119:C3119"/>
+    <mergeCell ref="A3120:B3120"/>
+    <mergeCell ref="A3121:A3123"/>
+    <mergeCell ref="A3124:A3125"/>
+    <mergeCell ref="A3127:C3127"/>
+    <mergeCell ref="A3128:B3128"/>
+    <mergeCell ref="A3129:A3131"/>
+    <mergeCell ref="A3133:C3133"/>
+    <mergeCell ref="A3134:B3134"/>
+    <mergeCell ref="A3135:A3136"/>
+    <mergeCell ref="A3137:A3142"/>
+    <mergeCell ref="A3144:C3144"/>
+    <mergeCell ref="A3145:B3145"/>
+    <mergeCell ref="A3146:A3147"/>
+    <mergeCell ref="A3148:A3160"/>
+    <mergeCell ref="A3162:C3162"/>
+    <mergeCell ref="A3163:B3163"/>
+    <mergeCell ref="A3164:A3165"/>
+    <mergeCell ref="A3166:A3180"/>
+    <mergeCell ref="A3182:C3182"/>
+    <mergeCell ref="A3183:B3183"/>
+    <mergeCell ref="A3184:A3185"/>
+    <mergeCell ref="A3186:A3191"/>
+    <mergeCell ref="A3193:C3193"/>
+    <mergeCell ref="A3194:B3194"/>
+    <mergeCell ref="A3195:A3196"/>
+    <mergeCell ref="A3197:A3205"/>
+    <mergeCell ref="A3207:C3207"/>
+    <mergeCell ref="A3208:B3208"/>
+    <mergeCell ref="A3209:A3210"/>
+    <mergeCell ref="A3211:A3220"/>
+    <mergeCell ref="A3222:C3222"/>
+    <mergeCell ref="A3223:B3223"/>
+    <mergeCell ref="A3224:A3225"/>
+    <mergeCell ref="A3226:A3235"/>
+    <mergeCell ref="A3237:C3237"/>
+    <mergeCell ref="A3238:B3238"/>
+    <mergeCell ref="A3239:A3240"/>
+    <mergeCell ref="A3241:A3246"/>
+    <mergeCell ref="A3248:C3248"/>
+    <mergeCell ref="A3249:B3249"/>
+    <mergeCell ref="A3250:A3251"/>
+    <mergeCell ref="A3252:A3258"/>
+    <mergeCell ref="A3260:C3260"/>
+    <mergeCell ref="A3261:B3261"/>
+    <mergeCell ref="A3262:A3263"/>
+    <mergeCell ref="A3264:A3276"/>
+    <mergeCell ref="A3278:C3278"/>
+    <mergeCell ref="A3279:B3279"/>
+    <mergeCell ref="A3280:A3281"/>
+    <mergeCell ref="A3282:A3294"/>
+    <mergeCell ref="A3296:C3296"/>
+    <mergeCell ref="A3297:B3297"/>
+    <mergeCell ref="A3298:A3299"/>
+    <mergeCell ref="A3300:A3309"/>
+    <mergeCell ref="A3311:C3311"/>
+    <mergeCell ref="A3312:B3312"/>
+    <mergeCell ref="A3313:A3314"/>
+    <mergeCell ref="A3315:A3322"/>
+    <mergeCell ref="A3324:C3324"/>
+    <mergeCell ref="A3325:B3325"/>
+    <mergeCell ref="A3326:A3327"/>
+    <mergeCell ref="A3328:A3334"/>
+    <mergeCell ref="A3336:C3336"/>
+    <mergeCell ref="A3337:B3337"/>
+    <mergeCell ref="A3338:A3339"/>
+    <mergeCell ref="A3340:A3351"/>
+    <mergeCell ref="A3353:C3353"/>
+    <mergeCell ref="A3354:B3354"/>
+    <mergeCell ref="A3355:A3356"/>
+    <mergeCell ref="A3357:A3374"/>
+    <mergeCell ref="A3376:C3376"/>
+    <mergeCell ref="A3377:B3377"/>
+    <mergeCell ref="A3378:A3379"/>
+    <mergeCell ref="A3380:A3382"/>
+    <mergeCell ref="A3384:C3384"/>
+    <mergeCell ref="A3385:B3385"/>
+    <mergeCell ref="A3386:A3387"/>
+    <mergeCell ref="A3388:A3393"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -315,21 +315,21 @@
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="style1622710803602" xfId="1"/>
-    <cellStyle name="style1622710804455" xfId="2"/>
-    <cellStyle name="style1622710804585" xfId="3"/>
-    <cellStyle name="style1622710804679" xfId="4"/>
-    <cellStyle name="style1622710804765" xfId="5"/>
-    <cellStyle name="style1622710804842" xfId="6"/>
-    <cellStyle name="style1622710804929" xfId="7"/>
-    <cellStyle name="style1622710805008" xfId="8"/>
-    <cellStyle name="style1622710805088" xfId="9"/>
-    <cellStyle name="style1622710805171" xfId="10"/>
-    <cellStyle name="style1622710805311" xfId="11"/>
-    <cellStyle name="style1622710805423" xfId="12"/>
-    <cellStyle name="style1622710805531" xfId="13"/>
-    <cellStyle name="style1622710805623" xfId="14"/>
-    <cellStyle name="style1622710806716" xfId="15"/>
+    <cellStyle name="style1623236953643" xfId="1"/>
+    <cellStyle name="style1623236953916" xfId="2"/>
+    <cellStyle name="style1623236953984" xfId="3"/>
+    <cellStyle name="style1623236954049" xfId="4"/>
+    <cellStyle name="style1623236954112" xfId="5"/>
+    <cellStyle name="style1623236954177" xfId="6"/>
+    <cellStyle name="style1623236954241" xfId="7"/>
+    <cellStyle name="style1623236954307" xfId="8"/>
+    <cellStyle name="style1623236954374" xfId="9"/>
+    <cellStyle name="style1623236954446" xfId="10"/>
+    <cellStyle name="style1623236954509" xfId="11"/>
+    <cellStyle name="style1623236954573" xfId="12"/>
+    <cellStyle name="style1623236954638" xfId="13"/>
+    <cellStyle name="style1623236954719" xfId="14"/>
+    <cellStyle name="style1623236954794" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4181"/>
+  <dimension ref="A1:C4227"/>
   <sheetViews>
     <sheetView tabSelected="true" view="normal" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0"/>
   </sheetViews>
@@ -45277,7 +45277,7 @@
     <row r="3860" spans="1:3" ht="18.0" customHeight="true">
       <c r="A3860" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$i5_health</t>
+          <t xml:space="preserve">vac12_12</t>
         </is>
       </c>
       <c r="B3860" s="1"/>
@@ -45292,7 +45292,7 @@
         </is>
       </c>
     </row>
-    <row r="3862" spans="1:3" ht="282.0" customHeight="true">
+    <row r="3862" spans="1:3" ht="94.0" customHeight="true">
       <c r="A3862" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -45305,11 +45305,11 @@
       </c>
       <c r="C3862" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thinking about the last 7 days… which, if any of the following, have you experienced? Please do NOT include symptoms you experience on a regular basis due to a health condition you already know about. Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3863" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">COVID-19 is being exploited by the government to control people</t>
+        </is>
+      </c>
+    </row>
+    <row r="3863" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3863" s="6"/>
       <c r="B3863" s="9" t="inlineStr">
         <is>
@@ -45318,206 +45318,189 @@
       </c>
       <c r="C3863" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
     <row r="3864" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3864" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+      <c r="A3864" s="6"/>
       <c r="B3864" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i5_health_1</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3864" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dry cough</t>
+          <t xml:space="preserve">Nominal</t>
         </is>
       </c>
     </row>
     <row r="3865" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3865" s="6"/>
-      <c r="B3865" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_2</t>
+      <c r="A3865" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3865" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c r="C3865" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fever</t>
-        </is>
-      </c>
-    </row>
-    <row r="3866" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3866" s="6"/>
-      <c r="B3866" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_3</t>
-        </is>
-      </c>
-      <c r="C3866" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loss of sense of smell</t>
-        </is>
-      </c>
-    </row>
-    <row r="3867" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3867" s="6"/>
-      <c r="B3867" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_4</t>
-        </is>
-      </c>
-      <c r="C3867" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loss of sense of taste</t>
-        </is>
-      </c>
-    </row>
-    <row r="3868" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3868" s="6"/>
-      <c r="B3868" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_5</t>
-        </is>
-      </c>
-      <c r="C3868" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shortness of breath or difficulty breathing</t>
-        </is>
-      </c>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3866" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3866" s="7"/>
+      <c r="B3866" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3866" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3868" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3868" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_13</t>
+        </is>
+      </c>
+      <c r="B3868" s="1"/>
+      <c r="C3868" s="1"/>
     </row>
     <row r="3869" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3869" s="7"/>
-      <c r="B3869" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i5_health_99</t>
-        </is>
-      </c>
-      <c r="C3869" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these</t>
-        </is>
-      </c>
-    </row>
-    <row r="3871" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3871" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$i14_health</t>
-        </is>
-      </c>
-      <c r="B3871" s="1"/>
-      <c r="C3871" s="1"/>
+      <c r="A3869" s="2"/>
+      <c r="B3869" s="3"/>
+      <c r="C3869" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3870" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3870" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3870" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3870" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COVID-19 is being used by people to manipulate world events</t>
+        </is>
+      </c>
+    </row>
+    <row r="3871" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3871" s="6"/>
+      <c r="B3871" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3871" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
     </row>
     <row r="3872" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3872" s="2"/>
-      <c r="B3872" s="3"/>
-      <c r="C3872" s="4" t="inlineStr">
+      <c r="A3872" s="6"/>
+      <c r="B3872" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Measurement</t>
+        </is>
+      </c>
+      <c r="C3872" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3873" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3873" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3873" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0</t>
+        </is>
+      </c>
+      <c r="C3873" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3874" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3874" s="7"/>
+      <c r="B3874" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3874" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3876" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3876" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac14_1</t>
+        </is>
+      </c>
+      <c r="B3876" s="1"/>
+      <c r="C3876" s="1"/>
+    </row>
+    <row r="3877" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3877" s="2"/>
+      <c r="B3877" s="3"/>
+      <c r="C3877" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3873" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A3873" s="5" t="inlineStr">
+    <row r="3878" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3878" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3873" s="8" t="inlineStr">
+      <c r="B3878" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3873" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the next 7 days, will you be working outside your home in any of the following roles? Please tick all the apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3874" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3874" s="6"/>
-      <c r="B3874" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3874" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3875" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3875" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3875" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_1</t>
-        </is>
-      </c>
-      <c r="C3875" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construction</t>
-        </is>
-      </c>
-    </row>
-    <row r="3876" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3876" s="6"/>
-      <c r="B3876" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_2</t>
-        </is>
-      </c>
-      <c r="C3876" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delivering to homes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3877" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3877" s="6"/>
-      <c r="B3877" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_3</t>
-        </is>
-      </c>
-      <c r="C3877" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Food retail</t>
-        </is>
-      </c>
-    </row>
-    <row r="3878" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3878" s="6"/>
-      <c r="B3878" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_4</t>
-        </is>
-      </c>
-      <c r="C3878" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare</t>
-        </is>
-      </c>
-    </row>
-    <row r="3879" spans="1:3" ht="40.0" customHeight="true">
+      <c r="C3878" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">International travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3879" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3879" s="6"/>
       <c r="B3879" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i14_health_5</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3879" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logistics / other transportation</t>
+          <t xml:space="preserve">Numeric</t>
         </is>
       </c>
     </row>
@@ -45525,233 +45508,220 @@
       <c r="A3880" s="6"/>
       <c r="B3880" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">i14_health_6</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3880" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manufacturing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3881" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3881" s="6"/>
-      <c r="B3881" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_7</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3881" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3881" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3881" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3881" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Policing or prisons</t>
-        </is>
-      </c>
-    </row>
-    <row r="3882" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">More likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3882" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3882" s="6"/>
-      <c r="B3882" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_8</t>
+      <c r="B3882" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c r="C3882" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Public transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="3883" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Neither more or less likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3883" spans="1:3" ht="55.0" customHeight="true">
       <c r="A3883" s="6"/>
-      <c r="B3883" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_9</t>
+      <c r="B3883" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
         </is>
       </c>
       <c r="C3883" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">School</t>
+          <t xml:space="preserve">Less likely to get vaccinated for Covid-19</t>
         </is>
       </c>
     </row>
     <row r="3884" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3884" s="6"/>
-      <c r="B3884" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_10</t>
-        </is>
-      </c>
-      <c r="C3884" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social care</t>
-        </is>
-      </c>
-    </row>
-    <row r="3885" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3885" s="6"/>
-      <c r="B3885" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_96</t>
-        </is>
-      </c>
-      <c r="C3885" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3886" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3886" s="6"/>
-      <c r="B3886" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_98</t>
-        </is>
-      </c>
-      <c r="C3886" s="12" t="inlineStr">
+      <c r="A3884" s="7"/>
+      <c r="B3884" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99</t>
+        </is>
+      </c>
+      <c r="C3884" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Not sure</t>
         </is>
       </c>
     </row>
-    <row r="3887" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3887" s="7"/>
-      <c r="B3887" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">i14_health_99</t>
-        </is>
-      </c>
-      <c r="C3887" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No, will not be working outside my home</t>
-        </is>
-      </c>
-    </row>
-    <row r="3889" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3889" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$d1_health</t>
-        </is>
-      </c>
-      <c r="B3889" s="1"/>
-      <c r="C3889" s="1"/>
+    <row r="3886" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3886" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac14_2</t>
+        </is>
+      </c>
+      <c r="B3886" s="1"/>
+      <c r="C3886" s="1"/>
+    </row>
+    <row r="3887" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3887" s="2"/>
+      <c r="B3887" s="3"/>
+      <c r="C3887" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3888" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3888" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3888" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3888" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="3889" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3889" s="6"/>
+      <c r="B3889" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3889" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
     </row>
     <row r="3890" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3890" s="2"/>
-      <c r="B3890" s="3"/>
-      <c r="C3890" s="4" t="inlineStr">
+      <c r="A3890" s="6"/>
+      <c r="B3890" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Measurement</t>
+        </is>
+      </c>
+      <c r="C3890" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3891" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3891" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3891" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
+        </is>
+      </c>
+      <c r="C3891" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">More likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3892" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3892" s="6"/>
+      <c r="B3892" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
+        </is>
+      </c>
+      <c r="C3892" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neither more or less likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3893" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3893" s="6"/>
+      <c r="B3893" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
+        </is>
+      </c>
+      <c r="C3893" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Less likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3894" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3894" s="7"/>
+      <c r="B3894" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99</t>
+        </is>
+      </c>
+      <c r="C3894" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3896" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3896" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac14_3</t>
+        </is>
+      </c>
+      <c r="B3896" s="1"/>
+      <c r="C3896" s="1"/>
+    </row>
+    <row r="3897" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3897" s="2"/>
+      <c r="B3897" s="3"/>
+      <c r="C3897" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3891" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3891" s="5" t="inlineStr">
+    <row r="3898" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A3898" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3891" s="8" t="inlineStr">
+      <c r="B3898" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3891" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any, of the following have you been diagnosed with?  Please select all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3892" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3892" s="6"/>
-      <c r="B3892" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3892" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3893" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3893" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3893" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_1</t>
-        </is>
-      </c>
-      <c r="C3893" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthritis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3894" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3894" s="6"/>
-      <c r="B3894" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_2</t>
-        </is>
-      </c>
-      <c r="C3894" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asthma</t>
-        </is>
-      </c>
-    </row>
-    <row r="3895" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3895" s="6"/>
-      <c r="B3895" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_3</t>
-        </is>
-      </c>
-      <c r="C3895" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cancer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3896" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3896" s="6"/>
-      <c r="B3896" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_4</t>
-        </is>
-      </c>
-      <c r="C3896" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cystic fibrosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3897" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3897" s="6"/>
-      <c r="B3897" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_5</t>
-        </is>
-      </c>
-      <c r="C3897" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chronic obstructive pulmonary disease (COPD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3898" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3898" s="6"/>
-      <c r="B3898" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_6</t>
-        </is>
-      </c>
-      <c r="C3898" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diabetes</t>
+      <c r="C3898" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recreational activities (like the cinema, sporting events, indoor dining)</t>
         </is>
       </c>
     </row>
@@ -45759,151 +45729,159 @@
       <c r="A3899" s="6"/>
       <c r="B3899" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_7</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3899" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epilepsy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3900" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="3900" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3900" s="6"/>
       <c r="B3900" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">d1_health_8</t>
+          <t xml:space="preserve">Measurement</t>
         </is>
       </c>
       <c r="C3900" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heart disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="3901" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3901" s="6"/>
-      <c r="B3901" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_9</t>
+          <t xml:space="preserve">Nominal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3901" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3901" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Values</t>
+        </is>
+      </c>
+      <c r="B3901" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1</t>
         </is>
       </c>
       <c r="C3901" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">High blood pressure</t>
-        </is>
-      </c>
-    </row>
-    <row r="3902" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">More likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3902" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3902" s="6"/>
-      <c r="B3902" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_10</t>
+      <c r="B3902" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2</t>
         </is>
       </c>
       <c r="C3902" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">High cholesterol</t>
-        </is>
-      </c>
-    </row>
-    <row r="3903" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Neither more or less likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3903" spans="1:3" ht="55.0" customHeight="true">
       <c r="A3903" s="6"/>
-      <c r="B3903" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_11</t>
+      <c r="B3903" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3</t>
         </is>
       </c>
       <c r="C3903" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">HIV/ Aids</t>
-        </is>
-      </c>
-    </row>
-    <row r="3904" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3904" s="6"/>
-      <c r="B3904" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_12</t>
-        </is>
-      </c>
-      <c r="C3904" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mental health condition</t>
-        </is>
-      </c>
-    </row>
-    <row r="3905" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3905" s="6"/>
-      <c r="B3905" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_13</t>
-        </is>
-      </c>
-      <c r="C3905" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Sclerosis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3906" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3906" s="6"/>
-      <c r="B3906" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_98</t>
-        </is>
-      </c>
-      <c r="C3906" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefer not to say</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Less likely to get vaccinated for Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3904" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3904" s="7"/>
+      <c r="B3904" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99</t>
+        </is>
+      </c>
+      <c r="C3904" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3906" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3906" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$i5_health</t>
+        </is>
+      </c>
+      <c r="B3906" s="1"/>
+      <c r="C3906" s="1"/>
     </row>
     <row r="3907" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3907" s="7"/>
-      <c r="B3907" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">d1_health_99</t>
-        </is>
-      </c>
-      <c r="C3907" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these</t>
-        </is>
-      </c>
-    </row>
-    <row r="3909" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3909" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m4</t>
-        </is>
-      </c>
-      <c r="B3909" s="1"/>
-      <c r="C3909" s="1"/>
+      <c r="A3907" s="2"/>
+      <c r="B3907" s="3"/>
+      <c r="C3907" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3908" spans="1:3" ht="282.0" customHeight="true">
+      <c r="A3908" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3908" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3908" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thinking about the last 7 days… which, if any of the following, have you experienced? Please do NOT include symptoms you experience on a regular basis due to a health condition you already know about. Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3909" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3909" s="6"/>
+      <c r="B3909" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3909" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
     </row>
     <row r="3910" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3910" s="2"/>
-      <c r="B3910" s="3"/>
-      <c r="C3910" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3911" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3911" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3911" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3911" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which type(s) of face mask did you wear? Please tick all that apply</t>
+      <c r="A3910" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3910" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_1</t>
+        </is>
+      </c>
+      <c r="C3910" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dry cough</t>
+        </is>
+      </c>
+    </row>
+    <row r="3911" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3911" s="6"/>
+      <c r="B3911" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_2</t>
+        </is>
+      </c>
+      <c r="C3911" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fever</t>
         </is>
       </c>
     </row>
@@ -45911,185 +45889,181 @@
       <c r="A3912" s="6"/>
       <c r="B3912" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">i5_health_3</t>
         </is>
       </c>
       <c r="C3912" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3913" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3913" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Loss of sense of smell</t>
+        </is>
+      </c>
+    </row>
+    <row r="3913" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3913" s="6"/>
       <c r="B3913" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m4_1</t>
+          <t xml:space="preserve">i5_health_4</t>
         </is>
       </c>
       <c r="C3913" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloth mask that you or someone had made at home for free</t>
-        </is>
-      </c>
-    </row>
-    <row r="3914" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Loss of sense of taste</t>
+        </is>
+      </c>
+    </row>
+    <row r="3914" spans="1:3" ht="55.0" customHeight="true">
       <c r="A3914" s="6"/>
       <c r="B3914" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m4_2</t>
+          <t xml:space="preserve">i5_health_5</t>
         </is>
       </c>
       <c r="C3914" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloth mask that you had bought</t>
-        </is>
-      </c>
-    </row>
-    <row r="3915" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3915" s="6"/>
-      <c r="B3915" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_3</t>
-        </is>
-      </c>
-      <c r="C3915" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Medical that you bought</t>
-        </is>
-      </c>
-    </row>
-    <row r="3916" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3916" s="6"/>
-      <c r="B3916" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_4</t>
-        </is>
-      </c>
-      <c r="C3916" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scarf or similar</t>
-        </is>
-      </c>
-    </row>
-    <row r="3917" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3917" s="6"/>
-      <c r="B3917" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_96</t>
-        </is>
-      </c>
-      <c r="C3917" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Shortness of breath or difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3915" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3915" s="7"/>
+      <c r="B3915" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i5_health_99</t>
+        </is>
+      </c>
+      <c r="C3915" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="3917" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3917" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$i14_health</t>
+        </is>
+      </c>
+      <c r="B3917" s="1"/>
+      <c r="C3917" s="1"/>
     </row>
     <row r="3918" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3918" s="7"/>
-      <c r="B3918" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m4_99</t>
-        </is>
-      </c>
-      <c r="C3918" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Not sure</t>
-        </is>
-      </c>
-    </row>
-    <row r="3920" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3920" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m6</t>
-        </is>
-      </c>
-      <c r="B3920" s="1"/>
-      <c r="C3920" s="1"/>
+      <c r="A3918" s="2"/>
+      <c r="B3918" s="3"/>
+      <c r="C3918" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3919" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A3919" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3919" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3919" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the next 7 days, will you be working outside your home in any of the following roles? Please tick all the apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3920" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3920" s="6"/>
+      <c r="B3920" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C3920" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
     </row>
     <row r="3921" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3921" s="2"/>
-      <c r="B3921" s="3"/>
-      <c r="C3921" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3922" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3922" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3922" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3922" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For which of the following reasons are you using a homemade mask? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3923" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3921" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B3921" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_1</t>
+        </is>
+      </c>
+      <c r="C3921" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Construction</t>
+        </is>
+      </c>
+    </row>
+    <row r="3922" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3922" s="6"/>
+      <c r="B3922" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_2</t>
+        </is>
+      </c>
+      <c r="C3922" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delivering to homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3923" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3923" s="6"/>
       <c r="B3923" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">i14_health_3</t>
         </is>
       </c>
       <c r="C3923" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3924" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A3924" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Food retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3924" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3924" s="6"/>
       <c r="B3924" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_1</t>
+          <t xml:space="preserve">i14_health_4</t>
         </is>
       </c>
       <c r="C3924" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Did not want to use resources that healthcare workers should have</t>
-        </is>
-      </c>
-    </row>
-    <row r="3925" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="3925" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3925" s="6"/>
       <c r="B3925" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_2</t>
+          <t xml:space="preserve">i14_health_5</t>
         </is>
       </c>
       <c r="C3925" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheaper</t>
-        </is>
-      </c>
-    </row>
-    <row r="3926" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">Logistics / other transportation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3926" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3926" s="6"/>
       <c r="B3926" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_3</t>
+          <t xml:space="preserve">i14_health_6</t>
         </is>
       </c>
       <c r="C3926" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Have the skills, materials and equipment in the household</t>
+          <t xml:space="preserve">Manufacturing</t>
         </is>
       </c>
     </row>
@@ -46097,12 +46071,12 @@
       <c r="A3927" s="6"/>
       <c r="B3927" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_4</t>
+          <t xml:space="preserve">i14_health_7</t>
         </is>
       </c>
       <c r="C3927" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Could not find any to buy</t>
+          <t xml:space="preserve">Policing or prisons</t>
         </is>
       </c>
     </row>
@@ -46110,155 +46084,155 @@
       <c r="A3928" s="6"/>
       <c r="B3928" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_5</t>
+          <t xml:space="preserve">i14_health_8</t>
         </is>
       </c>
       <c r="C3928" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quicker than buying</t>
-        </is>
-      </c>
-    </row>
-    <row r="3929" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Public transport</t>
+        </is>
+      </c>
+    </row>
+    <row r="3929" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3929" s="6"/>
       <c r="B3929" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_6</t>
+          <t xml:space="preserve">i14_health_9</t>
         </is>
       </c>
       <c r="C3929" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Easier to wash</t>
-        </is>
-      </c>
-    </row>
-    <row r="3930" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">School</t>
+        </is>
+      </c>
+    </row>
+    <row r="3930" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3930" s="6"/>
       <c r="B3930" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_7</t>
+          <t xml:space="preserve">i14_health_10</t>
         </is>
       </c>
       <c r="C3930" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Less environmental impact</t>
-        </is>
-      </c>
-    </row>
-    <row r="3931" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Social care</t>
+        </is>
+      </c>
+    </row>
+    <row r="3931" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3931" s="6"/>
       <c r="B3931" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m6_8</t>
+          <t xml:space="preserve">i14_health_96</t>
         </is>
       </c>
       <c r="C3931" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">More comfortable</t>
+          <t xml:space="preserve">Other</t>
         </is>
       </c>
     </row>
     <row r="3932" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3932" s="7"/>
-      <c r="B3932" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m6_96</t>
-        </is>
-      </c>
-      <c r="C3932" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3934" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3934" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m8</t>
-        </is>
-      </c>
-      <c r="B3934" s="1"/>
-      <c r="C3934" s="1"/>
-    </row>
-    <row r="3935" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3935" s="2"/>
-      <c r="B3935" s="3"/>
-      <c r="C3935" s="4" t="inlineStr">
+      <c r="A3932" s="6"/>
+      <c r="B3932" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_98</t>
+        </is>
+      </c>
+      <c r="C3932" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3933" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A3933" s="7"/>
+      <c r="B3933" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i14_health_99</t>
+        </is>
+      </c>
+      <c r="C3933" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, will not be working outside my home</t>
+        </is>
+      </c>
+    </row>
+    <row r="3935" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3935" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$d1_health</t>
+        </is>
+      </c>
+      <c r="B3935" s="1"/>
+      <c r="C3935" s="1"/>
+    </row>
+    <row r="3936" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3936" s="2"/>
+      <c r="B3936" s="3"/>
+      <c r="C3936" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3936" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3936" s="5" t="inlineStr">
+    <row r="3937" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A3937" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3936" s="8" t="inlineStr">
+      <c r="B3937" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3936" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which of the following, if any, do you experience when using a mask? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3937" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3937" s="6"/>
-      <c r="B3937" s="9" t="inlineStr">
+      <c r="C3937" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any, of the following have you been diagnosed with?  Please select all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3938" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3938" s="6"/>
+      <c r="B3938" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Type</t>
         </is>
       </c>
-      <c r="C3937" s="12" t="inlineStr">
+      <c r="C3938" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
-    <row r="3938" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3938" s="6" t="inlineStr">
+    <row r="3939" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3939" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
         </is>
       </c>
-      <c r="B3938" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_1</t>
-        </is>
-      </c>
-      <c r="C3938" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Difficulty breathing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3939" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3939" s="6"/>
       <c r="B3939" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_2</t>
+          <t xml:space="preserve">d1_health_1</t>
         </is>
       </c>
       <c r="C3939" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itchiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="3940" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Arthritis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3940" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3940" s="6"/>
       <c r="B3940" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_3</t>
+          <t xml:space="preserve">d1_health_2</t>
         </is>
       </c>
       <c r="C3940" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Difficulty communicating</t>
+          <t xml:space="preserve">Asthma</t>
         </is>
       </c>
     </row>
@@ -46266,580 +46240,597 @@
       <c r="A3941" s="6"/>
       <c r="B3941" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_4</t>
+          <t xml:space="preserve">d1_health_3</t>
         </is>
       </c>
       <c r="C3941" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skin rashes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3942" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3942" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3942" s="6"/>
       <c r="B3942" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_5</t>
+          <t xml:space="preserve">d1_health_4</t>
         </is>
       </c>
       <c r="C3942" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discomfort around the ears</t>
-        </is>
-      </c>
-    </row>
-    <row r="3943" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Cystic fibrosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3943" spans="1:3" ht="68.0" customHeight="true">
       <c r="A3943" s="6"/>
       <c r="B3943" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_6</t>
+          <t xml:space="preserve">d1_health_5</t>
         </is>
       </c>
       <c r="C3943" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">General discomfort</t>
-        </is>
-      </c>
-    </row>
-    <row r="3944" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Chronic obstructive pulmonary disease (COPD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3944" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3944" s="6"/>
       <c r="B3944" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_7</t>
+          <t xml:space="preserve">d1_health_6</t>
         </is>
       </c>
       <c r="C3944" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Steaming up eyewear / glasses</t>
-        </is>
-      </c>
-    </row>
-    <row r="3945" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Diabetes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3945" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3945" s="6"/>
       <c r="B3945" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_8</t>
+          <t xml:space="preserve">d1_health_7</t>
         </is>
       </c>
       <c r="C3945" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feeling too hot</t>
-        </is>
-      </c>
-    </row>
-    <row r="3946" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Epilepsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3946" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3946" s="6"/>
       <c r="B3946" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m8_96</t>
+          <t xml:space="preserve">d1_health_8</t>
         </is>
       </c>
       <c r="C3946" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3947" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3947" s="7"/>
-      <c r="B3947" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m8_99</t>
-        </is>
-      </c>
-      <c r="C3947" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No issues when wearing a mask</t>
-        </is>
-      </c>
-    </row>
-    <row r="3949" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3949" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m12</t>
-        </is>
-      </c>
-      <c r="B3949" s="1"/>
-      <c r="C3949" s="1"/>
-    </row>
-    <row r="3950" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3950" s="2"/>
-      <c r="B3950" s="3"/>
-      <c r="C3950" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3951" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A3951" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3951" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3951" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If you were to wear a mask when leaving the home which, if any, of the following do you think you might experience? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3952" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Heart disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="3947" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3947" s="6"/>
+      <c r="B3947" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_9</t>
+        </is>
+      </c>
+      <c r="C3947" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">High blood pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3948" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3948" s="6"/>
+      <c r="B3948" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_10</t>
+        </is>
+      </c>
+      <c r="C3948" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">High cholesterol</t>
+        </is>
+      </c>
+    </row>
+    <row r="3949" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3949" s="6"/>
+      <c r="B3949" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_11</t>
+        </is>
+      </c>
+      <c r="C3949" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIV/ Aids</t>
+        </is>
+      </c>
+    </row>
+    <row r="3950" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3950" s="6"/>
+      <c r="B3950" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_12</t>
+        </is>
+      </c>
+      <c r="C3950" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental health condition</t>
+        </is>
+      </c>
+    </row>
+    <row r="3951" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3951" s="6"/>
+      <c r="B3951" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_13</t>
+        </is>
+      </c>
+      <c r="C3951" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Sclerosis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3952" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3952" s="6"/>
       <c r="B3952" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">d1_health_98</t>
         </is>
       </c>
       <c r="C3952" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3953" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3953" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3953" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_1</t>
-        </is>
-      </c>
-      <c r="C3953" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Difficulty breathing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3954" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3954" s="6"/>
-      <c r="B3954" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_2</t>
-        </is>
-      </c>
-      <c r="C3954" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Itchiness</t>
-        </is>
-      </c>
-    </row>
-    <row r="3955" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3955" s="6"/>
-      <c r="B3955" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_3</t>
-        </is>
-      </c>
-      <c r="C3955" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Difficulty communicating</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="3953" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3953" s="7"/>
+      <c r="B3953" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">d1_health_99</t>
+        </is>
+      </c>
+      <c r="C3953" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="3955" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3955" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m4</t>
+        </is>
+      </c>
+      <c r="B3955" s="1"/>
+      <c r="C3955" s="1"/>
     </row>
     <row r="3956" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3956" s="6"/>
-      <c r="B3956" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_4</t>
-        </is>
-      </c>
-      <c r="C3956" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Skin rashes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3957" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3957" s="6"/>
-      <c r="B3957" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_5</t>
-        </is>
-      </c>
-      <c r="C3957" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discomfort around the ears</t>
-        </is>
-      </c>
-    </row>
-    <row r="3958" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3956" s="2"/>
+      <c r="B3956" s="3"/>
+      <c r="C3956" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3957" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3957" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3957" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3957" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which type(s) of face mask did you wear? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3958" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3958" s="6"/>
       <c r="B3958" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_6</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3958" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">General discomfort</t>
-        </is>
-      </c>
-    </row>
-    <row r="3959" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3959" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3959" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A3959" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3959" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_7</t>
+          <t xml:space="preserve">m4_1</t>
         </is>
       </c>
       <c r="C3959" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Steaming up eyewear / glasses</t>
-        </is>
-      </c>
-    </row>
-    <row r="3960" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Cloth mask that you or someone had made at home for free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3960" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3960" s="6"/>
       <c r="B3960" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_8</t>
+          <t xml:space="preserve">m4_2</t>
         </is>
       </c>
       <c r="C3960" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feeling too hot</t>
-        </is>
-      </c>
-    </row>
-    <row r="3961" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Cloth mask that you had bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="3961" spans="1:3" ht="25.0" customHeight="true">
       <c r="A3961" s="6"/>
       <c r="B3961" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m12_96</t>
+          <t xml:space="preserve">m4_3</t>
         </is>
       </c>
       <c r="C3961" s="12" t="inlineStr">
         <is>
+          <t xml:space="preserve">Medical that you bought</t>
+        </is>
+      </c>
+    </row>
+    <row r="3962" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3962" s="6"/>
+      <c r="B3962" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_4</t>
+        </is>
+      </c>
+      <c r="C3962" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scarf or similar</t>
+        </is>
+      </c>
+    </row>
+    <row r="3963" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3963" s="6"/>
+      <c r="B3963" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_96</t>
+        </is>
+      </c>
+      <c r="C3963" s="12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Other</t>
         </is>
       </c>
     </row>
-    <row r="3962" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3962" s="7"/>
-      <c r="B3962" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m12_99</t>
-        </is>
-      </c>
-      <c r="C3962" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't think there would be any issues when wearing a mask</t>
-        </is>
-      </c>
-    </row>
-    <row r="3964" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3964" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$v2</t>
-        </is>
-      </c>
-      <c r="B3964" s="1"/>
-      <c r="C3964" s="1"/>
-    </row>
-    <row r="3965" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3965" s="2"/>
-      <c r="B3965" s="3"/>
-      <c r="C3965" s="4" t="inlineStr">
+    <row r="3964" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3964" s="7"/>
+      <c r="B3964" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m4_99</t>
+        </is>
+      </c>
+      <c r="C3964" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3966" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3966" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m6</t>
+        </is>
+      </c>
+      <c r="B3966" s="1"/>
+      <c r="C3966" s="1"/>
+    </row>
+    <row r="3967" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3967" s="2"/>
+      <c r="B3967" s="3"/>
+      <c r="C3967" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3966" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A3966" s="5" t="inlineStr">
+    <row r="3968" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3968" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3966" s="8" t="inlineStr">
+      <c r="B3968" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3966" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Who in your household delayed or missed getting vaccinated because of COVID-19? Please tick all apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="3967" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3967" s="6"/>
-      <c r="B3967" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3967" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3968" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3968" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3968" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_1</t>
-        </is>
-      </c>
-      <c r="C3968" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Me</t>
-        </is>
-      </c>
-    </row>
-    <row r="3969" spans="1:3" ht="25.0" customHeight="true">
+      <c r="C3968" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For which of the following reasons are you using a homemade mask? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3969" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3969" s="6"/>
       <c r="B3969" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v2_2</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3969" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baby age 0 to 23 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="3970" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3970" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3970" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A3970" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3970" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v2_3</t>
+          <t xml:space="preserve">m6_1</t>
         </is>
       </c>
       <c r="C3970" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Child age 2 to 4 years</t>
-        </is>
-      </c>
-    </row>
-    <row r="3971" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Did not want to use resources that healthcare workers should have</t>
+        </is>
+      </c>
+    </row>
+    <row r="3971" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3971" s="6"/>
       <c r="B3971" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v2_4</t>
+          <t xml:space="preserve">m6_2</t>
         </is>
       </c>
       <c r="C3971" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Child age 5-17 years</t>
-        </is>
-      </c>
-    </row>
-    <row r="3972" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Cheaper</t>
+        </is>
+      </c>
+    </row>
+    <row r="3972" spans="1:3" ht="81.0" customHeight="true">
       <c r="A3972" s="6"/>
       <c r="B3972" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v2_5</t>
+          <t xml:space="preserve">m6_3</t>
         </is>
       </c>
       <c r="C3972" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone else in my household</t>
+          <t xml:space="preserve">Have the skills, materials and equipment in the household</t>
         </is>
       </c>
     </row>
     <row r="3973" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A3973" s="7"/>
-      <c r="B3973" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v2_99</t>
-        </is>
-      </c>
-      <c r="C3973" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-    <row r="3975" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3975" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$v4</t>
-        </is>
-      </c>
-      <c r="B3975" s="1"/>
-      <c r="C3975" s="1"/>
-    </row>
-    <row r="3976" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3976" s="2"/>
-      <c r="B3976" s="3"/>
-      <c r="C3976" s="4" t="inlineStr">
+      <c r="A3973" s="6"/>
+      <c r="B3973" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_4</t>
+        </is>
+      </c>
+      <c r="C3973" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Could not find any to buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3974" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3974" s="6"/>
+      <c r="B3974" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_5</t>
+        </is>
+      </c>
+      <c r="C3974" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quicker than buying</t>
+        </is>
+      </c>
+    </row>
+    <row r="3975" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3975" s="6"/>
+      <c r="B3975" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_6</t>
+        </is>
+      </c>
+      <c r="C3975" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Easier to wash</t>
+        </is>
+      </c>
+    </row>
+    <row r="3976" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3976" s="6"/>
+      <c r="B3976" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_7</t>
+        </is>
+      </c>
+      <c r="C3976" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Less environmental impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="3977" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3977" s="6"/>
+      <c r="B3977" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_8</t>
+        </is>
+      </c>
+      <c r="C3977" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">More comfortable</t>
+        </is>
+      </c>
+    </row>
+    <row r="3978" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3978" s="7"/>
+      <c r="B3978" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m6_96</t>
+        </is>
+      </c>
+      <c r="C3978" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3980" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3980" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m8</t>
+        </is>
+      </c>
+      <c r="B3980" s="1"/>
+      <c r="C3980" s="1"/>
+    </row>
+    <row r="3981" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3981" s="2"/>
+      <c r="B3981" s="3"/>
+      <c r="C3981" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="3977" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A3977" s="5" t="inlineStr">
+    <row r="3982" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A3982" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B3977" s="8" t="inlineStr">
+      <c r="B3982" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C3977" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What should vaccination clinics do to help your household feel safe getting vaccinated during this time? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3978" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3978" s="6"/>
-      <c r="B3978" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C3978" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3979" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3979" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B3979" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_1</t>
-        </is>
-      </c>
-      <c r="C3979" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turn away people who have COVID-19 symptoms such as a fever or cough</t>
-        </is>
-      </c>
-    </row>
-    <row r="3980" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A3980" s="6"/>
-      <c r="B3980" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_2</t>
-        </is>
-      </c>
-      <c r="C3980" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Require people to wear face masks when they are at the clinic</t>
-        </is>
-      </c>
-    </row>
-    <row r="3981" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3981" s="6"/>
-      <c r="B3981" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_3</t>
-        </is>
-      </c>
-      <c r="C3981" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have enough face masks and protective gowns for all staff</t>
-        </is>
-      </c>
-    </row>
-    <row r="3982" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3982" s="6"/>
-      <c r="B3982" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_4</t>
-        </is>
-      </c>
-      <c r="C3982" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Have specific days and times dedicated only to vaccination for healthy people</t>
-        </is>
-      </c>
-    </row>
-    <row r="3983" spans="1:3" ht="81.0" customHeight="true">
+      <c r="C3982" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which of the following, if any, do you experience when using a mask? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="3983" spans="1:3" ht="40.0" customHeight="true">
       <c r="A3983" s="6"/>
       <c r="B3983" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v4_5</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3983" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Offer drive-through vaccination to people while they remain in their cars</t>
-        </is>
-      </c>
-    </row>
-    <row r="3984" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3984" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3984" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3984" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3984" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">v4_96</t>
+          <t xml:space="preserve">m8_1</t>
         </is>
       </c>
       <c r="C3984" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="3985" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A3985" s="7"/>
-      <c r="B3985" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">v4_99</t>
-        </is>
-      </c>
-      <c r="C3985" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these things would make me feel safe enough to go to a vaccination clinic right now</t>
-        </is>
-      </c>
-    </row>
-    <row r="3987" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A3987" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$m14</t>
-        </is>
-      </c>
-      <c r="B3987" s="1"/>
-      <c r="C3987" s="1"/>
-    </row>
-    <row r="3988" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A3988" s="2"/>
-      <c r="B3988" s="3"/>
-      <c r="C3988" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="3989" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A3989" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B3989" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C3989" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why are you currently not wearing a mask or face covering when you go outside? Please tick all that apply</t>
+          <t xml:space="preserve">Difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3985" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3985" s="6"/>
+      <c r="B3985" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_2</t>
+        </is>
+      </c>
+      <c r="C3985" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itchiness</t>
+        </is>
+      </c>
+    </row>
+    <row r="3986" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3986" s="6"/>
+      <c r="B3986" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_3</t>
+        </is>
+      </c>
+      <c r="C3986" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Difficulty communicating</t>
+        </is>
+      </c>
+    </row>
+    <row r="3987" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3987" s="6"/>
+      <c r="B3987" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_4</t>
+        </is>
+      </c>
+      <c r="C3987" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skin rashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3988" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3988" s="6"/>
+      <c r="B3988" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_5</t>
+        </is>
+      </c>
+      <c r="C3988" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discomfort around the ears</t>
+        </is>
+      </c>
+    </row>
+    <row r="3989" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3989" s="6"/>
+      <c r="B3989" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_6</t>
+        </is>
+      </c>
+      <c r="C3989" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">General discomfort</t>
         </is>
       </c>
     </row>
@@ -46847,107 +46838,86 @@
       <c r="A3990" s="6"/>
       <c r="B3990" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m8_7</t>
         </is>
       </c>
       <c r="C3990" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="3991" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3991" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Steaming up eyewear / glasses</t>
+        </is>
+      </c>
+    </row>
+    <row r="3991" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3991" s="6"/>
       <c r="B3991" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_1</t>
+          <t xml:space="preserve">m8_8</t>
         </is>
       </c>
       <c r="C3991" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Not used to wearing a mask or face covering</t>
-        </is>
-      </c>
-    </row>
-    <row r="3992" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Feeling too hot</t>
+        </is>
+      </c>
+    </row>
+    <row r="3992" spans="1:3" ht="15.0" customHeight="true">
       <c r="A3992" s="6"/>
       <c r="B3992" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_2</t>
+          <t xml:space="preserve">m8_96</t>
         </is>
       </c>
       <c r="C3992" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think only sick people should wear them</t>
-        </is>
-      </c>
-    </row>
-    <row r="3993" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3993" s="6"/>
-      <c r="B3993" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_3</t>
-        </is>
-      </c>
-      <c r="C3993" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coronavirus / COVID19 is not dangerous for me</t>
-        </is>
-      </c>
-    </row>
-    <row r="3994" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3994" s="6"/>
-      <c r="B3994" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_4</t>
-        </is>
-      </c>
-      <c r="C3994" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It is unlikely that I will get Coronavirus / COVID19 in the future</t>
-        </is>
-      </c>
-    </row>
-    <row r="3995" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3995" s="6"/>
-      <c r="B3995" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_5</t>
-        </is>
-      </c>
-      <c r="C3995" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Most other people are not wearing them</t>
-        </is>
-      </c>
-    </row>
-    <row r="3996" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A3996" s="6"/>
-      <c r="B3996" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_6</t>
-        </is>
-      </c>
-      <c r="C3996" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masks are not effective in preventing the spread of Covid-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3997" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A3997" s="6"/>
-      <c r="B3997" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_7</t>
-        </is>
-      </c>
-      <c r="C3997" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I don't have any symptoms</t>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="3993" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A3993" s="7"/>
+      <c r="B3993" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m8_99</t>
+        </is>
+      </c>
+      <c r="C3993" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No issues when wearing a mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="3995" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A3995" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m12</t>
+        </is>
+      </c>
+      <c r="B3995" s="1"/>
+      <c r="C3995" s="1"/>
+    </row>
+    <row r="3996" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A3996" s="2"/>
+      <c r="B3996" s="3"/>
+      <c r="C3996" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3997" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A3997" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B3997" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C3997" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you were to wear a mask when leaving the home which, if any, of the following do you think you might experience? Please tick all that apply</t>
         </is>
       </c>
     </row>
@@ -46955,38 +46925,42 @@
       <c r="A3998" s="6"/>
       <c r="B3998" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_8</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C3998" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think I have already had Covid-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3999" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A3999" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="3999" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A3999" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B3999" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_9</t>
+          <t xml:space="preserve">m12_1</t>
         </is>
       </c>
       <c r="C3999" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think I would find it uncomfortable</t>
-        </is>
-      </c>
-    </row>
-    <row r="4000" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Difficulty breathing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4000" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4000" s="6"/>
       <c r="B4000" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_10</t>
+          <t xml:space="preserve">m12_2</t>
         </is>
       </c>
       <c r="C4000" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">People would think I had Covid-19</t>
+          <t xml:space="preserve">Itchiness</t>
         </is>
       </c>
     </row>
@@ -46994,207 +46968,207 @@
       <c r="A4001" s="6"/>
       <c r="B4001" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_11</t>
+          <t xml:space="preserve">m12_3</t>
         </is>
       </c>
       <c r="C4001" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think I would find it hard to communicate</t>
-        </is>
-      </c>
-    </row>
-    <row r="4002" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Difficulty communicating</t>
+        </is>
+      </c>
+    </row>
+    <row r="4002" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4002" s="6"/>
       <c r="B4002" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">m14_96</t>
+          <t xml:space="preserve">m12_4</t>
         </is>
       </c>
       <c r="C4002" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Another reason</t>
-        </is>
-      </c>
-    </row>
-    <row r="4003" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4003" s="7"/>
-      <c r="B4003" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">m14_99</t>
-        </is>
-      </c>
-      <c r="C4003" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't know</t>
-        </is>
-      </c>
-    </row>
-    <row r="4005" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4005" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct1b</t>
-        </is>
-      </c>
-      <c r="B4005" s="1"/>
-      <c r="C4005" s="1"/>
-    </row>
-    <row r="4006" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4006" s="2"/>
-      <c r="B4006" s="3"/>
-      <c r="C4006" s="4" t="inlineStr">
+          <t xml:space="preserve">Skin rashes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4003" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4003" s="6"/>
+      <c r="B4003" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_5</t>
+        </is>
+      </c>
+      <c r="C4003" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discomfort around the ears</t>
+        </is>
+      </c>
+    </row>
+    <row r="4004" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4004" s="6"/>
+      <c r="B4004" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_6</t>
+        </is>
+      </c>
+      <c r="C4004" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">General discomfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="4005" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4005" s="6"/>
+      <c r="B4005" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_7</t>
+        </is>
+      </c>
+      <c r="C4005" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steaming up eyewear / glasses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4006" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4006" s="6"/>
+      <c r="B4006" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_8</t>
+        </is>
+      </c>
+      <c r="C4006" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feeling too hot</t>
+        </is>
+      </c>
+    </row>
+    <row r="4007" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4007" s="6"/>
+      <c r="B4007" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_96</t>
+        </is>
+      </c>
+      <c r="C4007" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="4008" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4008" s="7"/>
+      <c r="B4008" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m12_99</t>
+        </is>
+      </c>
+      <c r="C4008" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't think there would be any issues when wearing a mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="4010" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4010" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$v2</t>
+        </is>
+      </c>
+      <c r="B4010" s="1"/>
+      <c r="C4010" s="1"/>
+    </row>
+    <row r="4011" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4011" s="2"/>
+      <c r="B4011" s="3"/>
+      <c r="C4011" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4007" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4007" s="5" t="inlineStr">
+    <row r="4012" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A4012" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4007" s="8" t="inlineStr">
+      <c r="B4012" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4007" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From where have you heard about contact tracing? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4008" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4008" s="6"/>
-      <c r="B4008" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C4008" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4009" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4009" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4009" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_1</t>
-        </is>
-      </c>
-      <c r="C4009" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Health authorities,</t>
-        </is>
-      </c>
-    </row>
-    <row r="4010" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4010" s="6"/>
-      <c r="B4010" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_2</t>
-        </is>
-      </c>
-      <c r="C4010" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My doctor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4011" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4011" s="6"/>
-      <c r="B4011" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_3</t>
-        </is>
-      </c>
-      <c r="C4011" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A nurse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4012" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4012" s="6"/>
-      <c r="B4012" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_4</t>
-        </is>
-      </c>
-      <c r="C4012" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other health or clinic staff such as a receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="4013" spans="1:3" ht="25.0" customHeight="true">
+      <c r="C4012" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who in your household delayed or missed getting vaccinated because of COVID-19? Please tick all apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="4013" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4013" s="6"/>
       <c r="B4013" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_5</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4013" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">A community health worker</t>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
     <row r="4014" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4014" s="6"/>
+      <c r="A4014" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4014" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_6</t>
+          <t xml:space="preserve">v2_1</t>
         </is>
       </c>
       <c r="C4014" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radio</t>
-        </is>
-      </c>
-    </row>
-    <row r="4015" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Me</t>
+        </is>
+      </c>
+    </row>
+    <row r="4015" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4015" s="6"/>
       <c r="B4015" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_7</t>
+          <t xml:space="preserve">v2_2</t>
         </is>
       </c>
       <c r="C4015" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="4016" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Baby age 0 to 23 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="4016" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4016" s="6"/>
       <c r="B4016" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_8</t>
+          <t xml:space="preserve">v2_3</t>
         </is>
       </c>
       <c r="C4016" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Social media</t>
-        </is>
-      </c>
-    </row>
-    <row r="4017" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Child age 2 to 4 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="4017" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4017" s="6"/>
       <c r="B4017" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_9</t>
+          <t xml:space="preserve">v2_4</t>
         </is>
       </c>
       <c r="C4017" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newspapers</t>
+          <t xml:space="preserve">Child age 5-17 years</t>
         </is>
       </c>
     </row>
@@ -47202,129 +47176,129 @@
       <c r="A4018" s="6"/>
       <c r="B4018" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct1b_10</t>
+          <t xml:space="preserve">v2_5</t>
         </is>
       </c>
       <c r="C4018" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">World Health Organisation (WHO)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4019" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4019" s="6"/>
-      <c r="B4019" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_11</t>
-        </is>
-      </c>
-      <c r="C4019" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A contact tracing worker who contacted you</t>
-        </is>
-      </c>
-    </row>
-    <row r="4020" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4020" s="6"/>
-      <c r="B4020" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_96</t>
-        </is>
-      </c>
-      <c r="C4020" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="4021" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4021" s="7"/>
-      <c r="B4021" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct1b_99</t>
-        </is>
-      </c>
-      <c r="C4021" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Can't remember</t>
-        </is>
-      </c>
-    </row>
-    <row r="4023" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4023" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct5</t>
-        </is>
-      </c>
-      <c r="B4023" s="1"/>
-      <c r="C4023" s="1"/>
-    </row>
-    <row r="4024" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4024" s="2"/>
-      <c r="B4024" s="3"/>
-      <c r="C4024" s="4" t="inlineStr">
+          <t xml:space="preserve">Someone else in my household</t>
+        </is>
+      </c>
+    </row>
+    <row r="4019" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4019" s="7"/>
+      <c r="B4019" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v2_99</t>
+        </is>
+      </c>
+      <c r="C4019" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="4021" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4021" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$v4</t>
+        </is>
+      </c>
+      <c r="B4021" s="1"/>
+      <c r="C4021" s="1"/>
+    </row>
+    <row r="4022" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4022" s="2"/>
+      <c r="B4022" s="3"/>
+      <c r="C4022" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4025" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A4025" s="5" t="inlineStr">
+    <row r="4023" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A4023" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4025" s="8" t="inlineStr">
+      <c r="B4023" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4025" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why might you not share the names of all people you have been in contact with? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4026" spans="1:3" ht="40.0" customHeight="true">
+      <c r="C4023" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What should vaccination clinics do to help your household feel safe getting vaccinated during this time? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4024" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4024" s="6"/>
+      <c r="B4024" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4024" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4025" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4025" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4025" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v4_1</t>
+        </is>
+      </c>
+      <c r="C4025" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turn away people who have COVID-19 symptoms such as a fever or cough</t>
+        </is>
+      </c>
+    </row>
+    <row r="4026" spans="1:3" ht="81.0" customHeight="true">
       <c r="A4026" s="6"/>
       <c r="B4026" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">v4_2</t>
         </is>
       </c>
       <c r="C4026" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4027" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4027" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Require people to wear face masks when they are at the clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="4027" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4027" s="6"/>
       <c r="B4027" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_1</t>
+          <t xml:space="preserve">v4_3</t>
         </is>
       </c>
       <c r="C4027" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I could contact them myself</t>
-        </is>
-      </c>
-    </row>
-    <row r="4028" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">Have enough face masks and protective gowns for all staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="4028" spans="1:3" ht="108.0" customHeight="true">
       <c r="A4028" s="6"/>
       <c r="B4028" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_2</t>
+          <t xml:space="preserve">v4_4</t>
         </is>
       </c>
       <c r="C4028" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe this could result in loss of income for those people due to quarantine</t>
+          <t xml:space="preserve">Have specific days and times dedicated only to vaccination for healthy people</t>
         </is>
       </c>
     </row>
@@ -47332,194 +47306,194 @@
       <c r="A4029" s="6"/>
       <c r="B4029" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_3</t>
+          <t xml:space="preserve">v4_5</t>
         </is>
       </c>
       <c r="C4029" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I believe people would blame me for having shared their name</t>
-        </is>
-      </c>
-    </row>
-    <row r="4030" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Offer drive-through vaccination to people while they remain in their cars</t>
+        </is>
+      </c>
+    </row>
+    <row r="4030" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4030" s="6"/>
       <c r="B4030" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct5_4</t>
+          <t xml:space="preserve">v4_96</t>
         </is>
       </c>
       <c r="C4030" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I do not trust authorities</t>
-        </is>
-      </c>
-    </row>
-    <row r="4031" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A4031" s="6"/>
-      <c r="B4031" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_5</t>
-        </is>
-      </c>
-      <c r="C4031" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My family and friends would expect me not to share names</t>
-        </is>
-      </c>
-    </row>
-    <row r="4032" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4032" s="6"/>
-      <c r="B4032" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_6</t>
-        </is>
-      </c>
-      <c r="C4032" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I would cause inconvenience for the people whose names I share</t>
-        </is>
-      </c>
-    </row>
-    <row r="4033" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4033" s="6"/>
-      <c r="B4033" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_7</t>
-        </is>
-      </c>
-      <c r="C4033" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I do not want others to know I tested positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="4034" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A4034" s="6"/>
-      <c r="B4034" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_8</t>
-        </is>
-      </c>
-      <c r="C4034" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contact tracing would not help stop the spread of coronavirus (COVID-19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4035" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4035" s="6"/>
-      <c r="B4035" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_96</t>
-        </is>
-      </c>
-      <c r="C4035" s="12" t="inlineStr">
-        <is>
           <t xml:space="preserve">Other</t>
         </is>
       </c>
     </row>
-    <row r="4036" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4036" s="7"/>
-      <c r="B4036" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct5_99</t>
-        </is>
-      </c>
-      <c r="C4036" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-    <row r="4038" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4038" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ct6</t>
-        </is>
-      </c>
-      <c r="B4038" s="1"/>
-      <c r="C4038" s="1"/>
-    </row>
-    <row r="4039" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4039" s="2"/>
-      <c r="B4039" s="3"/>
-      <c r="C4039" s="4" t="inlineStr">
+    <row r="4031" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4031" s="7"/>
+      <c r="B4031" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">v4_99</t>
+        </is>
+      </c>
+      <c r="C4031" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these things would make me feel safe enough to go to a vaccination clinic right now</t>
+        </is>
+      </c>
+    </row>
+    <row r="4033" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4033" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$m14</t>
+        </is>
+      </c>
+      <c r="B4033" s="1"/>
+      <c r="C4033" s="1"/>
+    </row>
+    <row r="4034" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4034" s="2"/>
+      <c r="B4034" s="3"/>
+      <c r="C4034" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4040" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A4040" s="5" t="inlineStr">
+    <row r="4035" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A4035" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4040" s="8" t="inlineStr">
+      <c r="B4035" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4040" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any of the following topics related to contact tracing would you like to receive more information about? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4041" spans="1:3" ht="40.0" customHeight="true">
+      <c r="C4035" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why are you currently not wearing a mask or face covering when you go outside? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="4036" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4036" s="6"/>
+      <c r="B4036" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4036" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4037" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4037" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4037" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_1</t>
+        </is>
+      </c>
+      <c r="C4037" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not used to wearing a mask or face covering</t>
+        </is>
+      </c>
+    </row>
+    <row r="4038" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4038" s="6"/>
+      <c r="B4038" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_2</t>
+        </is>
+      </c>
+      <c r="C4038" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think only sick people should wear them</t>
+        </is>
+      </c>
+    </row>
+    <row r="4039" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4039" s="6"/>
+      <c r="B4039" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_3</t>
+        </is>
+      </c>
+      <c r="C4039" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coronavirus / COVID19 is not dangerous for me</t>
+        </is>
+      </c>
+    </row>
+    <row r="4040" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4040" s="6"/>
+      <c r="B4040" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m14_4</t>
+        </is>
+      </c>
+      <c r="C4040" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is unlikely that I will get Coronavirus / COVID19 in the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="4041" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4041" s="6"/>
       <c r="B4041" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">m14_5</t>
         </is>
       </c>
       <c r="C4041" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4042" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4042" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Most other people are not wearing them</t>
+        </is>
+      </c>
+    </row>
+    <row r="4042" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4042" s="6"/>
       <c r="B4042" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_1</t>
+          <t xml:space="preserve">m14_6</t>
         </is>
       </c>
       <c r="C4042" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact tracing phone apps</t>
-        </is>
-      </c>
-    </row>
-    <row r="4043" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Masks are not effective in preventing the spread of Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4043" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4043" s="6"/>
       <c r="B4043" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_2</t>
+          <t xml:space="preserve">m14_7</t>
         </is>
       </c>
       <c r="C4043" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">COVID-19 testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4044" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">I don't have any symptoms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4044" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4044" s="6"/>
       <c r="B4044" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_3</t>
+          <t xml:space="preserve">m14_8</t>
         </is>
       </c>
       <c r="C4044" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">What happens to me after being traced</t>
+          <t xml:space="preserve">I think I have already had Covid-19</t>
         </is>
       </c>
     </row>
@@ -47527,51 +47501,51 @@
       <c r="A4045" s="6"/>
       <c r="B4045" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_4</t>
+          <t xml:space="preserve">m14_9</t>
         </is>
       </c>
       <c r="C4045" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">What happens to my data after being traced</t>
-        </is>
-      </c>
-    </row>
-    <row r="4046" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">I think I would find it uncomfortable</t>
+        </is>
+      </c>
+    </row>
+    <row r="4046" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4046" s="6"/>
       <c r="B4046" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_5</t>
+          <t xml:space="preserve">m14_10</t>
         </is>
       </c>
       <c r="C4046" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">What happens to other people after I provide contact details about them</t>
-        </is>
-      </c>
-    </row>
-    <row r="4047" spans="1:3" ht="108.0" customHeight="true">
+          <t xml:space="preserve">People would think I had Covid-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4047" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4047" s="6"/>
       <c r="B4047" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_6</t>
+          <t xml:space="preserve">m14_11</t>
         </is>
       </c>
       <c r="C4047" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">What happens to other people's data after I provide contact details about them</t>
-        </is>
-      </c>
-    </row>
-    <row r="4048" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">I think I would find it hard to communicate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4048" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4048" s="6"/>
       <c r="B4048" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_96</t>
+          <t xml:space="preserve">m14_96</t>
         </is>
       </c>
       <c r="C4048" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Other</t>
+          <t xml:space="preserve">Another reason</t>
         </is>
       </c>
     </row>
@@ -47579,7 +47553,7 @@
       <c r="A4049" s="7"/>
       <c r="B4049" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct6_99</t>
+          <t xml:space="preserve">m14_99</t>
         </is>
       </c>
       <c r="C4049" s="13" t="inlineStr">
@@ -47591,7 +47565,7 @@
     <row r="4051" spans="1:3" ht="18.0" customHeight="true">
       <c r="A4051" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">$ct8</t>
+          <t xml:space="preserve">$ct1b</t>
         </is>
       </c>
       <c r="B4051" s="1"/>
@@ -47606,7 +47580,7 @@
         </is>
       </c>
     </row>
-    <row r="4053" spans="1:3" ht="148.0" customHeight="true">
+    <row r="4053" spans="1:3" ht="94.0" customHeight="true">
       <c r="A4053" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
@@ -47619,7 +47593,7 @@
       </c>
       <c r="C4053" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Which, if any of the following would you trust to conduct contact tracing interviews? Please tick all that apply</t>
+          <t xml:space="preserve">From where have you heard about contact tracing? Please tick all that apply.</t>
         </is>
       </c>
     </row>
@@ -47636,7 +47610,7 @@
         </is>
       </c>
     </row>
-    <row r="4055" spans="1:3" ht="68.0" customHeight="true">
+    <row r="4055" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4055" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
@@ -47644,64 +47618,64 @@
       </c>
       <c r="B4055" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_1</t>
+          <t xml:space="preserve">ct1b_1</t>
         </is>
       </c>
       <c r="C4055" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by the government</t>
-        </is>
-      </c>
-    </row>
-    <row r="4056" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">Health authorities,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4056" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4056" s="6"/>
       <c r="B4056" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_2</t>
+          <t xml:space="preserve">ct1b_2</t>
         </is>
       </c>
       <c r="C4056" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by non-government organisations</t>
-        </is>
-      </c>
-    </row>
-    <row r="4057" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">My doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4057" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4057" s="6"/>
       <c r="B4057" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_3</t>
+          <t xml:space="preserve">ct1b_3</t>
         </is>
       </c>
       <c r="C4057" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Health or social workers sent by international health organizations</t>
-        </is>
-      </c>
-    </row>
-    <row r="4058" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">A nurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="4058" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4058" s="6"/>
       <c r="B4058" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_4</t>
+          <t xml:space="preserve">ct1b_4</t>
         </is>
       </c>
       <c r="C4058" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">People in your local community</t>
-        </is>
-      </c>
-    </row>
-    <row r="4059" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Other health or clinic staff such as a receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4059" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4059" s="6"/>
       <c r="B4059" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_5</t>
+          <t xml:space="preserve">ct1b_5</t>
         </is>
       </c>
       <c r="C4059" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your doctor</t>
+          <t xml:space="preserve">A community health worker</t>
         </is>
       </c>
     </row>
@@ -47709,1351 +47683,1364 @@
       <c r="A4060" s="6"/>
       <c r="B4060" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ct8_6</t>
+          <t xml:space="preserve">ct1b_6</t>
         </is>
       </c>
       <c r="C4060" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volunteers</t>
-        </is>
-      </c>
-    </row>
-    <row r="4061" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4061" s="7"/>
-      <c r="B4061" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ct8_99</t>
-        </is>
-      </c>
-      <c r="C4061" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of the above</t>
-        </is>
-      </c>
-    </row>
-    <row r="4063" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4063" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$w4</t>
-        </is>
-      </c>
-      <c r="B4063" s="1"/>
-      <c r="C4063" s="1"/>
-    </row>
-    <row r="4064" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4064" s="2"/>
-      <c r="B4064" s="3"/>
-      <c r="C4064" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="4065" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4065" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B4065" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C4065" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the past week… have you done any of the following? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4066" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="4061" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4061" s="6"/>
+      <c r="B4061" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_7</t>
+        </is>
+      </c>
+      <c r="C4061" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4062" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4062" s="6"/>
+      <c r="B4062" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_8</t>
+        </is>
+      </c>
+      <c r="C4062" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social media</t>
+        </is>
+      </c>
+    </row>
+    <row r="4063" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4063" s="6"/>
+      <c r="B4063" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_9</t>
+        </is>
+      </c>
+      <c r="C4063" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newspapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4064" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4064" s="6"/>
+      <c r="B4064" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_10</t>
+        </is>
+      </c>
+      <c r="C4064" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World Health Organisation (WHO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4065" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4065" s="6"/>
+      <c r="B4065" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_11</t>
+        </is>
+      </c>
+      <c r="C4065" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A contact tracing worker who contacted you</t>
+        </is>
+      </c>
+    </row>
+    <row r="4066" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4066" s="6"/>
       <c r="B4066" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">ct1b_96</t>
         </is>
       </c>
       <c r="C4066" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4067" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4067" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4067" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_1</t>
-        </is>
-      </c>
-      <c r="C4067" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spoken with someone about your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4068" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A4068" s="6"/>
-      <c r="B4068" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_2</t>
-        </is>
-      </c>
-      <c r="C4068" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taken any prescription medication to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4069" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A4069" s="6"/>
-      <c r="B4069" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_3</t>
-        </is>
-      </c>
-      <c r="C4069" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moderate or high intensity exercise for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4070" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A4070" s="6"/>
-      <c r="B4070" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_4</t>
-        </is>
-      </c>
-      <c r="C4070" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low intensity exercise or walking for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4071" spans="1:3" ht="135.0" customHeight="true">
-      <c r="A4071" s="6"/>
-      <c r="B4071" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_5</t>
-        </is>
-      </c>
-      <c r="C4071" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Practiced meditation, breathing exercises or relaxation to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4072" spans="1:3" ht="255.0" customHeight="true">
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="4067" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4067" s="7"/>
+      <c r="B4067" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct1b_99</t>
+        </is>
+      </c>
+      <c r="C4067" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can't remember</t>
+        </is>
+      </c>
+    </row>
+    <row r="4069" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4069" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct5</t>
+        </is>
+      </c>
+      <c r="B4069" s="1"/>
+      <c r="C4069" s="1"/>
+    </row>
+    <row r="4070" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4070" s="2"/>
+      <c r="B4070" s="3"/>
+      <c r="C4070" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4071" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4071" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4071" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4071" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why might you not share the names of all people you have been in contact with? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4072" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4072" s="6"/>
       <c r="B4072" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_6</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4072" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Provided assistance to others, such as friends, neighbours or co-workers, without expecting anything in return.  For example running an errand or providing childcare without expecting anything in return</t>
-        </is>
-      </c>
-    </row>
-    <row r="4073" spans="1:3" ht="215.0" customHeight="true">
-      <c r="A4073" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4073" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4073" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4073" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_7</t>
+          <t xml:space="preserve">ct5_1</t>
         </is>
       </c>
       <c r="C4073" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Looked for information about how to use psychological therapy, counselling, doctors or other professional care to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4074" spans="1:3" ht="161.0" customHeight="true">
+          <t xml:space="preserve">I could contact them myself</t>
+        </is>
+      </c>
+    </row>
+    <row r="4074" spans="1:3" ht="94.0" customHeight="true">
       <c r="A4074" s="6"/>
       <c r="B4074" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_8</t>
+          <t xml:space="preserve">ct5_2</t>
         </is>
       </c>
       <c r="C4074" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spoken to a therapist, counsellor, doctor or other mental health care professional to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4075" spans="1:3" ht="201.0" customHeight="true">
+          <t xml:space="preserve">I believe this could result in loss of income for those people due to quarantine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4075" spans="1:3" ht="81.0" customHeight="true">
       <c r="A4075" s="6"/>
       <c r="B4075" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_9</t>
+          <t xml:space="preserve">ct5_3</t>
         </is>
       </c>
       <c r="C4075" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Read websites, books, magazines, blogs, articles, leaflets or brochures for information on how to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4076" spans="1:3" ht="122.0" customHeight="true">
+          <t xml:space="preserve">I believe people would blame me for having shared their name</t>
+        </is>
+      </c>
+    </row>
+    <row r="4076" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4076" s="6"/>
       <c r="B4076" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_10</t>
+          <t xml:space="preserve">ct5_4</t>
         </is>
       </c>
       <c r="C4076" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used a mobile phone or tablet health app to improve your stress, mental health or mental wellbeing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4077" spans="1:3" ht="135.0" customHeight="true">
+          <t xml:space="preserve">I do not trust authorities</t>
+        </is>
+      </c>
+    </row>
+    <row r="4077" spans="1:3" ht="68.0" customHeight="true">
       <c r="A4077" s="6"/>
       <c r="B4077" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w4_11</t>
+          <t xml:space="preserve">ct5_5</t>
         </is>
       </c>
       <c r="C4077" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cared for or played with a household pet to improve your stress, mental health or mental wellbeing, such as walking a dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="4078" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4078" s="7"/>
-      <c r="B4078" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w4_99</t>
-        </is>
-      </c>
-      <c r="C4078" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of these</t>
-        </is>
-      </c>
-    </row>
-    <row r="4080" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4080" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$w5</t>
-        </is>
-      </c>
-      <c r="B4080" s="1"/>
-      <c r="C4080" s="1"/>
+          <t xml:space="preserve">My family and friends would expect me not to share names</t>
+        </is>
+      </c>
+    </row>
+    <row r="4078" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4078" s="6"/>
+      <c r="B4078" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_6</t>
+        </is>
+      </c>
+      <c r="C4078" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I would cause inconvenience for the people whose names I share</t>
+        </is>
+      </c>
+    </row>
+    <row r="4079" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4079" s="6"/>
+      <c r="B4079" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_7</t>
+        </is>
+      </c>
+      <c r="C4079" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do not want others to know I tested positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="4080" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4080" s="6"/>
+      <c r="B4080" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_8</t>
+        </is>
+      </c>
+      <c r="C4080" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contact tracing would not help stop the spread of coronavirus (COVID-19)</t>
+        </is>
+      </c>
     </row>
     <row r="4081" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4081" s="2"/>
-      <c r="B4081" s="3"/>
-      <c r="C4081" s="4" t="inlineStr">
+      <c r="A4081" s="6"/>
+      <c r="B4081" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_96</t>
+        </is>
+      </c>
+      <c r="C4081" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="4082" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4082" s="7"/>
+      <c r="B4082" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct5_99</t>
+        </is>
+      </c>
+      <c r="C4082" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4084" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct6</t>
+        </is>
+      </c>
+      <c r="B4084" s="1"/>
+      <c r="C4084" s="1"/>
+    </row>
+    <row r="4085" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4085" s="2"/>
+      <c r="B4085" s="3"/>
+      <c r="C4085" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4082" spans="1:3" ht="228.0" customHeight="true">
-      <c r="A4082" s="5" t="inlineStr">
+    <row r="4086" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A4086" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4082" s="8" t="inlineStr">
+      <c r="B4086" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4082" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You ticked you spoke with someone about your stress, mental health or mental wellbeing in the past week. With whom have you had a conversation with? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4083" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4083" s="6"/>
-      <c r="B4083" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C4083" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4084" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A4084" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4084" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_1</t>
-        </is>
-      </c>
-      <c r="C4084" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Family (including Partner or Civil Partnership)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4085" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A4085" s="6"/>
-      <c r="B4085" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_2</t>
-        </is>
-      </c>
-      <c r="C4085" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friend (not including Partner or Civil Partnership)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4086" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4086" s="6"/>
-      <c r="B4086" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_3</t>
-        </is>
-      </c>
-      <c r="C4086" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP/ General Practitioner / Family Doctor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4087" spans="1:3" ht="15.0" customHeight="true">
+      <c r="C4086" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any of the following topics related to contact tracing would you like to receive more information about? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4087" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4087" s="6"/>
       <c r="B4087" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_4</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4087" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychiatrist</t>
-        </is>
-      </c>
-    </row>
-    <row r="4088" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4088" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4088" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4088" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4088" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_5</t>
+          <t xml:space="preserve">ct6_1</t>
         </is>
       </c>
       <c r="C4088" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychologist</t>
-        </is>
-      </c>
-    </row>
-    <row r="4089" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Contact tracing phone apps</t>
+        </is>
+      </c>
+    </row>
+    <row r="4089" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4089" s="6"/>
       <c r="B4089" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_6</t>
+          <t xml:space="preserve">ct6_2</t>
         </is>
       </c>
       <c r="C4089" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Counsellor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4090" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">COVID-19 testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4090" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4090" s="6"/>
       <c r="B4090" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_7</t>
+          <t xml:space="preserve">ct6_3</t>
         </is>
       </c>
       <c r="C4090" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nurse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4091" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">What happens to me after being traced</t>
+        </is>
+      </c>
+    </row>
+    <row r="4091" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4091" s="6"/>
       <c r="B4091" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_8</t>
+          <t xml:space="preserve">ct6_4</t>
         </is>
       </c>
       <c r="C4091" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Work colleague</t>
-        </is>
-      </c>
-    </row>
-    <row r="4092" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">What happens to my data after being traced</t>
+        </is>
+      </c>
+    </row>
+    <row r="4092" spans="1:3" ht="94.0" customHeight="true">
       <c r="A4092" s="6"/>
       <c r="B4092" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_9</t>
+          <t xml:space="preserve">ct6_5</t>
         </is>
       </c>
       <c r="C4092" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Work supervisor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4093" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">What happens to other people after I provide contact details about them</t>
+        </is>
+      </c>
+    </row>
+    <row r="4093" spans="1:3" ht="108.0" customHeight="true">
       <c r="A4093" s="6"/>
       <c r="B4093" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_10</t>
+          <t xml:space="preserve">ct6_6</t>
         </is>
       </c>
       <c r="C4093" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone from Human Resources where I work</t>
-        </is>
-      </c>
-    </row>
-    <row r="4094" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">What happens to other people's data after I provide contact details about them</t>
+        </is>
+      </c>
+    </row>
+    <row r="4094" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4094" s="6"/>
       <c r="B4094" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_11</t>
+          <t xml:space="preserve">ct6_96</t>
         </is>
       </c>
       <c r="C4094" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone from a mental health training program where I work</t>
-        </is>
-      </c>
-    </row>
-    <row r="4095" spans="1:3" ht="81.0" customHeight="true">
-      <c r="A4095" s="6"/>
-      <c r="B4095" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_12</t>
-        </is>
-      </c>
-      <c r="C4095" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Someone from a charity or other voluntary sector organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="4096" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4096" s="6"/>
-      <c r="B4096" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_13</t>
-        </is>
-      </c>
-      <c r="C4096" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minister, priest, religious leader</t>
-        </is>
-      </c>
-    </row>
-    <row r="4097" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4097" s="6"/>
-      <c r="B4097" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_14</t>
-        </is>
-      </c>
-      <c r="C4097" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Teacher</t>
-        </is>
-      </c>
-    </row>
-    <row r="4098" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4098" s="6"/>
-      <c r="B4098" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_15</t>
-        </is>
-      </c>
-      <c r="C4098" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Someone from a employee assistance program provided by my employer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4099" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A4099" s="6"/>
-      <c r="B4099" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_16</t>
-        </is>
-      </c>
-      <c r="C4099" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental health professional from my health insurance company, such as a counsellor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4100" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="4095" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4095" s="7"/>
+      <c r="B4095" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct6_99</t>
+        </is>
+      </c>
+      <c r="C4095" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4097" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ct8</t>
+        </is>
+      </c>
+      <c r="B4097" s="1"/>
+      <c r="C4097" s="1"/>
+    </row>
+    <row r="4098" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4098" s="2"/>
+      <c r="B4098" s="3"/>
+      <c r="C4098" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" ht="148.0" customHeight="true">
+      <c r="A4099" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4099" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4099" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any of the following would you trust to conduct contact tracing interviews? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4100" s="6"/>
       <c r="B4100" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">w5_96</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4100" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Someone else</t>
-        </is>
-      </c>
-    </row>
-    <row r="4101" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4101" s="7"/>
-      <c r="B4101" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">w5_99</t>
-        </is>
-      </c>
-      <c r="C4101" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don't know</t>
-        </is>
-      </c>
-    </row>
-    <row r="4103" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4103" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$Soc1</t>
-        </is>
-      </c>
-      <c r="B4103" s="1"/>
-      <c r="C4103" s="1"/>
-    </row>
-    <row r="4104" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4104" s="2"/>
-      <c r="B4104" s="3"/>
-      <c r="C4104" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="4105" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A4105" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B4105" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C4105" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the past seven days have you socialised …?</t>
-        </is>
-      </c>
-    </row>
-    <row r="4106" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4101" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4101" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_1</t>
+        </is>
+      </c>
+      <c r="C4101" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by the government</t>
+        </is>
+      </c>
+    </row>
+    <row r="4102" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4102" s="6"/>
+      <c r="B4102" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_2</t>
+        </is>
+      </c>
+      <c r="C4102" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by non-government organisations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4103" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4103" s="6"/>
+      <c r="B4103" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_3</t>
+        </is>
+      </c>
+      <c r="C4103" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Health or social workers sent by international health organizations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4104" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4104" s="6"/>
+      <c r="B4104" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_4</t>
+        </is>
+      </c>
+      <c r="C4104" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">People in your local community</t>
+        </is>
+      </c>
+    </row>
+    <row r="4105" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4105" s="6"/>
+      <c r="B4105" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_5</t>
+        </is>
+      </c>
+      <c r="C4105" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4106" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4106" s="6"/>
       <c r="B4106" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">ct8_6</t>
+        </is>
+      </c>
+      <c r="C4106" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volunteers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4107" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4107" s="7"/>
+      <c r="B4107" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ct8_99</t>
+        </is>
+      </c>
+      <c r="C4107" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of the above</t>
+        </is>
+      </c>
+    </row>
+    <row r="4109" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4109" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$w4</t>
+        </is>
+      </c>
+      <c r="B4109" s="1"/>
+      <c r="C4109" s="1"/>
+    </row>
+    <row r="4110" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4110" s="2"/>
+      <c r="B4110" s="3"/>
+      <c r="C4110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4111" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4111" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4111" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4111" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the past week… have you done any of the following? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4112" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4112" s="6"/>
+      <c r="B4112" s="9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Type</t>
         </is>
       </c>
-      <c r="C4106" s="12" t="inlineStr">
+      <c r="C4112" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
-    <row r="4107" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4107" s="6" t="inlineStr">
+    <row r="4113" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4113" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
         </is>
       </c>
-      <c r="B4107" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soc1_1</t>
-        </is>
-      </c>
-      <c r="C4107" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In an outdoor place in a group of 6 or more people</t>
-        </is>
-      </c>
-    </row>
-    <row r="4108" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4108" s="6"/>
-      <c r="B4108" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soc1_2</t>
-        </is>
-      </c>
-      <c r="C4108" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In an indoor place in a group of 6 or more people</t>
-        </is>
-      </c>
-    </row>
-    <row r="4109" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4109" s="7"/>
-      <c r="B4109" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soc1_3</t>
-        </is>
-      </c>
-      <c r="C4109" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neither</t>
-        </is>
-      </c>
-    </row>
-    <row r="4111" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4111" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$Soc2</t>
-        </is>
-      </c>
-      <c r="B4111" s="1"/>
-      <c r="C4111" s="1"/>
-    </row>
-    <row r="4112" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4112" s="2"/>
-      <c r="B4112" s="3"/>
-      <c r="C4112" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="4113" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A4113" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B4113" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C4113" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">If you did socialise with people indoors, where was that? You can tick more than one.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4114" spans="1:3" ht="40.0" customHeight="true">
+      <c r="B4113" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_1</t>
+        </is>
+      </c>
+      <c r="C4113" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spoken with someone about your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4114" spans="1:3" ht="108.0" customHeight="true">
       <c r="A4114" s="6"/>
       <c r="B4114" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">w4_2</t>
         </is>
       </c>
       <c r="C4114" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4115" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4115" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Taken any prescription medication to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4115" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A4115" s="6"/>
       <c r="B4115" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soc2_1</t>
+          <t xml:space="preserve">w4_3</t>
         </is>
       </c>
       <c r="C4115" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Private house - inside your or someone else's home</t>
-        </is>
-      </c>
-    </row>
-    <row r="4116" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Moderate or high intensity exercise for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4116" spans="1:3" ht="135.0" customHeight="true">
       <c r="A4116" s="6"/>
       <c r="B4116" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soc2_2</t>
+          <t xml:space="preserve">w4_4</t>
         </is>
       </c>
       <c r="C4116" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pub or Bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="4117" spans="1:3" ht="15.0" customHeight="true">
+          <t xml:space="preserve">Low intensity exercise or walking for more than 30 minutes to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4117" spans="1:3" ht="135.0" customHeight="true">
       <c r="A4117" s="6"/>
       <c r="B4117" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soc2_3</t>
+          <t xml:space="preserve">w4_5</t>
         </is>
       </c>
       <c r="C4117" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="4118" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Practiced meditation, breathing exercises or relaxation to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4118" spans="1:3" ht="255.0" customHeight="true">
       <c r="A4118" s="6"/>
       <c r="B4118" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soc2_4</t>
+          <t xml:space="preserve">w4_6</t>
         </is>
       </c>
       <c r="C4118" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your workplace</t>
-        </is>
-      </c>
-    </row>
-    <row r="4119" spans="1:3" ht="25.0" customHeight="true">
+          <t xml:space="preserve">Provided assistance to others, such as friends, neighbours or co-workers, without expecting anything in return.  For example running an errand or providing childcare without expecting anything in return</t>
+        </is>
+      </c>
+    </row>
+    <row r="4119" spans="1:3" ht="215.0" customHeight="true">
       <c r="A4119" s="6"/>
       <c r="B4119" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soc2_5</t>
+          <t xml:space="preserve">w4_7</t>
         </is>
       </c>
       <c r="C4119" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Community centre</t>
-        </is>
-      </c>
-    </row>
-    <row r="4120" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4120" s="7"/>
-      <c r="B4120" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soc2_6</t>
-        </is>
-      </c>
-      <c r="C4120" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="4122" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4122" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$vac3</t>
-        </is>
-      </c>
-      <c r="B4122" s="1"/>
-      <c r="C4122" s="1"/>
-    </row>
-    <row r="4123" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4123" s="2"/>
-      <c r="B4123" s="3"/>
-      <c r="C4123" s="4" t="inlineStr">
+          <t xml:space="preserve">Looked for information about how to use psychological therapy, counselling, doctors or other professional care to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4120" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A4120" s="6"/>
+      <c r="B4120" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_8</t>
+        </is>
+      </c>
+      <c r="C4120" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spoken to a therapist, counsellor, doctor or other mental health care professional to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4121" spans="1:3" ht="201.0" customHeight="true">
+      <c r="A4121" s="6"/>
+      <c r="B4121" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_9</t>
+        </is>
+      </c>
+      <c r="C4121" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Read websites, books, magazines, blogs, articles, leaflets or brochures for information on how to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4122" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A4122" s="6"/>
+      <c r="B4122" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_10</t>
+        </is>
+      </c>
+      <c r="C4122" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Used a mobile phone or tablet health app to improve your stress, mental health or mental wellbeing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4123" spans="1:3" ht="135.0" customHeight="true">
+      <c r="A4123" s="6"/>
+      <c r="B4123" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_11</t>
+        </is>
+      </c>
+      <c r="C4123" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cared for or played with a household pet to improve your stress, mental health or mental wellbeing, such as walking a dog</t>
+        </is>
+      </c>
+    </row>
+    <row r="4124" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4124" s="7"/>
+      <c r="B4124" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w4_99</t>
+        </is>
+      </c>
+      <c r="C4124" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of these</t>
+        </is>
+      </c>
+    </row>
+    <row r="4126" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4126" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$w5</t>
+        </is>
+      </c>
+      <c r="B4126" s="1"/>
+      <c r="C4126" s="1"/>
+    </row>
+    <row r="4127" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4127" s="2"/>
+      <c r="B4127" s="3"/>
+      <c r="C4127" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4124" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A4124" s="5" t="inlineStr">
+    <row r="4128" spans="1:3" ht="228.0" customHeight="true">
+      <c r="A4128" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4124" s="8" t="inlineStr">
+      <c r="B4128" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4124" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which, if any, of the following might make it hard for you to get a COVID-19 vaccine? Please select all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4125" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4125" s="6"/>
-      <c r="B4125" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C4125" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4126" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4126" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4126" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac3_1</t>
-        </is>
-      </c>
-      <c r="C4126" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nothing. It would not be hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="4127" spans="1:3" ht="68.0" customHeight="true">
-      <c r="A4127" s="6"/>
-      <c r="B4127" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac3_2</t>
-        </is>
-      </c>
-      <c r="C4127" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COVID-19 vaccination is not yet available for me</t>
-        </is>
-      </c>
-    </row>
-    <row r="4128" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4128" s="6"/>
-      <c r="B4128" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac3_3</t>
-        </is>
-      </c>
-      <c r="C4128" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COVID-19 vaccination costs too much</t>
-        </is>
-      </c>
-    </row>
-    <row r="4129" spans="1:3" ht="25.0" customHeight="true">
+      <c r="C4128" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You ticked you spoke with someone about your stress, mental health or mental wellbeing in the past week. With whom have you had a conversation with? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4129" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4129" s="6"/>
       <c r="B4129" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac3_4</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4129" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can't go on my own</t>
-        </is>
-      </c>
-    </row>
-    <row r="4130" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4130" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4130" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4130" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4130" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac3_5</t>
+          <t xml:space="preserve">w5_1</t>
         </is>
       </c>
       <c r="C4130" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">The vaccination site is too far away</t>
-        </is>
-      </c>
-    </row>
-    <row r="4131" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Family (including Partner or Civil Partnership)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4131" spans="1:3" ht="68.0" customHeight="true">
       <c r="A4131" s="6"/>
       <c r="B4131" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac3_6</t>
+          <t xml:space="preserve">w5_2</t>
         </is>
       </c>
       <c r="C4131" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">The opening times are inconvenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="4132" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">Friend (not including Partner or Civil Partnership)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4132" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4132" s="6"/>
       <c r="B4132" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac3_7</t>
+          <t xml:space="preserve">w5_3</t>
         </is>
       </c>
       <c r="C4132" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">People are turned away without vaccination</t>
-        </is>
-      </c>
-    </row>
-    <row r="4133" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">GP/ General Practitioner / Family Doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4133" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4133" s="6"/>
       <c r="B4133" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac3_8</t>
+          <t xml:space="preserve">w5_4</t>
         </is>
       </c>
       <c r="C4133" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">The waiting time is too long</t>
-        </is>
-      </c>
-    </row>
-    <row r="4134" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4134" s="7"/>
-      <c r="B4134" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac3_9</t>
-        </is>
-      </c>
-      <c r="C4134" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Something else</t>
-        </is>
-      </c>
-    </row>
-    <row r="4136" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4136" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$av1</t>
-        </is>
-      </c>
-      <c r="B4136" s="1"/>
-      <c r="C4136" s="1"/>
-    </row>
-    <row r="4137" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4137" s="2"/>
-      <c r="B4137" s="3"/>
-      <c r="C4137" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="4138" spans="1:3" ht="108.0" customHeight="true">
-      <c r="A4138" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Standard Attributes</t>
-        </is>
-      </c>
-      <c r="B4138" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Label</t>
-        </is>
-      </c>
-      <c r="C4138" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In the past week, which, if any, of the following have happened? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4139" spans="1:3" ht="40.0" customHeight="true">
+          <t xml:space="preserve">Psychiatrist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4134" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4134" s="6"/>
+      <c r="B4134" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_5</t>
+        </is>
+      </c>
+      <c r="C4134" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychologist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4135" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4135" s="6"/>
+      <c r="B4135" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_6</t>
+        </is>
+      </c>
+      <c r="C4135" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counsellor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4136" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4136" s="6"/>
+      <c r="B4136" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_7</t>
+        </is>
+      </c>
+      <c r="C4136" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="4137" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4137" s="6"/>
+      <c r="B4137" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_8</t>
+        </is>
+      </c>
+      <c r="C4137" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Work colleague</t>
+        </is>
+      </c>
+    </row>
+    <row r="4138" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4138" s="6"/>
+      <c r="B4138" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_9</t>
+        </is>
+      </c>
+      <c r="C4138" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Work supervisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4139" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4139" s="6"/>
       <c r="B4139" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type</t>
+          <t xml:space="preserve">w5_10</t>
         </is>
       </c>
       <c r="C4139" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4140" spans="1:3" ht="122.0" customHeight="true">
-      <c r="A4140" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Someone from Human Resources where I work</t>
+        </is>
+      </c>
+    </row>
+    <row r="4140" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4140" s="6"/>
       <c r="B4140" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">av1_1</t>
+          <t xml:space="preserve">w5_11</t>
         </is>
       </c>
       <c r="C4140" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have seen information online that has warned me about the negative effects of Covid-19 vaccines</t>
-        </is>
-      </c>
-    </row>
-    <row r="4141" spans="1:3" ht="108.0" customHeight="true">
+          <t xml:space="preserve">Someone from a mental health training program where I work</t>
+        </is>
+      </c>
+    </row>
+    <row r="4141" spans="1:3" ht="81.0" customHeight="true">
       <c r="A4141" s="6"/>
       <c r="B4141" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">av1_2</t>
+          <t xml:space="preserve">w5_12</t>
         </is>
       </c>
       <c r="C4141" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Friends and family have warned me about the negative effects of the Covid-19 vaccines</t>
-        </is>
-      </c>
-    </row>
-    <row r="4142" spans="1:3" ht="108.0" customHeight="true">
+          <t xml:space="preserve">Someone from a charity or other voluntary sector organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="4142" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4142" s="6"/>
       <c r="B4142" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">av1_3</t>
+          <t xml:space="preserve">w5_13</t>
         </is>
       </c>
       <c r="C4142" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have shared my own concerns about the negative effects of the Covid-19 vaccines</t>
-        </is>
-      </c>
-    </row>
-    <row r="4143" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4143" s="7"/>
-      <c r="B4143" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">av1_99</t>
-        </is>
-      </c>
-      <c r="C4143" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of the above</t>
-        </is>
-      </c>
-    </row>
-    <row r="4145" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4145" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$vac10</t>
-        </is>
-      </c>
-      <c r="B4145" s="1"/>
-      <c r="C4145" s="1"/>
-    </row>
-    <row r="4146" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4146" s="2"/>
-      <c r="B4146" s="3"/>
-      <c r="C4146" s="4" t="inlineStr">
+          <t xml:space="preserve">Minister, priest, religious leader</t>
+        </is>
+      </c>
+    </row>
+    <row r="4143" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4143" s="6"/>
+      <c r="B4143" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_14</t>
+        </is>
+      </c>
+      <c r="C4143" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="4144" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4144" s="6"/>
+      <c r="B4144" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_15</t>
+        </is>
+      </c>
+      <c r="C4144" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Someone from a employee assistance program provided by my employer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4145" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A4145" s="6"/>
+      <c r="B4145" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_16</t>
+        </is>
+      </c>
+      <c r="C4145" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental health professional from my health insurance company, such as a counsellor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4146" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4146" s="6"/>
+      <c r="B4146" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_96</t>
+        </is>
+      </c>
+      <c r="C4146" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Someone else</t>
+        </is>
+      </c>
+    </row>
+    <row r="4147" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4147" s="7"/>
+      <c r="B4147" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">w5_99</t>
+        </is>
+      </c>
+      <c r="C4147" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't know</t>
+        </is>
+      </c>
+    </row>
+    <row r="4149" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4149" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$Soc1</t>
+        </is>
+      </c>
+      <c r="B4149" s="1"/>
+      <c r="C4149" s="1"/>
+    </row>
+    <row r="4150" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4150" s="2"/>
+      <c r="B4150" s="3"/>
+      <c r="C4150" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4147" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4147" s="5" t="inlineStr">
+    <row r="4151" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4151" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4147" s="8" t="inlineStr">
+      <c r="B4151" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4147" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which of these COVID-19 vaccines are you aware of? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="4148" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4148" s="6"/>
-      <c r="B4148" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C4148" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4149" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4149" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4149" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac10_1</t>
-        </is>
-      </c>
-      <c r="C4149" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AstraZeneca / Oxford</t>
-        </is>
-      </c>
-    </row>
-    <row r="4150" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4150" s="6"/>
-      <c r="B4150" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac10_2</t>
-        </is>
-      </c>
-      <c r="C4150" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moderna</t>
-        </is>
-      </c>
-    </row>
-    <row r="4151" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4151" s="6"/>
-      <c r="B4151" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac10_3</t>
-        </is>
-      </c>
-      <c r="C4151" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pfizer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4152" spans="1:3" ht="15.0" customHeight="true">
+      <c r="C4151" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the past seven days have you socialised …?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4152" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4152" s="6"/>
       <c r="B4152" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac10_4</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4152" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sputnik V</t>
-        </is>
-      </c>
-    </row>
-    <row r="4153" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4153" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4153" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4153" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4153" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac10_5</t>
+          <t xml:space="preserve">Soc1_1</t>
         </is>
       </c>
       <c r="C4153" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sinopharm</t>
-        </is>
-      </c>
-    </row>
-    <row r="4154" spans="1:3" ht="25.0" customHeight="true">
-      <c r="A4154" s="7"/>
-      <c r="B4154" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac10_99</t>
-        </is>
-      </c>
-      <c r="C4154" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of the above</t>
-        </is>
-      </c>
-    </row>
-    <row r="4156" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4156" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$travel1</t>
-        </is>
-      </c>
-      <c r="B4156" s="1"/>
-      <c r="C4156" s="1"/>
-    </row>
-    <row r="4157" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4157" s="2"/>
-      <c r="B4157" s="3"/>
-      <c r="C4157" s="4" t="inlineStr">
+          <t xml:space="preserve">In an outdoor place in a group of 6 or more people</t>
+        </is>
+      </c>
+    </row>
+    <row r="4154" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4154" s="6"/>
+      <c r="B4154" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_2</t>
+        </is>
+      </c>
+      <c r="C4154" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In an indoor place in a group of 6 or more people</t>
+        </is>
+      </c>
+    </row>
+    <row r="4155" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4155" s="7"/>
+      <c r="B4155" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc1_3</t>
+        </is>
+      </c>
+      <c r="C4155" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neither</t>
+        </is>
+      </c>
+    </row>
+    <row r="4157" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4157" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$Soc2</t>
+        </is>
+      </c>
+      <c r="B4157" s="1"/>
+      <c r="C4157" s="1"/>
+    </row>
+    <row r="4158" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4158" s="2"/>
+      <c r="B4158" s="3"/>
+      <c r="C4158" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4158" spans="1:3" ht="215.0" customHeight="true">
-      <c r="A4158" s="5" t="inlineStr">
+    <row r="4159" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4159" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4158" s="8" t="inlineStr">
+      <c r="B4159" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4158" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For which, if any, of these do you think people should provide proof or certification they have been vaccinated against coronavirus (COVID-19) in order to…? Please tick all that apply</t>
-        </is>
-      </c>
-    </row>
-    <row r="4159" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4159" s="6"/>
-      <c r="B4159" s="9" t="inlineStr">
+      <c r="C4159" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you did socialise with people indoors, where was that? You can tick more than one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4160" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4160" s="6"/>
+      <c r="B4160" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Type</t>
         </is>
       </c>
-      <c r="C4159" s="12" t="inlineStr">
+      <c r="C4160" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Dichotomy Set</t>
         </is>
       </c>
     </row>
-    <row r="4160" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4160" s="6" t="inlineStr">
+    <row r="4161" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4161" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiple Response Categories</t>
         </is>
       </c>
-      <c r="B4160" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">travel1_1</t>
-        </is>
-      </c>
-      <c r="C4160" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Travel outside the country they legally reside in</t>
-        </is>
-      </c>
-    </row>
-    <row r="4161" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4161" s="6"/>
       <c r="B4161" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel1_2</t>
+          <t xml:space="preserve">Soc2_1</t>
         </is>
       </c>
       <c r="C4161" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enter a country where they are not a legal resident</t>
-        </is>
-      </c>
-    </row>
-    <row r="4162" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">Private house - inside your or someone else's home</t>
+        </is>
+      </c>
+    </row>
+    <row r="4162" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4162" s="6"/>
       <c r="B4162" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel1_3</t>
+          <t xml:space="preserve">Soc2_2</t>
         </is>
       </c>
       <c r="C4162" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travel outside the local area they reside in (for example, outside their state or county)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4163" spans="1:3" ht="94.0" customHeight="true">
+          <t xml:space="preserve">Pub or Bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4163" spans="1:3" ht="15.0" customHeight="true">
       <c r="A4163" s="6"/>
       <c r="B4163" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">travel1_4</t>
+          <t xml:space="preserve">Soc2_3</t>
         </is>
       </c>
       <c r="C4163" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Be allowed by their employer to go to work in person, if they can work from home</t>
-        </is>
-      </c>
-    </row>
-    <row r="4164" spans="1:3" ht="94.0" customHeight="true">
-      <c r="A4164" s="7"/>
-      <c r="B4164" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">travel1_99</t>
-        </is>
-      </c>
-      <c r="C4164" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None of the above, vaccination proof should not be needed for any of these.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4166" spans="1:3" ht="18.0" customHeight="true">
-      <c r="A4166" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$vac12</t>
-        </is>
-      </c>
-      <c r="B4166" s="1"/>
-      <c r="C4166" s="1"/>
-    </row>
-    <row r="4167" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4167" s="2"/>
-      <c r="B4167" s="3"/>
-      <c r="C4167" s="4" t="inlineStr">
+          <t xml:space="preserve">Restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4164" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4164" s="6"/>
+      <c r="B4164" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_4</t>
+        </is>
+      </c>
+      <c r="C4164" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Your workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="4165" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4165" s="6"/>
+      <c r="B4165" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_5</t>
+        </is>
+      </c>
+      <c r="C4165" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Community centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4166" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4166" s="7"/>
+      <c r="B4166" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soc2_6</t>
+        </is>
+      </c>
+      <c r="C4166" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="4168" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4168" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$vac3</t>
+        </is>
+      </c>
+      <c r="B4168" s="1"/>
+      <c r="C4168" s="1"/>
+    </row>
+    <row r="4169" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4169" s="2"/>
+      <c r="B4169" s="3"/>
+      <c r="C4169" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Value</t>
         </is>
       </c>
     </row>
-    <row r="4168" spans="1:3" ht="161.0" customHeight="true">
-      <c r="A4168" s="5" t="inlineStr">
+    <row r="4170" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A4170" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Standard Attributes</t>
         </is>
       </c>
-      <c r="B4168" s="8" t="inlineStr">
+      <c r="B4170" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Label</t>
         </is>
       </c>
-      <c r="C4168" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Which if any of the following reasons describes why you have not had a Coronavirus (COVID-19) vaccine? Please tick all that apply.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4169" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4169" s="6"/>
-      <c r="B4169" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Type</t>
-        </is>
-      </c>
-      <c r="C4169" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Dichotomy Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="4170" spans="1:3" ht="55.0" customHeight="true">
-      <c r="A4170" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiple Response Categories</t>
-        </is>
-      </c>
-      <c r="B4170" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vac12_1</t>
-        </is>
-      </c>
-      <c r="C4170" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I'm not eligible to receive one yet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4171" spans="1:3" ht="68.0" customHeight="true">
+      <c r="C4170" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which, if any, of the following might make it hard for you to get a COVID-19 vaccine? Please select all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4171" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4171" s="6"/>
       <c r="B4171" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_2</t>
+          <t xml:space="preserve">Type</t>
         </is>
       </c>
       <c r="C4171" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have a medical reason (not including pregnancy)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4172" spans="1:3" ht="148.0" customHeight="true">
-      <c r="A4172" s="6"/>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4172" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4172" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
       <c r="B4172" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_3</t>
+          <t xml:space="preserve">vac3_1</t>
         </is>
       </c>
       <c r="C4172" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Practical reasons (hard to get an appointment, difficult to take time away from work or caring responsibilities)</t>
+          <t xml:space="preserve">Nothing. It would not be hard</t>
         </is>
       </c>
     </row>
@@ -49061,12 +49048,12 @@
       <c r="A4173" s="6"/>
       <c r="B4173" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_4</t>
+          <t xml:space="preserve">vac3_2</t>
         </is>
       </c>
       <c r="C4173" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am pregnant or planning to become pregnant soon</t>
+          <t xml:space="preserve">COVID-19 vaccination is not yet available for me</t>
         </is>
       </c>
     </row>
@@ -49074,101 +49061,647 @@
       <c r="A4174" s="6"/>
       <c r="B4174" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_11</t>
+          <t xml:space="preserve">vac3_3</t>
         </is>
       </c>
       <c r="C4174" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am concerned about fertility in the future</t>
-        </is>
-      </c>
-    </row>
-    <row r="4175" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">COVID-19 vaccination costs too much</t>
+        </is>
+      </c>
+    </row>
+    <row r="4175" spans="1:3" ht="25.0" customHeight="true">
       <c r="A4175" s="6"/>
       <c r="B4175" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_5</t>
+          <t xml:space="preserve">vac3_4</t>
         </is>
       </c>
       <c r="C4175" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have concerns about side effects</t>
-        </is>
-      </c>
-    </row>
-    <row r="4176" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">I can't go on my own</t>
+        </is>
+      </c>
+    </row>
+    <row r="4176" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4176" s="6"/>
       <c r="B4176" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_6</t>
+          <t xml:space="preserve">vac3_5</t>
         </is>
       </c>
       <c r="C4176" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have concerns there has not been enough testing of vaccines</t>
-        </is>
-      </c>
-    </row>
-    <row r="4177" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">The vaccination site is too far away</t>
+        </is>
+      </c>
+    </row>
+    <row r="4177" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4177" s="6"/>
       <c r="B4177" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_7</t>
+          <t xml:space="preserve">vac3_6</t>
         </is>
       </c>
       <c r="C4177" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't think a vaccine would be effective enough</t>
-        </is>
-      </c>
-    </row>
-    <row r="4178" spans="1:3" ht="81.0" customHeight="true">
+          <t xml:space="preserve">The opening times are inconvenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="4178" spans="1:3" ht="55.0" customHeight="true">
       <c r="A4178" s="6"/>
       <c r="B4178" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">vac12_8</t>
+          <t xml:space="preserve">vac3_7</t>
         </is>
       </c>
       <c r="C4178" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am concerned I will not be given the vaccine I prefer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4179" spans="1:3" ht="55.0" customHeight="true">
+          <t xml:space="preserve">People are turned away without vaccination</t>
+        </is>
+      </c>
+    </row>
+    <row r="4179" spans="1:3" ht="40.0" customHeight="true">
       <c r="A4179" s="6"/>
       <c r="B4179" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">vac3_8</t>
+        </is>
+      </c>
+      <c r="C4179" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The waiting time is too long</t>
+        </is>
+      </c>
+    </row>
+    <row r="4180" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4180" s="7"/>
+      <c r="B4180" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac3_9</t>
+        </is>
+      </c>
+      <c r="C4180" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Something else</t>
+        </is>
+      </c>
+    </row>
+    <row r="4182" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4182" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$av1</t>
+        </is>
+      </c>
+      <c r="B4182" s="1"/>
+      <c r="C4182" s="1"/>
+    </row>
+    <row r="4183" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4183" s="2"/>
+      <c r="B4183" s="3"/>
+      <c r="C4183" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4184" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4184" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4184" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4184" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the past week, which, if any, of the following have happened? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4185" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4185" s="6"/>
+      <c r="B4185" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4185" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4186" spans="1:3" ht="122.0" customHeight="true">
+      <c r="A4186" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4186" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">av1_1</t>
+        </is>
+      </c>
+      <c r="C4186" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have seen information online that has warned me about the negative effects of Covid-19 vaccines</t>
+        </is>
+      </c>
+    </row>
+    <row r="4187" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4187" s="6"/>
+      <c r="B4187" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">av1_2</t>
+        </is>
+      </c>
+      <c r="C4187" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friends and family have warned me about the negative effects of the Covid-19 vaccines</t>
+        </is>
+      </c>
+    </row>
+    <row r="4188" spans="1:3" ht="108.0" customHeight="true">
+      <c r="A4188" s="6"/>
+      <c r="B4188" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">av1_3</t>
+        </is>
+      </c>
+      <c r="C4188" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have shared my own concerns about the negative effects of the Covid-19 vaccines</t>
+        </is>
+      </c>
+    </row>
+    <row r="4189" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4189" s="7"/>
+      <c r="B4189" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">av1_99</t>
+        </is>
+      </c>
+      <c r="C4189" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of the above</t>
+        </is>
+      </c>
+    </row>
+    <row r="4191" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4191" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$vac10</t>
+        </is>
+      </c>
+      <c r="B4191" s="1"/>
+      <c r="C4191" s="1"/>
+    </row>
+    <row r="4192" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4192" s="2"/>
+      <c r="B4192" s="3"/>
+      <c r="C4192" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4193" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4193" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4193" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4193" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which of these COVID-19 vaccines are you aware of? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="4194" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4194" s="6"/>
+      <c r="B4194" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4194" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4195" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4195" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4195" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_1</t>
+        </is>
+      </c>
+      <c r="C4195" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AstraZeneca / Oxford</t>
+        </is>
+      </c>
+    </row>
+    <row r="4196" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4196" s="6"/>
+      <c r="B4196" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_2</t>
+        </is>
+      </c>
+      <c r="C4196" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moderna</t>
+        </is>
+      </c>
+    </row>
+    <row r="4197" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4197" s="6"/>
+      <c r="B4197" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_3</t>
+        </is>
+      </c>
+      <c r="C4197" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pfizer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4198" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4198" s="6"/>
+      <c r="B4198" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_4</t>
+        </is>
+      </c>
+      <c r="C4198" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sputnik V</t>
+        </is>
+      </c>
+    </row>
+    <row r="4199" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4199" s="6"/>
+      <c r="B4199" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_5</t>
+        </is>
+      </c>
+      <c r="C4199" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sinopharm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4200" spans="1:3" ht="25.0" customHeight="true">
+      <c r="A4200" s="7"/>
+      <c r="B4200" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac10_99</t>
+        </is>
+      </c>
+      <c r="C4200" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of the above</t>
+        </is>
+      </c>
+    </row>
+    <row r="4202" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4202" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$travel1</t>
+        </is>
+      </c>
+      <c r="B4202" s="1"/>
+      <c r="C4202" s="1"/>
+    </row>
+    <row r="4203" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4203" s="2"/>
+      <c r="B4203" s="3"/>
+      <c r="C4203" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4204" spans="1:3" ht="215.0" customHeight="true">
+      <c r="A4204" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4204" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4204" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For which, if any, of these do you think people should provide proof or certification they have been vaccinated against coronavirus (COVID-19) in order to…? Please tick all that apply</t>
+        </is>
+      </c>
+    </row>
+    <row r="4205" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4205" s="6"/>
+      <c r="B4205" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4205" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4206" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4206" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4206" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel1_1</t>
+        </is>
+      </c>
+      <c r="C4206" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travel outside the country they legally reside in</t>
+        </is>
+      </c>
+    </row>
+    <row r="4207" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4207" s="6"/>
+      <c r="B4207" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel1_2</t>
+        </is>
+      </c>
+      <c r="C4207" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enter a country where they are not a legal resident</t>
+        </is>
+      </c>
+    </row>
+    <row r="4208" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4208" s="6"/>
+      <c r="B4208" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel1_3</t>
+        </is>
+      </c>
+      <c r="C4208" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travel outside the local area they reside in (for example, outside their state or county)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4209" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4209" s="6"/>
+      <c r="B4209" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel1_4</t>
+        </is>
+      </c>
+      <c r="C4209" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Be allowed by their employer to go to work in person, if they can work from home</t>
+        </is>
+      </c>
+    </row>
+    <row r="4210" spans="1:3" ht="94.0" customHeight="true">
+      <c r="A4210" s="7"/>
+      <c r="B4210" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">travel1_99</t>
+        </is>
+      </c>
+      <c r="C4210" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">None of the above, vaccination proof should not be needed for any of these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4212" spans="1:3" ht="18.0" customHeight="true">
+      <c r="A4212" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$vac12</t>
+        </is>
+      </c>
+      <c r="B4212" s="1"/>
+      <c r="C4212" s="1"/>
+    </row>
+    <row r="4213" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4213" s="2"/>
+      <c r="B4213" s="3"/>
+      <c r="C4213" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="4214" spans="1:3" ht="161.0" customHeight="true">
+      <c r="A4214" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Standard Attributes</t>
+        </is>
+      </c>
+      <c r="B4214" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Label</t>
+        </is>
+      </c>
+      <c r="C4214" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Which if any of the following reasons describes why you have not had a Coronavirus (COVID-19) vaccine? Please tick all that apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4215" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4215" s="6"/>
+      <c r="B4215" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type</t>
+        </is>
+      </c>
+      <c r="C4215" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Dichotomy Set</t>
+        </is>
+      </c>
+    </row>
+    <row r="4216" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4216" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiple Response Categories</t>
+        </is>
+      </c>
+      <c r="B4216" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_1</t>
+        </is>
+      </c>
+      <c r="C4216" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm not eligible to receive one yet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4217" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4217" s="6"/>
+      <c r="B4217" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_2</t>
+        </is>
+      </c>
+      <c r="C4217" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have a medical reason (not including pregnancy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4218" spans="1:3" ht="148.0" customHeight="true">
+      <c r="A4218" s="6"/>
+      <c r="B4218" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_3</t>
+        </is>
+      </c>
+      <c r="C4218" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Practical reasons (hard to get an appointment, difficult to take time away from work or caring responsibilities)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4219" spans="1:3" ht="68.0" customHeight="true">
+      <c r="A4219" s="6"/>
+      <c r="B4219" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_4</t>
+        </is>
+      </c>
+      <c r="C4219" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am pregnant or planning to become pregnant soon</t>
+        </is>
+      </c>
+    </row>
+    <row r="4220" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4220" s="6"/>
+      <c r="B4220" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_11</t>
+        </is>
+      </c>
+      <c r="C4220" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am concerned about fertility in the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="4221" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4221" s="6"/>
+      <c r="B4221" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_5</t>
+        </is>
+      </c>
+      <c r="C4221" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have concerns about side effects</t>
+        </is>
+      </c>
+    </row>
+    <row r="4222" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4222" s="6"/>
+      <c r="B4222" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_6</t>
+        </is>
+      </c>
+      <c r="C4222" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have concerns there has not been enough testing of vaccines</t>
+        </is>
+      </c>
+    </row>
+    <row r="4223" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4223" s="6"/>
+      <c r="B4223" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_7</t>
+        </is>
+      </c>
+      <c r="C4223" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't think a vaccine would be effective enough</t>
+        </is>
+      </c>
+    </row>
+    <row r="4224" spans="1:3" ht="81.0" customHeight="true">
+      <c r="A4224" s="6"/>
+      <c r="B4224" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vac12_8</t>
+        </is>
+      </c>
+      <c r="C4224" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am concerned I will not be given the vaccine I prefer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4225" spans="1:3" ht="55.0" customHeight="true">
+      <c r="A4225" s="6"/>
+      <c r="B4225" s="9" t="inlineStr">
+        <is>
           <t xml:space="preserve">vac12_9</t>
         </is>
       </c>
-      <c r="C4179" s="12" t="inlineStr">
+      <c r="C4225" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">If I get a COVID19 vaccine, I may regret it</t>
         </is>
       </c>
     </row>
-    <row r="4180" spans="1:3" ht="40.0" customHeight="true">
-      <c r="A4180" s="6"/>
-      <c r="B4180" s="9" t="inlineStr">
+    <row r="4226" spans="1:3" ht="40.0" customHeight="true">
+      <c r="A4226" s="6"/>
+      <c r="B4226" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">vac12_10</t>
         </is>
       </c>
-      <c r="C4180" s="12" t="inlineStr">
+      <c r="C4226" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccines are not available in my country</t>
         </is>
       </c>
     </row>
-    <row r="4181" spans="1:3" ht="15.0" customHeight="true">
-      <c r="A4181" s="7"/>
-      <c r="B4181" s="10" t="inlineStr">
+    <row r="4227" spans="1:3" ht="15.0" customHeight="true">
+      <c r="A4227" s="7"/>
+      <c r="B4227" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">vac12_96</t>
         </is>
       </c>
-      <c r="C4181" s="13" t="inlineStr">
+      <c r="C4227" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Other</t>
         </is>
@@ -50791,96 +51324,116 @@
     <mergeCell ref="A3854:A3858"/>
     <mergeCell ref="A3860:C3860"/>
     <mergeCell ref="A3861:B3861"/>
-    <mergeCell ref="A3862:A3863"/>
-    <mergeCell ref="A3864:A3869"/>
-    <mergeCell ref="A3871:C3871"/>
-    <mergeCell ref="A3872:B3872"/>
+    <mergeCell ref="A3862:A3864"/>
+    <mergeCell ref="A3865:A3866"/>
+    <mergeCell ref="A3868:C3868"/>
+    <mergeCell ref="A3869:B3869"/>
+    <mergeCell ref="A3870:A3872"/>
     <mergeCell ref="A3873:A3874"/>
-    <mergeCell ref="A3875:A3887"/>
-    <mergeCell ref="A3889:C3889"/>
-    <mergeCell ref="A3890:B3890"/>
-    <mergeCell ref="A3891:A3892"/>
-    <mergeCell ref="A3893:A3907"/>
-    <mergeCell ref="A3909:C3909"/>
-    <mergeCell ref="A3910:B3910"/>
-    <mergeCell ref="A3911:A3912"/>
-    <mergeCell ref="A3913:A3918"/>
-    <mergeCell ref="A3920:C3920"/>
-    <mergeCell ref="A3921:B3921"/>
-    <mergeCell ref="A3922:A3923"/>
-    <mergeCell ref="A3924:A3932"/>
-    <mergeCell ref="A3934:C3934"/>
-    <mergeCell ref="A3935:B3935"/>
-    <mergeCell ref="A3936:A3937"/>
-    <mergeCell ref="A3938:A3947"/>
-    <mergeCell ref="A3949:C3949"/>
-    <mergeCell ref="A3950:B3950"/>
-    <mergeCell ref="A3951:A3952"/>
-    <mergeCell ref="A3953:A3962"/>
-    <mergeCell ref="A3964:C3964"/>
-    <mergeCell ref="A3965:B3965"/>
-    <mergeCell ref="A3966:A3967"/>
-    <mergeCell ref="A3968:A3973"/>
-    <mergeCell ref="A3975:C3975"/>
-    <mergeCell ref="A3976:B3976"/>
-    <mergeCell ref="A3977:A3978"/>
-    <mergeCell ref="A3979:A3985"/>
-    <mergeCell ref="A3987:C3987"/>
-    <mergeCell ref="A3988:B3988"/>
-    <mergeCell ref="A3989:A3990"/>
-    <mergeCell ref="A3991:A4003"/>
-    <mergeCell ref="A4005:C4005"/>
-    <mergeCell ref="A4006:B4006"/>
-    <mergeCell ref="A4007:A4008"/>
-    <mergeCell ref="A4009:A4021"/>
-    <mergeCell ref="A4023:C4023"/>
-    <mergeCell ref="A4024:B4024"/>
-    <mergeCell ref="A4025:A4026"/>
-    <mergeCell ref="A4027:A4036"/>
-    <mergeCell ref="A4038:C4038"/>
-    <mergeCell ref="A4039:B4039"/>
-    <mergeCell ref="A4040:A4041"/>
-    <mergeCell ref="A4042:A4049"/>
+    <mergeCell ref="A3876:C3876"/>
+    <mergeCell ref="A3877:B3877"/>
+    <mergeCell ref="A3878:A3880"/>
+    <mergeCell ref="A3881:A3884"/>
+    <mergeCell ref="A3886:C3886"/>
+    <mergeCell ref="A3887:B3887"/>
+    <mergeCell ref="A3888:A3890"/>
+    <mergeCell ref="A3891:A3894"/>
+    <mergeCell ref="A3896:C3896"/>
+    <mergeCell ref="A3897:B3897"/>
+    <mergeCell ref="A3898:A3900"/>
+    <mergeCell ref="A3901:A3904"/>
+    <mergeCell ref="A3906:C3906"/>
+    <mergeCell ref="A3907:B3907"/>
+    <mergeCell ref="A3908:A3909"/>
+    <mergeCell ref="A3910:A3915"/>
+    <mergeCell ref="A3917:C3917"/>
+    <mergeCell ref="A3918:B3918"/>
+    <mergeCell ref="A3919:A3920"/>
+    <mergeCell ref="A3921:A3933"/>
+    <mergeCell ref="A3935:C3935"/>
+    <mergeCell ref="A3936:B3936"/>
+    <mergeCell ref="A3937:A3938"/>
+    <mergeCell ref="A3939:A3953"/>
+    <mergeCell ref="A3955:C3955"/>
+    <mergeCell ref="A3956:B3956"/>
+    <mergeCell ref="A3957:A3958"/>
+    <mergeCell ref="A3959:A3964"/>
+    <mergeCell ref="A3966:C3966"/>
+    <mergeCell ref="A3967:B3967"/>
+    <mergeCell ref="A3968:A3969"/>
+    <mergeCell ref="A3970:A3978"/>
+    <mergeCell ref="A3980:C3980"/>
+    <mergeCell ref="A3981:B3981"/>
+    <mergeCell ref="A3982:A3983"/>
+    <mergeCell ref="A3984:A3993"/>
+    <mergeCell ref="A3995:C3995"/>
+    <mergeCell ref="A3996:B3996"/>
+    <mergeCell ref="A3997:A3998"/>
+    <mergeCell ref="A3999:A4008"/>
+    <mergeCell ref="A4010:C4010"/>
+    <mergeCell ref="A4011:B4011"/>
+    <mergeCell ref="A4012:A4013"/>
+    <mergeCell ref="A4014:A4019"/>
+    <mergeCell ref="A4021:C4021"/>
+    <mergeCell ref="A4022:B4022"/>
+    <mergeCell ref="A4023:A4024"/>
+    <mergeCell ref="A4025:A4031"/>
+    <mergeCell ref="A4033:C4033"/>
+    <mergeCell ref="A4034:B4034"/>
+    <mergeCell ref="A4035:A4036"/>
+    <mergeCell ref="A4037:A4049"/>
     <mergeCell ref="A4051:C4051"/>
     <mergeCell ref="A4052:B4052"/>
     <mergeCell ref="A4053:A4054"/>
-    <mergeCell ref="A4055:A4061"/>
-    <mergeCell ref="A4063:C4063"/>
-    <mergeCell ref="A4064:B4064"/>
-    <mergeCell ref="A4065:A4066"/>
-    <mergeCell ref="A4067:A4078"/>
-    <mergeCell ref="A4080:C4080"/>
-    <mergeCell ref="A4081:B4081"/>
-    <mergeCell ref="A4082:A4083"/>
-    <mergeCell ref="A4084:A4101"/>
-    <mergeCell ref="A4103:C4103"/>
-    <mergeCell ref="A4104:B4104"/>
-    <mergeCell ref="A4105:A4106"/>
-    <mergeCell ref="A4107:A4109"/>
-    <mergeCell ref="A4111:C4111"/>
-    <mergeCell ref="A4112:B4112"/>
-    <mergeCell ref="A4113:A4114"/>
-    <mergeCell ref="A4115:A4120"/>
-    <mergeCell ref="A4122:C4122"/>
-    <mergeCell ref="A4123:B4123"/>
-    <mergeCell ref="A4124:A4125"/>
-    <mergeCell ref="A4126:A4134"/>
-    <mergeCell ref="A4136:C4136"/>
-    <mergeCell ref="A4137:B4137"/>
-    <mergeCell ref="A4138:A4139"/>
-    <mergeCell ref="A4140:A4143"/>
-    <mergeCell ref="A4145:C4145"/>
-    <mergeCell ref="A4146:B4146"/>
-    <mergeCell ref="A4147:A4148"/>
-    <mergeCell ref="A4149:A4154"/>
-    <mergeCell ref="A4156:C4156"/>
-    <mergeCell ref="A4157:B4157"/>
-    <mergeCell ref="A4158:A4159"/>
-    <mergeCell ref="A4160:A4164"/>
-    <mergeCell ref="A4166:C4166"/>
-    <mergeCell ref="A4167:B4167"/>
-    <mergeCell ref="A4168:A4169"/>
-    <mergeCell ref="A4170:A4181"/>
+    <mergeCell ref="A4055:A4067"/>
+    <mergeCell ref="A4069:C4069"/>
+    <mergeCell ref="A4070:B4070"/>
+    <mergeCell ref="A4071:A4072"/>
+    <mergeCell ref="A4073:A4082"/>
+    <mergeCell ref="A4084:C4084"/>
+    <mergeCell ref="A4085:B4085"/>
+    <mergeCell ref="A4086:A4087"/>
+    <mergeCell ref="A4088:A4095"/>
+    <mergeCell ref="A4097:C4097"/>
+    <mergeCell ref="A4098:B4098"/>
+    <mergeCell ref="A4099:A4100"/>
+    <mergeCell ref="A4101:A4107"/>
+    <mergeCell ref="A4109:C4109"/>
+    <mergeCell ref="A4110:B4110"/>
+    <mergeCell ref="A4111:A4112"/>
+    <mergeCell ref="A4113:A4124"/>
+    <mergeCell ref="A4126:C4126"/>
+    <mergeCell ref="A4127:B4127"/>
+    <mergeCell ref="A4128:A4129"/>
+    <mergeCell ref="A4130:A4147"/>
+    <mergeCell ref="A4149:C4149"/>
+    <mergeCell ref="A4150:B4150"/>
+    <mergeCell ref="A4151:A4152"/>
+    <mergeCell ref="A4153:A4155"/>
+    <mergeCell ref="A4157:C4157"/>
+    <mergeCell ref="A4158:B4158"/>
+    <mergeCell ref="A4159:A4160"/>
+    <mergeCell ref="A4161:A4166"/>
+    <mergeCell ref="A4168:C4168"/>
+    <mergeCell ref="A4169:B4169"/>
+    <mergeCell ref="A4170:A4171"/>
+    <mergeCell ref="A4172:A4180"/>
+    <mergeCell ref="A4182:C4182"/>
+    <mergeCell ref="A4183:B4183"/>
+    <mergeCell ref="A4184:A4185"/>
+    <mergeCell ref="A4186:A4189"/>
+    <mergeCell ref="A4191:C4191"/>
+    <mergeCell ref="A4192:B4192"/>
+    <mergeCell ref="A4193:A4194"/>
+    <mergeCell ref="A4195:A4200"/>
+    <mergeCell ref="A4202:C4202"/>
+    <mergeCell ref="A4203:B4203"/>
+    <mergeCell ref="A4204:A4205"/>
+    <mergeCell ref="A4206:A4210"/>
+    <mergeCell ref="A4212:C4212"/>
+    <mergeCell ref="A4213:B4213"/>
+    <mergeCell ref="A4214:A4215"/>
+    <mergeCell ref="A4216:A4227"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
